--- a/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
+++ b/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$89</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="253">
   <si>
     <t>Rule element ID</t>
   </si>
@@ -273,9 +273,6 @@
     <t>Hedging Designation [Axis]</t>
   </si>
   <si>
-    <t>NotDesignatedAsHedgingInstrumentEconomicHedgesMember, NotDesignatedAsHedgingInstrumentTradingMember\</t>
-  </si>
-  <si>
     <t>DQC_0001.69</t>
   </si>
   <si>
@@ -333,36 +330,6 @@
     <t>Subsequent Event Type [Axis]</t>
   </si>
   <si>
-    <t>DQC_0001.75</t>
-  </si>
-  <si>
-    <t>StatementEquityComponentsAxis</t>
-  </si>
-  <si>
-    <t>Equity Components [Axis]</t>
-  </si>
-  <si>
-    <t>WarrantsNotSettleableInCashMember, ContingentConsiderationClassifiedAsEquityMember, EquityIssuedInBusinessCombinationMember, TrustForBenefitOfEmployeesMember</t>
-  </si>
-  <si>
-    <t>DQC_0001.76</t>
-  </si>
-  <si>
-    <t>StatementScenarioAxis</t>
-  </si>
-  <si>
-    <t>Scenario [Axis]</t>
-  </si>
-  <si>
-    <t>DQC_0001.61</t>
-  </si>
-  <si>
-    <t>RangeAxis</t>
-  </si>
-  <si>
-    <t>Range [Axis]</t>
-  </si>
-  <si>
     <t>Note 1 - Allowable US-GAAP members on the CounterpartyNameAxis</t>
   </si>
   <si>
@@ -870,43 +837,7 @@
     <t>Represents the aggregate total of “Operating Segments” and “Corporate, Non-Segment”, before elimination and reconciliation items.</t>
   </si>
   <si>
-    <t>Note 5 - Allowable US-GAAP Members on the StatementEquityComponentsAxis</t>
-  </si>
-  <si>
-    <t>WarrantsNotSettleableInCashMember</t>
-  </si>
-  <si>
-    <t>Warrants Not Settleable in Cash [Member]</t>
-  </si>
-  <si>
-    <t>Warrants not settleable in cash that are classified in shareholders' equity.</t>
-  </si>
-  <si>
-    <t>ContingentConsiderationClassifiedAsEquityMember</t>
-  </si>
-  <si>
-    <t>Contingent Consideration Classified as Equity [Member]</t>
-  </si>
-  <si>
-    <t>Contingent consideration in a business combination that is classified in shareholders' equity.</t>
-  </si>
-  <si>
-    <t>EquityIssuedInBusinessCombinationMember</t>
-  </si>
-  <si>
-    <t>Equity Issued in Business Combination [Member]</t>
-  </si>
-  <si>
-    <t>Equity issued by an entity in a business combination that is classified in shareholders' equity.</t>
-  </si>
-  <si>
-    <t>TrustForBenefitOfEmployeesMember</t>
-  </si>
-  <si>
-    <t>Trust for Benefit of Employees [Member]</t>
-  </si>
-  <si>
-    <t>Trust created by the entity that exists for the benefit of its employees, such as pension and profit-sharing trusts that are managed by or under the trusteeship of the entity's management.</t>
+    <t>NotDesignatedAsHedgingInstrumentEconomicHedgesMember, NotDesignatedAsHedgingInstrumentTradingMember</t>
   </si>
 </sst>
 </file>
@@ -1333,11 +1264,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC100"/>
+  <dimension ref="A1:AC90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1761,32 +1690,32 @@
         <v>14</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>64</v>
+        <v>252</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>13</v>
@@ -1797,16 +1726,16 @@
     </row>
     <row r="17" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>13</v>
@@ -1817,29 +1746,29 @@
         <v>14</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6" t="s">
@@ -1851,16 +1780,16 @@
     </row>
     <row r="19" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>23</v>
@@ -1876,16 +1805,16 @@
     </row>
     <row r="20" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>13</v>
@@ -1900,979 +1829,1019 @@
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+    <row r="22" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
     </row>
     <row r="24" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+    </row>
+    <row r="25" spans="1:29" s="7" customFormat="1" ht="16.5">
+      <c r="A25" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+    </row>
+    <row r="26" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A26" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="27" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-    </row>
-    <row r="28" spans="1:29" s="7" customFormat="1" ht="16.5">
-      <c r="A28" s="9" t="s">
+      <c r="A27" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-    </row>
-    <row r="29" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A39" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A40" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:5" s="7" customFormat="1" ht="16.5">
+      <c r="A42" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="6" t="s">
+    </row>
+    <row r="43" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A43" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A44" s="6" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A41" s="6" t="s">
+      <c r="B44" s="15"/>
+      <c r="C44" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D41" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="6" t="s">
+    <row r="45" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A45" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6" t="s">
+      <c r="B45" s="15"/>
+      <c r="C45" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="6" t="s">
+      <c r="D45" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A43" s="6" t="s">
+    <row r="46" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A46" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6" t="s">
+      <c r="B46" s="15"/>
+      <c r="C46" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D43" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="6" t="s">
+      <c r="D46" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="45" spans="1:5" s="7" customFormat="1" ht="16.5">
-      <c r="A45" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A46" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A47" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D47" s="6" t="s">
+    </row>
+    <row r="48" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A48" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="C48" s="8" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A48" s="6" t="s">
+      <c r="D48" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="6" t="s">
+    </row>
+    <row r="49" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A49" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E48" s="6" t="s">
+      <c r="C49" s="8" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A49" s="6" t="s">
+      <c r="D49" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="6" t="s">
+    </row>
+    <row r="50" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A50" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E49" s="6" t="s">
+      <c r="C50" s="8" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A50" s="6" t="s">
+      <c r="D50" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A51" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A52" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C52" s="8" t="s">
+    </row>
+    <row r="53" spans="1:5" s="7" customFormat="1" ht="16.5">
+      <c r="A53" s="9"/>
+    </row>
+    <row r="54" spans="1:5" s="7" customFormat="1" ht="16.5">
+      <c r="A54" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E52" s="8" t="s">
+    </row>
+    <row r="55" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A55" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A56" s="6" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A53" s="8" t="s">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="D56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E53" s="8" t="s">
+    </row>
+    <row r="57" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A57" s="6" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A54" s="8" t="s">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="D57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E54" s="8" t="s">
+    </row>
+    <row r="58" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A58" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A55" s="8" t="s">
+      <c r="B58" s="6"/>
+      <c r="C58" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="D58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="7" customFormat="1" ht="16.5">
-      <c r="A56" s="9"/>
-    </row>
-    <row r="57" spans="1:5" s="7" customFormat="1" ht="16.5">
-      <c r="A57" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A58" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A59" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A60" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A61" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A62" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A63" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A64" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A65" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A66" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A67" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A68" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A69" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A70" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A71" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A72" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A73" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A74" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A75" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A76" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A77" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A78" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A79" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="6" t="s">
+      <c r="C79" s="8" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A79" s="6" t="s">
+      <c r="D79" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6" t="s">
+    </row>
+    <row r="80" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A80" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="D79" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="6" t="s">
+      <c r="C80" s="8" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A80" s="6" t="s">
+      <c r="D80" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6" t="s">
+    </row>
+    <row r="81" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A81" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="D80" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="6" t="s">
+      <c r="C81" s="8" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="81" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A81" s="6" t="s">
+      <c r="D81" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6" t="s">
+    </row>
+    <row r="82" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="83" spans="1:29" s="7" customFormat="1" ht="16.5">
+      <c r="A83" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="D81" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="6" t="s">
+    </row>
+    <row r="84" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A84" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+      <c r="U84" s="6"/>
+      <c r="V84" s="6"/>
+      <c r="W84" s="6"/>
+      <c r="X84" s="6"/>
+      <c r="Y84" s="6"/>
+      <c r="Z84" s="6"/>
+      <c r="AA84" s="6"/>
+      <c r="AB84" s="6"/>
+      <c r="AC84" s="6"/>
+    </row>
+    <row r="85" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A85" s="6" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="82" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A82" s="8" t="s">
+      <c r="B85" s="6"/>
+      <c r="C85" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="D85" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D82" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="8" t="s">
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="6"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+      <c r="X85" s="6"/>
+      <c r="Y85" s="6"/>
+      <c r="Z85" s="6"/>
+      <c r="AA85" s="6"/>
+      <c r="AB85" s="6"/>
+      <c r="AC85" s="6"/>
+    </row>
+    <row r="86" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A86" s="6" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="83" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A83" s="8" t="s">
+      <c r="B86" s="6"/>
+      <c r="C86" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="D86" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D83" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="8" t="s">
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="6"/>
+      <c r="AA86" s="6"/>
+      <c r="AB86" s="6"/>
+      <c r="AC86" s="6"/>
+    </row>
+    <row r="87" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A87" s="6" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="84" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A84" s="8" t="s">
+      <c r="B87" s="6"/>
+      <c r="C87" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="D87" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E87" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="86" spans="1:29" s="7" customFormat="1" ht="16.5">
-      <c r="A86" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A87" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>96</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
@@ -2901,17 +2870,17 @@
     </row>
     <row r="88" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A88" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -2940,17 +2909,17 @@
     </row>
     <row r="89" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A89" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
@@ -2977,285 +2946,9 @@
       <c r="AB89" s="6"/>
       <c r="AC89" s="6"/>
     </row>
-    <row r="90" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A90" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="6"/>
-      <c r="Q90" s="6"/>
-      <c r="R90" s="6"/>
-      <c r="S90" s="6"/>
-      <c r="T90" s="6"/>
-      <c r="U90" s="6"/>
-      <c r="V90" s="6"/>
-      <c r="W90" s="6"/>
-      <c r="X90" s="6"/>
-      <c r="Y90" s="6"/>
-      <c r="Z90" s="6"/>
-      <c r="AA90" s="6"/>
-      <c r="AB90" s="6"/>
-      <c r="AC90" s="6"/>
-    </row>
-    <row r="91" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A91" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
-      <c r="O91" s="6"/>
-      <c r="P91" s="6"/>
-      <c r="Q91" s="6"/>
-      <c r="R91" s="6"/>
-      <c r="S91" s="6"/>
-      <c r="T91" s="6"/>
-      <c r="U91" s="6"/>
-      <c r="V91" s="6"/>
-      <c r="W91" s="6"/>
-      <c r="X91" s="6"/>
-      <c r="Y91" s="6"/>
-      <c r="Z91" s="6"/>
-      <c r="AA91" s="6"/>
-      <c r="AB91" s="6"/>
-      <c r="AC91" s="6"/>
-    </row>
-    <row r="92" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A92" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="6"/>
-      <c r="Q92" s="6"/>
-      <c r="R92" s="6"/>
-      <c r="S92" s="6"/>
-      <c r="T92" s="6"/>
-      <c r="U92" s="6"/>
-      <c r="V92" s="6"/>
-      <c r="W92" s="6"/>
-      <c r="X92" s="6"/>
-      <c r="Y92" s="6"/>
-      <c r="Z92" s="6"/>
-      <c r="AA92" s="6"/>
-      <c r="AB92" s="6"/>
-      <c r="AC92" s="6"/>
-    </row>
-    <row r="93" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="6"/>
-      <c r="O93" s="6"/>
-      <c r="P93" s="6"/>
-      <c r="Q93" s="6"/>
-      <c r="R93" s="6"/>
-      <c r="S93" s="6"/>
-      <c r="T93" s="6"/>
-      <c r="U93" s="6"/>
-      <c r="V93" s="6"/>
-      <c r="W93" s="6"/>
-      <c r="X93" s="6"/>
-      <c r="Y93" s="6"/>
-      <c r="Z93" s="6"/>
-      <c r="AA93" s="6"/>
-      <c r="AB93" s="6"/>
-      <c r="AC93" s="6"/>
-    </row>
-    <row r="94" spans="1:29" s="7" customFormat="1" ht="16.5">
-      <c r="A94" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-      <c r="M94" s="6"/>
-      <c r="N94" s="6"/>
-      <c r="O94" s="6"/>
-      <c r="P94" s="6"/>
-      <c r="Q94" s="6"/>
-      <c r="R94" s="6"/>
-      <c r="S94" s="6"/>
-      <c r="T94" s="6"/>
-      <c r="U94" s="6"/>
-      <c r="V94" s="6"/>
-      <c r="W94" s="6"/>
-      <c r="X94" s="6"/>
-      <c r="Y94" s="6"/>
-      <c r="Z94" s="6"/>
-      <c r="AA94" s="6"/>
-      <c r="AB94" s="6"/>
-      <c r="AC94" s="6"/>
-    </row>
-    <row r="95" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A95" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="6"/>
-      <c r="P95" s="6"/>
-      <c r="Q95" s="6"/>
-      <c r="R95" s="6"/>
-      <c r="S95" s="6"/>
-      <c r="T95" s="6"/>
-      <c r="U95" s="6"/>
-      <c r="V95" s="6"/>
-      <c r="W95" s="6"/>
-      <c r="X95" s="6"/>
-      <c r="Y95" s="6"/>
-      <c r="Z95" s="6"/>
-      <c r="AA95" s="6"/>
-      <c r="AB95" s="6"/>
-      <c r="AC95" s="6"/>
-    </row>
-    <row r="96" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A96" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A97" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A98" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A99" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="90" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:K99"/>
+  <autoFilter ref="A1:K89"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
+++ b/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
@@ -273,9 +273,6 @@
     <t>Hedging Designation [Axis]</t>
   </si>
   <si>
-    <t>NotDesignatedAsHedgingInstrumentEconomicHedgesMember, NotDesignatedAsHedgingInstrumentTradingMember\</t>
-  </si>
-  <si>
     <t>DQC_0001.69</t>
   </si>
   <si>
@@ -907,6 +904,9 @@
   </si>
   <si>
     <t>Trust created by the entity that exists for the benefit of its employees, such as pension and profit-sharing trusts that are managed by or under the trusteeship of the entity's management.</t>
+  </si>
+  <si>
+    <t>NotDesignatedAsHedgingInstrumentEconomicHedgesMember, NotDesignatedAsHedgingInstrumentTradingMember</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1336,7 @@
   <dimension ref="A1:AC100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1761,32 +1761,32 @@
         <v>14</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>64</v>
+        <v>275</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>13</v>
@@ -1797,16 +1797,16 @@
     </row>
     <row r="17" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>13</v>
@@ -1817,29 +1817,29 @@
         <v>14</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6" t="s">
@@ -1851,16 +1851,16 @@
     </row>
     <row r="19" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>23</v>
@@ -1876,16 +1876,16 @@
     </row>
     <row r="20" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>13</v>
@@ -1901,23 +1901,23 @@
     </row>
     <row r="21" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>13</v>
@@ -1928,16 +1928,16 @@
     </row>
     <row r="22" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>13</v>
@@ -1953,16 +1953,16 @@
     </row>
     <row r="23" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>13</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="28" spans="1:29" s="7" customFormat="1" ht="16.5">
       <c r="A28" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="29" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A29" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
@@ -2080,228 +2080,228 @@
         <v>1</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A39" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A40" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A41" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="45" spans="1:5" s="7" customFormat="1" ht="16.5">
       <c r="A45" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A46" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10" t="s">
@@ -2311,137 +2311,137 @@
         <v>1</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="E47" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A48" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B49" s="15"/>
       <c r="C49" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A51" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="D51" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A52" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="D52" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A53" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="D53" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A54" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="D54" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E54" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A55" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="D55" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="7" customFormat="1" ht="16.5">
@@ -2449,12 +2449,12 @@
     </row>
     <row r="57" spans="1:5" s="7" customFormat="1" ht="16.5">
       <c r="A57" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A58" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10" t="s">
@@ -2464,405 +2464,405 @@
         <v>1</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A59" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A60" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A61" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A62" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A63" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A64" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A65" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A66" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A67" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A68" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A69" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A70" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A71" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A72" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A73" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A74" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A75" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A76" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A77" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A78" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A79" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A80" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A81" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="82" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A82" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="D82" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="8" t="s">
         <v>239</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="83" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A83" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="D83" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="84" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A84" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="D84" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="8" t="s">
         <v>245</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="85" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="86" spans="1:29" s="7" customFormat="1" ht="16.5">
       <c r="A86" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A87" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B87" s="10"/>
       <c r="C87" s="10" t="s">
@@ -2872,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
@@ -2901,17 +2901,17 @@
     </row>
     <row r="88" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A88" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E88" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>250</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -2940,17 +2940,17 @@
     </row>
     <row r="89" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A89" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E89" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>253</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
@@ -2979,17 +2979,17 @@
     </row>
     <row r="90" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A90" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
@@ -3018,17 +3018,17 @@
     </row>
     <row r="91" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A91" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>259</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
@@ -3057,17 +3057,17 @@
     </row>
     <row r="92" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A92" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="94" spans="1:29" s="7" customFormat="1" ht="16.5">
       <c r="A94" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -3160,7 +3160,7 @@
     </row>
     <row r="95" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A95" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="10" t="s">
@@ -3170,7 +3170,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
@@ -3199,58 +3199,58 @@
     </row>
     <row r="96" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A96" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="D96" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="8" t="s">
         <v>265</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A97" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="D97" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="8" t="s">
         <v>268</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A98" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="D98" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="8" t="s">
         <v>271</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A99" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C99" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="D99" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="8" t="s">
         <v>274</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1"/>

--- a/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
+++ b/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="277">
   <si>
     <t>Rule element ID</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Limited</t>
   </si>
   <si>
-    <t>FairValueInputsLevel1AndLevel2Member, FairValueInputsLevel2AndLevel3Member</t>
-  </si>
-  <si>
     <t>DQC_0001.52</t>
   </si>
   <si>
@@ -907,6 +904,12 @@
   </si>
   <si>
     <t>NotDesignatedAsHedgingInstrumentEconomicHedgesMember, NotDesignatedAsHedgingInstrumentTradingMember</t>
+  </si>
+  <si>
+    <t>FairValueInputsLevel1AndLevel2Member, FairValueInputsLevel2AndLevel3Member, InvestmentsNetAssetValueMember</t>
+  </si>
+  <si>
+    <t>InvestmentsNetAssetValueMember</t>
   </si>
 </sst>
 </file>
@@ -1335,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1420,22 +1423,22 @@
         <v>14</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
       <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>13</v>
@@ -1443,26 +1446,26 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1474,25 +1477,25 @@
     </row>
     <row r="5" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>13</v>
@@ -1502,19 +1505,19 @@
     </row>
     <row r="6" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1526,19 +1529,19 @@
     </row>
     <row r="7" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="E7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1551,23 +1554,23 @@
     </row>
     <row r="8" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="E8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>13</v>
@@ -1587,19 +1590,19 @@
     </row>
     <row r="9" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="E9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1612,19 +1615,19 @@
     </row>
     <row r="10" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -1637,16 +1640,16 @@
     </row>
     <row r="11" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>13</v>
@@ -1657,23 +1660,23 @@
         <v>14</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>13</v>
@@ -1684,23 +1687,23 @@
         <v>14</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>13</v>
@@ -1708,7 +1711,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1716,16 +1719,16 @@
     </row>
     <row r="14" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>13</v>
@@ -1733,24 +1736,26 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>276</v>
+      </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>13</v>
@@ -1761,32 +1766,32 @@
         <v>14</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>13</v>
@@ -1797,16 +1802,16 @@
     </row>
     <row r="17" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>13</v>
@@ -1817,29 +1822,29 @@
         <v>14</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6" t="s">
@@ -1851,19 +1856,19 @@
     </row>
     <row r="19" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="E19" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -1876,16 +1881,16 @@
     </row>
     <row r="20" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>13</v>
@@ -1893,7 +1898,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -1901,23 +1906,23 @@
     </row>
     <row r="21" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>13</v>
@@ -1928,16 +1933,16 @@
     </row>
     <row r="22" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>13</v>
@@ -1953,16 +1958,16 @@
     </row>
     <row r="23" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>13</v>
@@ -1970,7 +1975,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -2037,7 +2042,7 @@
     </row>
     <row r="28" spans="1:29" s="7" customFormat="1" ht="16.5">
       <c r="A28" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -2070,7 +2075,7 @@
     </row>
     <row r="29" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A29" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
@@ -2080,228 +2085,228 @@
         <v>1</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A39" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A40" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A41" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="45" spans="1:5" s="7" customFormat="1" ht="16.5">
       <c r="A45" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A46" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10" t="s">
@@ -2311,137 +2316,137 @@
         <v>1</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="E47" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A48" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B49" s="15"/>
       <c r="C49" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A51" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="D51" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A52" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="D52" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A53" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="D53" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A54" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="D54" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E54" s="8" t="s">
         <v>162</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A55" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="D55" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="7" customFormat="1" ht="16.5">
@@ -2449,12 +2454,12 @@
     </row>
     <row r="57" spans="1:5" s="7" customFormat="1" ht="16.5">
       <c r="A57" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A58" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10" t="s">
@@ -2464,405 +2469,405 @@
         <v>1</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A59" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A60" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A61" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A62" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A63" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A64" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A65" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A66" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A67" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A68" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A69" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A70" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A71" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A72" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A73" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A74" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A75" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A76" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A77" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A78" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A79" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A80" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A81" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A82" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="D82" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A83" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="D83" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A84" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="D84" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="86" spans="1:29" s="7" customFormat="1" ht="16.5">
       <c r="A86" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A87" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B87" s="10"/>
       <c r="C87" s="10" t="s">
@@ -2872,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
@@ -2901,17 +2906,17 @@
     </row>
     <row r="88" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A88" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E88" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -2940,17 +2945,17 @@
     </row>
     <row r="89" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A89" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E89" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>252</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
@@ -2979,17 +2984,17 @@
     </row>
     <row r="90" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A90" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>255</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
@@ -3018,17 +3023,17 @@
     </row>
     <row r="91" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A91" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>258</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
@@ -3057,17 +3062,17 @@
     </row>
     <row r="92" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A92" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
@@ -3127,7 +3132,7 @@
     </row>
     <row r="94" spans="1:29" s="7" customFormat="1" ht="16.5">
       <c r="A94" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -3160,7 +3165,7 @@
     </row>
     <row r="95" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A95" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="10" t="s">
@@ -3170,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
@@ -3199,64 +3204,65 @@
     </row>
     <row r="96" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A96" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="D96" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="8" t="s">
         <v>264</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A97" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="D97" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="8" t="s">
         <v>267</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A98" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="D98" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="8" t="s">
         <v>270</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A99" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C99" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="D99" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A1:K99"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
+++ b/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7320" windowWidth="23340" windowHeight="9405"/>
+    <workbookView xWindow="3180" yWindow="0" windowWidth="12600" windowHeight="22350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$100</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="280">
   <si>
     <t>Rule element ID</t>
   </si>
@@ -910,13 +910,22 @@
   </si>
   <si>
     <t>InvestmentsNetAssetValueMember</t>
+  </si>
+  <si>
+    <t>AutomobilesMember</t>
+  </si>
+  <si>
+    <t>Automobiles [Member]</t>
+  </si>
+  <si>
+    <t>Vehicles that are used primarily for transporting people.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -968,6 +977,15 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1025,7 +1043,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1042,6 +1060,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1336,10 +1357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC100"/>
+  <dimension ref="A1:AC101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2859,64 +2880,39 @@
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="86" spans="1:29" s="7" customFormat="1" ht="16.5">
-      <c r="A86" s="9" t="s">
+    <row r="85" spans="1:29" s="17" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A85" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="87" spans="1:29" s="7" customFormat="1" ht="16.5">
+      <c r="A87" s="9" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="87" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A87" s="10" t="s">
+    <row r="88" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A88" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10" t="s">
+      <c r="B88" s="10"/>
+      <c r="C88" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D88" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="E88" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
-      <c r="R87" s="6"/>
-      <c r="S87" s="6"/>
-      <c r="T87" s="6"/>
-      <c r="U87" s="6"/>
-      <c r="V87" s="6"/>
-      <c r="W87" s="6"/>
-      <c r="X87" s="6"/>
-      <c r="Y87" s="6"/>
-      <c r="Z87" s="6"/>
-      <c r="AA87" s="6"/>
-      <c r="AB87" s="6"/>
-      <c r="AC87" s="6"/>
-    </row>
-    <row r="88" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A88" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>248</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -2945,17 +2941,17 @@
     </row>
     <row r="89" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A89" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>140</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
@@ -2984,17 +2980,17 @@
     </row>
     <row r="90" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A90" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>140</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
@@ -3023,17 +3019,17 @@
     </row>
     <row r="91" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A91" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>140</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
@@ -3062,17 +3058,17 @@
     </row>
     <row r="92" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A92" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>140</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
@@ -3100,11 +3096,19 @@
       <c r="AC92" s="6"/>
     </row>
     <row r="93" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A93" s="6"/>
+      <c r="A93" s="6" t="s">
+        <v>258</v>
+      </c>
       <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
+      <c r="C93" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>260</v>
+      </c>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
@@ -3130,10 +3134,8 @@
       <c r="AB93" s="6"/>
       <c r="AC93" s="6"/>
     </row>
-    <row r="94" spans="1:29" s="7" customFormat="1" ht="16.5">
-      <c r="A94" s="9" t="s">
-        <v>261</v>
-      </c>
+    <row r="94" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -3163,20 +3165,14 @@
       <c r="AB94" s="6"/>
       <c r="AC94" s="6"/>
     </row>
-    <row r="95" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A95" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>94</v>
-      </c>
+    <row r="95" spans="1:29" s="7" customFormat="1" ht="16.5">
+      <c r="A95" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
@@ -3203,64 +3199,103 @@
       <c r="AC95" s="6"/>
     </row>
     <row r="96" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A96" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>264</v>
-      </c>
+      <c r="A96" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+      <c r="T96" s="6"/>
+      <c r="U96" s="6"/>
+      <c r="V96" s="6"/>
+      <c r="W96" s="6"/>
+      <c r="X96" s="6"/>
+      <c r="Y96" s="6"/>
+      <c r="Z96" s="6"/>
+      <c r="AA96" s="6"/>
+      <c r="AB96" s="6"/>
+      <c r="AC96" s="6"/>
     </row>
     <row r="97" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A97" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A98" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A99" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A100" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C100" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D99" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" s="8" t="s">
+      <c r="D100" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="8" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="100" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="101" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:K99"/>
+  <autoFilter ref="A1:K100"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
+++ b/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
@@ -306,9 +306,6 @@
     <t>Defined Benefit Plan, Asset Categories [Axis]</t>
   </si>
   <si>
-    <t>All - except members on DefinedBenefitPlansDisclosuresDefinedBenefitPlansAxis</t>
-  </si>
-  <si>
     <t>DQC_0001.72</t>
   </si>
   <si>
@@ -906,9 +903,6 @@
     <t>NotDesignatedAsHedgingInstrumentEconomicHedgesMember, NotDesignatedAsHedgingInstrumentTradingMember</t>
   </si>
   <si>
-    <t>FairValueInputsLevel1AndLevel2Member, FairValueInputsLevel2AndLevel3Member, InvestmentsNetAssetValueMember</t>
-  </si>
-  <si>
     <t>InvestmentsNetAssetValueMember</t>
   </si>
   <si>
@@ -919,6 +913,12 @@
   </si>
   <si>
     <t>Vehicles that are used primarily for transporting people.</t>
+  </si>
+  <si>
+    <t>ALL but no members on DefinedBenefitPlansDisclosuresDefinedBenefitPlansAxis</t>
+  </si>
+  <si>
+    <t>FairValueInputsLevel1AndLevel2Member, FairValueInputsLevel2AndLevel3, MemberFairValueMeasuredAtNetAssetValuePerShareMember</t>
   </si>
 </sst>
 </file>
@@ -1359,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1444,7 +1444,7 @@
         <v>14</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="J2" s="6"/>
     </row>
@@ -1757,10 +1757,10 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -1787,7 +1787,7 @@
         <v>14</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -1865,7 +1865,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>75</v>
+        <v>278</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6" t="s">
@@ -1877,16 +1877,16 @@
     </row>
     <row r="19" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>22</v>
@@ -1902,16 +1902,16 @@
     </row>
     <row r="20" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>13</v>
@@ -1927,23 +1927,23 @@
     </row>
     <row r="21" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>13</v>
@@ -1954,16 +1954,16 @@
     </row>
     <row r="22" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>13</v>
@@ -1979,16 +1979,16 @@
     </row>
     <row r="23" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>13</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="28" spans="1:29" s="7" customFormat="1" ht="16.5">
       <c r="A28" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="29" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A29" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
@@ -2106,228 +2106,228 @@
         <v>1</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A39" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A40" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A41" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="45" spans="1:5" s="7" customFormat="1" ht="16.5">
       <c r="A45" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A46" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10" t="s">
@@ -2337,137 +2337,137 @@
         <v>1</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="E47" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A48" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B49" s="15"/>
       <c r="C49" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A51" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="D51" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A52" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="D52" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A53" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="D53" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A54" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="D54" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A55" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="D55" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="7" customFormat="1" ht="16.5">
@@ -2475,12 +2475,12 @@
     </row>
     <row r="57" spans="1:5" s="7" customFormat="1" ht="16.5">
       <c r="A57" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A58" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10" t="s">
@@ -2490,419 +2490,419 @@
         <v>1</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A59" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A60" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A61" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A62" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A63" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A64" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A65" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A66" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A67" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A68" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A69" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A70" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A71" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A72" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A73" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A74" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A75" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A76" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A77" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A78" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A79" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A80" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A81" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="82" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A82" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="D82" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="8" t="s">
         <v>237</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="83" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A83" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="D83" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="84" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A84" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="D84" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="85" spans="1:29" s="17" customFormat="1" ht="15.75" customHeight="1">
       <c r="A85" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="18" t="s">
         <v>277</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="D85" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="18" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="86" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="87" spans="1:29" s="7" customFormat="1" ht="16.5">
       <c r="A87" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A88" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B88" s="10"/>
       <c r="C88" s="10" t="s">
@@ -2912,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -2941,17 +2941,17 @@
     </row>
     <row r="89" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A89" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E89" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>248</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
@@ -2980,17 +2980,17 @@
     </row>
     <row r="90" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A90" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
@@ -3019,17 +3019,17 @@
     </row>
     <row r="91" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A91" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
@@ -3058,17 +3058,17 @@
     </row>
     <row r="92" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A92" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
@@ -3097,17 +3097,17 @@
     </row>
     <row r="93" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A93" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E93" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>260</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="95" spans="1:29" s="7" customFormat="1" ht="16.5">
       <c r="A95" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="96" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A96" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="10" t="s">
@@ -3210,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
@@ -3239,58 +3239,58 @@
     </row>
     <row r="97" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A97" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="D97" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A98" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="D98" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="8" t="s">
         <v>266</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A99" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="D99" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="8" t="s">
         <v>269</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A100" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C100" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="D100" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1"/>

--- a/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
+++ b/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="0" windowWidth="12600" windowHeight="22350"/>
+    <workbookView xWindow="2730" yWindow="870" windowWidth="23280" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -918,7 +918,7 @@
     <t>ALL but no members on DefinedBenefitPlansDisclosuresDefinedBenefitPlansAxis</t>
   </si>
   <si>
-    <t>FairValueInputsLevel1AndLevel2Member, FairValueInputsLevel2AndLevel3, MemberFairValueMeasuredAtNetAssetValuePerShareMember</t>
+    <t>FairValueInputsLevel1AndLevel2Member, FairValueInputsLevel2AndLevel3Member, FairValueMeasuredAtNetAssetValuePerShareMember</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>

--- a/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
+++ b/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="0" windowWidth="12600" windowHeight="22350"/>
+    <workbookView xWindow="2730" yWindow="870" windowWidth="23280" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -306,9 +306,6 @@
     <t>Defined Benefit Plan, Asset Categories [Axis]</t>
   </si>
   <si>
-    <t>All - except members on DefinedBenefitPlansDisclosuresDefinedBenefitPlansAxis</t>
-  </si>
-  <si>
     <t>DQC_0001.72</t>
   </si>
   <si>
@@ -906,9 +903,6 @@
     <t>NotDesignatedAsHedgingInstrumentEconomicHedgesMember, NotDesignatedAsHedgingInstrumentTradingMember</t>
   </si>
   <si>
-    <t>FairValueInputsLevel1AndLevel2Member, FairValueInputsLevel2AndLevel3Member, InvestmentsNetAssetValueMember</t>
-  </si>
-  <si>
     <t>InvestmentsNetAssetValueMember</t>
   </si>
   <si>
@@ -919,6 +913,12 @@
   </si>
   <si>
     <t>Vehicles that are used primarily for transporting people.</t>
+  </si>
+  <si>
+    <t>ALL but no members on DefinedBenefitPlansDisclosuresDefinedBenefitPlansAxis</t>
+  </si>
+  <si>
+    <t>FairValueInputsLevel1AndLevel2Member, FairValueInputsLevel2AndLevel3Member, FairValueMeasuredAtNetAssetValuePerShareMember</t>
   </si>
 </sst>
 </file>
@@ -1359,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1444,7 +1444,7 @@
         <v>14</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="J2" s="6"/>
     </row>
@@ -1757,10 +1757,10 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -1787,7 +1787,7 @@
         <v>14</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -1865,7 +1865,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>75</v>
+        <v>278</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6" t="s">
@@ -1877,16 +1877,16 @@
     </row>
     <row r="19" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>22</v>
@@ -1902,16 +1902,16 @@
     </row>
     <row r="20" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>13</v>
@@ -1927,23 +1927,23 @@
     </row>
     <row r="21" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>13</v>
@@ -1954,16 +1954,16 @@
     </row>
     <row r="22" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>13</v>
@@ -1979,16 +1979,16 @@
     </row>
     <row r="23" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>13</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="28" spans="1:29" s="7" customFormat="1" ht="16.5">
       <c r="A28" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="29" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A29" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
@@ -2106,228 +2106,228 @@
         <v>1</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A39" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A40" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A41" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="45" spans="1:5" s="7" customFormat="1" ht="16.5">
       <c r="A45" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A46" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10" t="s">
@@ -2337,137 +2337,137 @@
         <v>1</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="E47" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A48" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B49" s="15"/>
       <c r="C49" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A51" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="D51" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A52" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="D52" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A53" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="D53" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A54" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="D54" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A55" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="D55" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="7" customFormat="1" ht="16.5">
@@ -2475,12 +2475,12 @@
     </row>
     <row r="57" spans="1:5" s="7" customFormat="1" ht="16.5">
       <c r="A57" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A58" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10" t="s">
@@ -2490,419 +2490,419 @@
         <v>1</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A59" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A60" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A61" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A62" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A63" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A64" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A65" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A66" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A67" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A68" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A69" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A70" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A71" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A72" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A73" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A74" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A75" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A76" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A77" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A78" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A79" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A80" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A81" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="82" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A82" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="D82" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="8" t="s">
         <v>237</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="83" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A83" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="D83" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="84" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A84" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="D84" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="85" spans="1:29" s="17" customFormat="1" ht="15.75" customHeight="1">
       <c r="A85" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="18" t="s">
         <v>277</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="D85" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="18" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="86" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="87" spans="1:29" s="7" customFormat="1" ht="16.5">
       <c r="A87" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A88" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B88" s="10"/>
       <c r="C88" s="10" t="s">
@@ -2912,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -2941,17 +2941,17 @@
     </row>
     <row r="89" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A89" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E89" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>248</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
@@ -2980,17 +2980,17 @@
     </row>
     <row r="90" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A90" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
@@ -3019,17 +3019,17 @@
     </row>
     <row r="91" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A91" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
@@ -3058,17 +3058,17 @@
     </row>
     <row r="92" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A92" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
@@ -3097,17 +3097,17 @@
     </row>
     <row r="93" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A93" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E93" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>260</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="95" spans="1:29" s="7" customFormat="1" ht="16.5">
       <c r="A95" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="96" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A96" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="10" t="s">
@@ -3210,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
@@ -3239,58 +3239,58 @@
     </row>
     <row r="97" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A97" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="D97" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A98" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="D98" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="8" t="s">
         <v>266</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A99" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="D99" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="8" t="s">
         <v>269</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A100" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C100" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="D100" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1"/>

--- a/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
+++ b/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="870" windowWidth="23280" windowHeight="9660"/>
+    <workbookView xWindow="3180" yWindow="0" windowWidth="12600" windowHeight="22350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -294,9 +294,6 @@
     <t>Consolidation Items [Axis]</t>
   </si>
   <si>
-    <t>CorporateReconcilingItemsAndEliminationsMember, CorporateAndReconcilingItemsMember, CorporateAndEliminationsMember, EliminationsAndReconcilingItemsMember, OperatingSegmentsAndCorporateNonSegmentMember</t>
-  </si>
-  <si>
     <t>DQC_0001.71</t>
   </si>
   <si>
@@ -306,6 +303,9 @@
     <t>Defined Benefit Plan, Asset Categories [Axis]</t>
   </si>
   <si>
+    <t>All - except members on DefinedBenefitPlansDisclosuresDefinedBenefitPlansAxis</t>
+  </si>
+  <si>
     <t>DQC_0001.72</t>
   </si>
   <si>
@@ -903,6 +903,9 @@
     <t>NotDesignatedAsHedgingInstrumentEconomicHedgesMember, NotDesignatedAsHedgingInstrumentTradingMember</t>
   </si>
   <si>
+    <t>FairValueInputsLevel1AndLevel2Member, FairValueInputsLevel2AndLevel3Member, InvestmentsNetAssetValueMember</t>
+  </si>
+  <si>
     <t>InvestmentsNetAssetValueMember</t>
   </si>
   <si>
@@ -915,10 +918,7 @@
     <t>Vehicles that are used primarily for transporting people.</t>
   </si>
   <si>
-    <t>ALL but no members on DefinedBenefitPlansDisclosuresDefinedBenefitPlansAxis</t>
-  </si>
-  <si>
-    <t>FairValueInputsLevel1AndLevel2Member, FairValueInputsLevel2AndLevel3Member, FairValueMeasuredAtNetAssetValuePerShareMember</t>
+    <t>CorporateReconcilingItemsAndEliminationsMember, CorporateAndReconcilingItemsMember, CorporateAndEliminationsMember, EliminationsAndReconcilingItemsMember, OperatingSegmentsAndCorporateNonSegmentMember, OperatingSegmentsExcludingIntersegmentEliminationMember</t>
   </si>
 </sst>
 </file>
@@ -1359,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1444,7 +1444,7 @@
         <v>14</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="J2" s="6"/>
     </row>
@@ -1760,7 +1760,7 @@
         <v>14</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -1843,29 +1843,29 @@
         <v>14</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>278</v>
+        <v>74</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6" t="s">
@@ -2882,16 +2882,16 @@
     </row>
     <row r="85" spans="1:29" s="17" customFormat="1" ht="15.75" customHeight="1">
       <c r="A85" s="16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D85" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="86" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1"/>

--- a/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
+++ b/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="0" windowWidth="12600" windowHeight="22350"/>
+    <workbookView xWindow="2730" yWindow="870" windowWidth="23280" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -294,6 +294,9 @@
     <t>Consolidation Items [Axis]</t>
   </si>
   <si>
+    <t>CorporateReconcilingItemsAndEliminationsMember, CorporateAndReconcilingItemsMember, CorporateAndEliminationsMember, EliminationsAndReconcilingItemsMember, OperatingSegmentsAndCorporateNonSegmentMember</t>
+  </si>
+  <si>
     <t>DQC_0001.71</t>
   </si>
   <si>
@@ -303,9 +306,6 @@
     <t>Defined Benefit Plan, Asset Categories [Axis]</t>
   </si>
   <si>
-    <t>All - except members on DefinedBenefitPlansDisclosuresDefinedBenefitPlansAxis</t>
-  </si>
-  <si>
     <t>DQC_0001.72</t>
   </si>
   <si>
@@ -903,9 +903,6 @@
     <t>NotDesignatedAsHedgingInstrumentEconomicHedgesMember, NotDesignatedAsHedgingInstrumentTradingMember</t>
   </si>
   <si>
-    <t>FairValueInputsLevel1AndLevel2Member, FairValueInputsLevel2AndLevel3Member, InvestmentsNetAssetValueMember</t>
-  </si>
-  <si>
     <t>InvestmentsNetAssetValueMember</t>
   </si>
   <si>
@@ -918,7 +915,10 @@
     <t>Vehicles that are used primarily for transporting people.</t>
   </si>
   <si>
-    <t>CorporateReconcilingItemsAndEliminationsMember, CorporateAndReconcilingItemsMember, CorporateAndEliminationsMember, EliminationsAndReconcilingItemsMember, OperatingSegmentsAndCorporateNonSegmentMember, OperatingSegmentsExcludingIntersegmentEliminationMember</t>
+    <t>ALL but no members on DefinedBenefitPlansDisclosuresDefinedBenefitPlansAxis</t>
+  </si>
+  <si>
+    <t>FairValueInputsLevel1AndLevel2Member, FairValueInputsLevel2AndLevel3Member, FairValueMeasuredAtNetAssetValuePerShareMember</t>
   </si>
 </sst>
 </file>
@@ -1359,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1444,7 +1444,7 @@
         <v>14</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="J2" s="6"/>
     </row>
@@ -1760,7 +1760,7 @@
         <v>14</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -1843,29 +1843,29 @@
         <v>14</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>279</v>
+        <v>71</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>74</v>
+        <v>278</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6" t="s">
@@ -2882,16 +2882,16 @@
     </row>
     <row r="85" spans="1:29" s="17" customFormat="1" ht="15.75" customHeight="1">
       <c r="A85" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C85" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="D85" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="18" t="s">
         <v>277</v>
-      </c>
-      <c r="D85" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="18" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="86" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1"/>

--- a/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
+++ b/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$100</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -22,7 +22,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="G8" authorId="0">
+    <comment ref="H8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -35,7 +35,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0">
+    <comment ref="J11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0">
+    <comment ref="H16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0">
+    <comment ref="J17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="283">
   <si>
     <t>Rule element ID</t>
   </si>
@@ -303,9 +303,6 @@
     <t>Defined Benefit Plan, Asset Categories [Axis]</t>
   </si>
   <si>
-    <t>All - except members on DefinedBenefitPlansDisclosuresDefinedBenefitPlansAxis</t>
-  </si>
-  <si>
     <t>DQC_0001.72</t>
   </si>
   <si>
@@ -900,9 +897,6 @@
     <t>Trust created by the entity that exists for the benefit of its employees, such as pension and profit-sharing trusts that are managed by or under the trusteeship of the entity's management.</t>
   </si>
   <si>
-    <t>NotDesignatedAsHedgingInstrumentEconomicHedgesMember, NotDesignatedAsHedgingInstrumentTradingMember</t>
-  </si>
-  <si>
     <t>FairValueInputsLevel1AndLevel2Member, FairValueInputsLevel2AndLevel3Member, InvestmentsNetAssetValueMember</t>
   </si>
   <si>
@@ -919,6 +913,21 @@
   </si>
   <si>
     <t>CorporateReconcilingItemsAndEliminationsMember, CorporateAndReconcilingItemsMember, CorporateAndEliminationsMember, EliminationsAndReconcilingItemsMember, OperatingSegmentsAndCorporateNonSegmentMember, OperatingSegmentsExcludingIntersegmentEliminationMember</t>
+  </si>
+  <si>
+    <t>All Taxonomies</t>
+  </si>
+  <si>
+    <t>All to 2016</t>
+  </si>
+  <si>
+    <t>Rule Applies to:</t>
+  </si>
+  <si>
+    <t>NotDesignatedAsHedgingInstrumentEconomicHedgesMember, NotDesignatedAsHedgingInstrumentTradingMember (PRIOR TO 2017)</t>
+  </si>
+  <si>
+    <t>All - except members on DefinedBenefitPlansDisclosuresDefinedBenefitPlansAxis (Not applicable after 2016);  All - except members on: RetirementPlanTypeAxis, RetirementPlanSponsorLocationAxis, RetirementPlanTaxStatusAxis, RetirementPlanFundingStatusAxis, RetirementPlanNameAxis (After 2016)</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1052,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1063,6 +1072,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1357,52 +1367,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC101"/>
+  <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="54" customWidth="1"/>
-    <col min="4" max="4" width="47" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
-    <col min="9" max="9" width="54.85546875" customWidth="1"/>
+    <col min="1" max="2" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="54" customWidth="1"/>
+    <col min="5" max="5" width="47" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="46.85546875" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" customWidth="1"/>
+    <col min="10" max="10" width="54.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -1421,182 +1431,203 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
-    </row>
-    <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="AC1" s="3"/>
+    </row>
+    <row r="2" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>10</v>
+      <c r="B2" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="12"/>
       <c r="G2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="J2" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
+      <c r="B3" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
+      <c r="B4" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
+      <c r="B6" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>10</v>
+      <c r="B7" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
+      <c r="B8" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -1608,401 +1639,447 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
-    </row>
-    <row r="9" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>10</v>
+      <c r="B9" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>10</v>
+      <c r="B10" s="19" t="s">
+        <v>279</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>10</v>
+      <c r="B12" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>10</v>
+      <c r="B13" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>10</v>
+      <c r="B14" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="J14" s="6"/>
+      <c r="J14" s="6" t="s">
+        <v>273</v>
+      </c>
       <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>10</v>
+      <c r="B15" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="J15" s="6"/>
+      <c r="J15" s="6" t="s">
+        <v>281</v>
+      </c>
       <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>10</v>
+      <c r="B16" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:30" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>10</v>
+      <c r="B17" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="J17" s="6"/>
+      <c r="J17" s="6" t="s">
+        <v>277</v>
+      </c>
       <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:30" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>10</v>
+      <c r="B18" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6" t="s">
+      <c r="G18" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:30" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:30" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:30" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="F21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="I21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:30" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="6"/>
+      <c r="I22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:30" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="6"/>
+      <c r="I23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:30" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2014,8 +2091,9 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:29" ht="15.75" customHeight="1">
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:30" ht="15.75" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2045,9 +2123,9 @@
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
-    </row>
-    <row r="27" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="G27" s="6"/>
+      <c r="AD25" s="4"/>
+    </row>
+    <row r="27" spans="1:30" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -2060,12 +2138,13 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
-    </row>
-    <row r="28" spans="1:29" s="7" customFormat="1" ht="16.5">
+      <c r="T27" s="6"/>
+    </row>
+    <row r="28" spans="1:30" s="7" customFormat="1" ht="16.5">
       <c r="A28" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="13"/>
+        <v>90</v>
+      </c>
+      <c r="B28" s="9"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
@@ -2093,828 +2172,886 @@
       <c r="AA28" s="13"/>
       <c r="AB28" s="13"/>
       <c r="AC28" s="13"/>
-    </row>
-    <row r="29" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="AD28" s="13"/>
+    </row>
+    <row r="29" spans="1:30" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A29" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10" t="s">
+    </row>
+    <row r="30" spans="1:30" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A35" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A38" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A39" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A40" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A41" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A42" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A43" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:6" s="7" customFormat="1" ht="16.5">
+      <c r="A45" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A46" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="E46" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A33" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A35" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A36" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A37" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A38" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A39" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A40" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A41" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A43" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="45" spans="1:5" s="7" customFormat="1" ht="16.5">
-      <c r="A45" s="9" t="s">
+      <c r="F46" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A47" s="6" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A46" s="10" t="s">
+      <c r="B47" s="6"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A48" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A49" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A50" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A51" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="D51" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A52" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="D52" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A53" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="D53" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A54" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="D54" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A55" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="D55" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="7" customFormat="1" ht="16.5">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+    </row>
+    <row r="57" spans="1:6" s="7" customFormat="1" ht="16.5">
+      <c r="A57" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" s="9"/>
+    </row>
+    <row r="58" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A58" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10" t="s">
+    </row>
+    <row r="59" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A59" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A60" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A61" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A62" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A63" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A64" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A65" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A66" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A67" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A68" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A69" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A70" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A71" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A72" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A73" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A74" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A75" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A76" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A77" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A78" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A79" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A80" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A81" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A82" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B82" s="8"/>
+      <c r="D82" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A83" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B83" s="8"/>
+      <c r="D83" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A84" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B84" s="8"/>
+      <c r="D84" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" s="17" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A85" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="B85" s="16"/>
+      <c r="D85" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" s="7" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="87" spans="1:30" s="7" customFormat="1" ht="16.5">
+      <c r="A87" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B87" s="9"/>
+    </row>
+    <row r="88" spans="1:30" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A88" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="E88" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E46" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A47" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A48" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A49" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A50" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A51" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A52" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A53" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A54" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A55" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="7" customFormat="1" ht="16.5">
-      <c r="A56" s="9"/>
-    </row>
-    <row r="57" spans="1:5" s="7" customFormat="1" ht="16.5">
-      <c r="A57" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A58" s="10" t="s">
+      <c r="F88" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A59" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A60" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A61" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A62" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A63" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A64" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A65" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A66" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A67" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A68" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A69" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A70" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A71" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A72" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A73" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A74" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A75" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A76" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A77" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A78" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A79" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A80" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A81" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A82" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A83" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A84" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29" s="17" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A85" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="D85" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="18" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="87" spans="1:29" s="7" customFormat="1" ht="16.5">
-      <c r="A87" s="9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A88" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
@@ -2938,22 +3075,23 @@
       <c r="AA88" s="6"/>
       <c r="AB88" s="6"/>
       <c r="AC88" s="6"/>
-    </row>
-    <row r="89" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="AD88" s="6"/>
+    </row>
+    <row r="89" spans="1:30" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A89" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6" t="s">
+      <c r="E89" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F89" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D89" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
@@ -2977,22 +3115,23 @@
       <c r="AA89" s="6"/>
       <c r="AB89" s="6"/>
       <c r="AC89" s="6"/>
-    </row>
-    <row r="90" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="AD89" s="6"/>
+    </row>
+    <row r="90" spans="1:30" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A90" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6" t="s">
+      <c r="E90" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F90" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="D90" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
@@ -3016,22 +3155,23 @@
       <c r="AA90" s="6"/>
       <c r="AB90" s="6"/>
       <c r="AC90" s="6"/>
-    </row>
-    <row r="91" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="AD90" s="6"/>
+    </row>
+    <row r="91" spans="1:30" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A91" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6" t="s">
+      <c r="E91" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F91" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D91" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
@@ -3055,22 +3195,23 @@
       <c r="AA91" s="6"/>
       <c r="AB91" s="6"/>
       <c r="AC91" s="6"/>
-    </row>
-    <row r="92" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="AD91" s="6"/>
+    </row>
+    <row r="92" spans="1:30" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A92" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6" t="s">
+      <c r="E92" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F92" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D92" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
@@ -3094,22 +3235,23 @@
       <c r="AA92" s="6"/>
       <c r="AB92" s="6"/>
       <c r="AC92" s="6"/>
-    </row>
-    <row r="93" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="AD92" s="6"/>
+    </row>
+    <row r="93" spans="1:30" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A93" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6" t="s">
+      <c r="E93" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F93" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D93" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
@@ -3133,8 +3275,9 @@
       <c r="AA93" s="6"/>
       <c r="AB93" s="6"/>
       <c r="AC93" s="6"/>
-    </row>
-    <row r="94" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="AD93" s="6"/>
+    </row>
+    <row r="94" spans="1:30" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -3164,12 +3307,13 @@
       <c r="AA94" s="6"/>
       <c r="AB94" s="6"/>
       <c r="AC94" s="6"/>
-    </row>
-    <row r="95" spans="1:29" s="7" customFormat="1" ht="16.5">
+      <c r="AD94" s="6"/>
+    </row>
+    <row r="95" spans="1:30" s="7" customFormat="1" ht="16.5">
       <c r="A95" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B95" s="6"/>
+        <v>259</v>
+      </c>
+      <c r="B95" s="9"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
@@ -3197,22 +3341,23 @@
       <c r="AA95" s="6"/>
       <c r="AB95" s="6"/>
       <c r="AC95" s="6"/>
-    </row>
-    <row r="96" spans="1:29" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="AD95" s="6"/>
+    </row>
+    <row r="96" spans="1:30" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A96" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F96" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
@@ -3236,66 +3381,73 @@
       <c r="AA96" s="6"/>
       <c r="AB96" s="6"/>
       <c r="AC96" s="6"/>
-    </row>
-    <row r="97" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="AD96" s="6"/>
+    </row>
+    <row r="97" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A97" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B97" s="8"/>
+      <c r="D97" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="E97" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="D97" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E97" s="8" t="s">
+    </row>
+    <row r="98" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A98" s="8" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A98" s="8" t="s">
+      <c r="B98" s="8"/>
+      <c r="D98" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="E98" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D98" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="8" t="s">
+    </row>
+    <row r="99" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A99" s="8" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A99" s="8" t="s">
+      <c r="B99" s="8"/>
+      <c r="D99" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="E99" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="D99" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" s="8" t="s">
+    </row>
+    <row r="100" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A100" s="8" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A100" s="8" t="s">
+      <c r="B100" s="8"/>
+      <c r="D100" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="E100" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D100" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="101" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:K100"/>
+  <autoFilter ref="A1:L100">
+    <filterColumn colId="1"/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
+++ b/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="301">
   <si>
     <t>Rule element ID</t>
   </si>
@@ -233,9 +233,6 @@
   </si>
   <si>
     <t>ReinsurancePremiumsForInsuranceCompaniesByProductSegmentAxis, ScheduleOfMalpracticeInsuranceTypeAndTierIdentifierAxis, AircraftTypeAxis, PublicUtilitiesInventoryAxis</t>
-  </si>
-  <si>
-    <t>AuctionRateSecuritiesMember, AutomobileLoanMember, CommercialLoanMember, CommercialRealEstateMember, ConstructionLoansMember, ConsumerLoanMember, CrudeOilMember, FuelMember, GeneralLiabilityMember, HeatingOilMember, HomeEquityLoanMember, HomeEquityMember, LetterOfCreditMember, LineOfCreditMember, LoansMember, MortgageLoansOnRealEstateMember, NaturalGasLiquidsReservesMember, NaturalGasReservesMember, OilReservesMember, ProfessionalMalpracticeLiabilityMember, RealEstateLoanMember, ResidentialMortgageMember, SyntheticOilMember, PublicUtilitiesInventoryWaterMember, PublicUtilitiesInventoryPropaneMember, ResidentialRealEstateMember, RealEstateMember, AutomobilesMember</t>
   </si>
   <si>
     <t>DQC_0001.70</t>
@@ -864,13 +861,73 @@
   </si>
   <si>
     <t>Trust created by the entity that exists for the benefit of its employees, such as pension and profit-sharing trusts that are managed by or under the trusteeship of the entity's management.</t>
+  </si>
+  <si>
+    <t>DQC_0001.77</t>
+  </si>
+  <si>
+    <t>PreferredUnitsByNameAxis</t>
+  </si>
+  <si>
+    <t>Preferred Units by Name [Axis]</t>
+  </si>
+  <si>
+    <t>DQC_0001.78</t>
+  </si>
+  <si>
+    <t>RetirementPlanNameAxis</t>
+  </si>
+  <si>
+    <t>Retirement Plan Name [Axis]</t>
+  </si>
+  <si>
+    <t>DQC_0001.79</t>
+  </si>
+  <si>
+    <t>srt</t>
+  </si>
+  <si>
+    <t>OwnershipAxis</t>
+  </si>
+  <si>
+    <t>Ownership [Axis]</t>
+  </si>
+  <si>
+    <t>DQC_0001.80</t>
+  </si>
+  <si>
+    <t>MajorCustomersAxis</t>
+  </si>
+  <si>
+    <t>Customer [Axis]</t>
+  </si>
+  <si>
+    <t>Release Adopted</t>
+  </si>
+  <si>
+    <t>Taxonomy Added</t>
+  </si>
+  <si>
+    <t>AuctionRateSecuritiesMember, AutomobileLoanMember, CommercialLoanMember, CommercialRealEstateMember, ConstructionLoansMember, ConsumerLoanMember, CrudeOilMember, FuelMember, GeneralLiabilityMember, HeatingOilMember, HomeEquityLoanMember, HomeEquityMember, LetterOfCreditMember, LineOfCreditMember, LoansMember, MortgageLoansOnRealEstateMember, NaturalGasLiquidsReservesMember, NaturalGasReservesMember, OilReservesMember, ProfessionalMalpracticeLiabilityMember, RealEstateLoanMember, ResidentialMortgageMember, SyntheticOilMember, PublicUtilitiesInventoryWaterMember, PublicUtilitiesInventoryPropaneMember, ResidentialRealEstateMember, RealEstateMember, AutomobilesMember, HotelMember</t>
+  </si>
+  <si>
+    <t>RealEstateMember</t>
+  </si>
+  <si>
+    <t>Real Estate [Member]</t>
+  </si>
+  <si>
+    <t>HotelMember</t>
+  </si>
+  <si>
+    <t>Hotel [Member]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -936,6 +993,35 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -951,7 +1037,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -988,11 +1074,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1046,6 +1143,45 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1345,10 +1481,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD105"/>
+  <dimension ref="A1:AD991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:XFD102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1362,9 +1498,10 @@
     <col min="7" max="7" width="46.85546875" customWidth="1"/>
     <col min="8" max="8" width="32.5703125" customWidth="1"/>
     <col min="10" max="10" width="54.85546875" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="15">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1395,8 +1532,12 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="K1" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>295</v>
+      </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -1442,7 +1583,10 @@
       <c r="J2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="10"/>
+      <c r="K2" s="31">
+        <v>3</v>
+      </c>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A3" s="12" t="s">
@@ -1469,7 +1613,10 @@
         <v>21</v>
       </c>
       <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="K3" s="31">
+        <v>3</v>
+      </c>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A4" s="12" t="s">
@@ -1496,7 +1643,10 @@
         <v>15</v>
       </c>
       <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="K4" s="31">
+        <v>3</v>
+      </c>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:29" s="11" customFormat="1" ht="60">
       <c r="A5" s="12" t="s">
@@ -1527,7 +1677,10 @@
         <v>15</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="K5" s="31">
+        <v>3</v>
+      </c>
+      <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A6" s="12" t="s">
@@ -1554,7 +1707,10 @@
         <v>15</v>
       </c>
       <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="K6" s="31">
+        <v>3</v>
+      </c>
+      <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A7" s="12" t="s">
@@ -1581,8 +1737,10 @@
         <v>15</v>
       </c>
       <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="K7" s="31">
+        <v>3</v>
+      </c>
+      <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:29" s="11" customFormat="1" ht="180">
       <c r="A8" s="12" t="s">
@@ -1611,8 +1769,10 @@
         <v>15</v>
       </c>
       <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="K8" s="31">
+        <v>3</v>
+      </c>
+      <c r="L8" s="32"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
@@ -1648,8 +1808,10 @@
         <v>15</v>
       </c>
       <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="K9" s="31">
+        <v>3</v>
+      </c>
+      <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A10" s="12" t="s">
@@ -1676,8 +1838,10 @@
         <v>15</v>
       </c>
       <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="K10" s="31">
+        <v>3</v>
+      </c>
+      <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A11" s="12" t="s">
@@ -1706,8 +1870,10 @@
       <c r="J11" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="K11" s="31">
+        <v>3</v>
+      </c>
+      <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A12" s="12" t="s">
@@ -1736,8 +1902,10 @@
       <c r="J12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="K12" s="31">
+        <v>3</v>
+      </c>
+      <c r="L12" s="32"/>
     </row>
     <row r="13" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A13" s="12" t="s">
@@ -1764,8 +1932,10 @@
         <v>21</v>
       </c>
       <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="K13" s="31">
+        <v>3</v>
+      </c>
+      <c r="L13" s="32"/>
     </row>
     <row r="14" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A14" s="12" t="s">
@@ -1792,8 +1962,10 @@
         <v>21</v>
       </c>
       <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="K14" s="31">
+        <v>3</v>
+      </c>
+      <c r="L14" s="32"/>
     </row>
     <row r="15" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A15" s="12" t="s">
@@ -1822,10 +1994,12 @@
       <c r="J15" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="1:29" s="11" customFormat="1" ht="324">
+      <c r="K15" s="31">
+        <v>3</v>
+      </c>
+      <c r="L15" s="32"/>
+    </row>
+    <row r="16" spans="1:29" s="11" customFormat="1" ht="312.75" thickBot="1">
       <c r="A16" s="12" t="s">
         <v>68</v>
       </c>
@@ -1847,19 +2021,21 @@
       <c r="G16" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>72</v>
+      <c r="H16" s="28" t="s">
+        <v>296</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
+      <c r="K16" s="31">
+        <v>3</v>
+      </c>
+      <c r="L16" s="32"/>
     </row>
     <row r="17" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A17" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>11</v>
@@ -1868,10 +2044,10 @@
         <v>36</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>15</v>
@@ -1882,14 +2058,16 @@
         <v>16</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+        <v>75</v>
+      </c>
+      <c r="K17" s="31">
+        <v>3</v>
+      </c>
+      <c r="L17" s="32"/>
     </row>
     <row r="18" spans="1:30" s="11" customFormat="1" ht="96">
       <c r="A18" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>11</v>
@@ -1898,28 +2076,30 @@
         <v>12</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="K18" s="31">
+        <v>3</v>
+      </c>
+      <c r="L18" s="32"/>
     </row>
     <row r="19" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A19" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>11</v>
@@ -1928,10 +2108,10 @@
         <v>12</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>25</v>
@@ -1942,12 +2122,14 @@
         <v>15</v>
       </c>
       <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="K19" s="31">
+        <v>3</v>
+      </c>
+      <c r="L19" s="32"/>
     </row>
     <row r="20" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A20" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>11</v>
@@ -1956,10 +2138,10 @@
         <v>12</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>86</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>15</v>
@@ -1970,1296 +2152,1442 @@
         <v>21</v>
       </c>
       <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-    </row>
-    <row r="21" spans="1:30" s="11" customFormat="1" ht="84">
-      <c r="A21" s="12" t="s">
+      <c r="K20" s="31">
+        <v>3</v>
+      </c>
+      <c r="L20" s="32"/>
+    </row>
+    <row r="21" spans="1:30" s="24" customFormat="1" ht="72">
+      <c r="A21" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="E21" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="29"/>
+      <c r="K21" s="31">
+        <v>3</v>
+      </c>
+      <c r="L21" s="32"/>
+    </row>
+    <row r="22" spans="1:30" s="24" customFormat="1" ht="12.75">
+      <c r="A22" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="D22" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I21" s="10" t="s">
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-    </row>
-    <row r="22" spans="1:30" s="11" customFormat="1" ht="12.75">
-      <c r="A22" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="10" t="s">
+      <c r="J22" s="29"/>
+      <c r="K22" s="31">
+        <v>3</v>
+      </c>
+      <c r="L22" s="32"/>
+    </row>
+    <row r="23" spans="1:30" s="24" customFormat="1" ht="12.75">
+      <c r="A23" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="29"/>
+      <c r="K23" s="31">
+        <v>3</v>
+      </c>
+      <c r="L23" s="32"/>
+    </row>
+    <row r="24" spans="1:30" s="24" customFormat="1" ht="12.75">
+      <c r="A24" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="10" t="s">
+      <c r="D24" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="10" t="s">
+      <c r="J24" s="31"/>
+      <c r="K24" s="31">
+        <v>7</v>
+      </c>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="32"/>
+      <c r="AC24" s="32"/>
+      <c r="AD24" s="32"/>
+    </row>
+    <row r="25" spans="1:30" s="24" customFormat="1" ht="12.75">
+      <c r="A25" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-    </row>
-    <row r="23" spans="1:30" s="11" customFormat="1" ht="12.75">
-      <c r="A23" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="J25" s="31"/>
+      <c r="K25" s="31">
+        <v>7</v>
+      </c>
+      <c r="L25" s="31">
+        <v>2017</v>
+      </c>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="32"/>
+      <c r="AD25" s="32"/>
+    </row>
+    <row r="26" spans="1:30" s="24" customFormat="1" ht="12.75">
+      <c r="A26" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="B26" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="C26" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31">
+        <v>7</v>
+      </c>
+      <c r="L26" s="31">
+        <v>2017</v>
+      </c>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32"/>
+      <c r="AD26" s="32"/>
+    </row>
+    <row r="27" spans="1:30" s="24" customFormat="1" ht="12.75">
+      <c r="A27" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31">
+        <v>7</v>
+      </c>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32"/>
+    </row>
+    <row r="28" spans="1:30" s="11" customFormat="1" ht="12.75">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+    </row>
+    <row r="29" spans="1:30" s="15" customFormat="1" ht="4.5" customHeight="1">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+    </row>
+    <row r="30" spans="1:30" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+    </row>
+    <row r="31" spans="1:30" s="11" customFormat="1" ht="12.75">
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+    </row>
+    <row r="32" spans="1:30" s="11" customFormat="1" ht="16.5">
+      <c r="A32" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-    </row>
-    <row r="24" spans="1:30" s="11" customFormat="1" ht="12.75">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-    </row>
-    <row r="25" spans="1:30" s="15" customFormat="1" ht="4.5" customHeight="1">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14"/>
-    </row>
-    <row r="26" spans="1:30" s="11" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="27" spans="1:30" s="11" customFormat="1" ht="12.75">
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-    </row>
-    <row r="28" spans="1:30" s="11" customFormat="1" ht="16.5">
-      <c r="A28" s="16" t="s">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17"/>
+    </row>
+    <row r="33" spans="1:12" s="11" customFormat="1" ht="12.75">
+      <c r="A33" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-    </row>
-    <row r="29" spans="1:30" s="11" customFormat="1" ht="12.75">
-      <c r="A29" s="18" t="s">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" s="18" t="s">
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+    </row>
+    <row r="34" spans="1:12" s="11" customFormat="1" ht="12.75">
+      <c r="A34" s="10" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" s="11" customFormat="1" ht="12.75">
-      <c r="A30" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" s="11" customFormat="1" ht="12.75">
-      <c r="A31" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" s="11" customFormat="1" ht="12.75">
-      <c r="A32" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="11" customFormat="1" ht="12.75">
-      <c r="A33" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="11" customFormat="1" ht="12.75">
-      <c r="A34" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="11" customFormat="1" ht="12.75">
+        <v>101</v>
+      </c>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+    </row>
+    <row r="35" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A35" s="10" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="11" customFormat="1" ht="12.75">
+        <v>104</v>
+      </c>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+    </row>
+    <row r="36" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A36" s="10" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="11" customFormat="1" ht="12.75">
+        <v>107</v>
+      </c>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+    </row>
+    <row r="37" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A37" s="10" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="11" customFormat="1" ht="12.75">
+        <v>110</v>
+      </c>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+    </row>
+    <row r="38" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A38" s="10" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="11" customFormat="1" ht="12.75">
+        <v>113</v>
+      </c>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+    </row>
+    <row r="39" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A39" s="10" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="11" customFormat="1" ht="12.75">
+        <v>116</v>
+      </c>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+    </row>
+    <row r="40" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A40" s="10" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="11" customFormat="1" ht="12.75">
+        <v>119</v>
+      </c>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+    </row>
+    <row r="41" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A41" s="10" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="11" customFormat="1" ht="12.75">
+        <v>122</v>
+      </c>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+    </row>
+    <row r="42" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A42" s="10" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="11" customFormat="1" ht="12.75">
+        <v>125</v>
+      </c>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+    </row>
+    <row r="43" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A43" s="10" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+    </row>
+    <row r="44" spans="1:12" s="11" customFormat="1" ht="12.75">
+      <c r="A44" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+    </row>
+    <row r="45" spans="1:12" s="11" customFormat="1" ht="12.75">
+      <c r="A45" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+    </row>
+    <row r="46" spans="1:12" s="11" customFormat="1" ht="12.75">
+      <c r="A46" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+    </row>
+    <row r="47" spans="1:12" s="11" customFormat="1" ht="12.75">
+      <c r="A47" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+    </row>
+    <row r="48" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+    </row>
+    <row r="49" spans="1:12" s="11" customFormat="1" ht="16.5">
+      <c r="A49" s="16" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" s="11" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="45" spans="1:6" s="11" customFormat="1" ht="16.5">
-      <c r="A45" s="16" t="s">
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+    </row>
+    <row r="50" spans="1:12" s="11" customFormat="1" ht="12.75">
+      <c r="A50" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+    </row>
+    <row r="51" spans="1:12" s="11" customFormat="1" ht="12.75">
+      <c r="A51" s="10" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" s="11" customFormat="1" ht="12.75">
-      <c r="A46" s="18" t="s">
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+    </row>
+    <row r="52" spans="1:12" s="11" customFormat="1" ht="12.75">
+      <c r="A52" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+    </row>
+    <row r="53" spans="1:12" s="11" customFormat="1" ht="12.75">
+      <c r="A53" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+    </row>
+    <row r="54" spans="1:12" s="11" customFormat="1" ht="12.75">
+      <c r="A54" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32"/>
+    </row>
+    <row r="55" spans="1:12" s="11" customFormat="1" ht="12.75">
+      <c r="A55" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+    </row>
+    <row r="56" spans="1:12" s="11" customFormat="1" ht="12.75">
+      <c r="A56" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+    </row>
+    <row r="57" spans="1:12" s="11" customFormat="1" ht="12.75">
+      <c r="A57" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+    </row>
+    <row r="58" spans="1:12" s="11" customFormat="1" ht="12.75">
+      <c r="A58" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+    </row>
+    <row r="59" spans="1:12" s="11" customFormat="1" ht="12.75">
+      <c r="A59" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+    </row>
+    <row r="60" spans="1:12" s="11" customFormat="1" ht="16.5">
+      <c r="A60" s="16"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+    </row>
+    <row r="61" spans="1:12" s="11" customFormat="1" ht="16.5">
+      <c r="A61" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K61" s="32"/>
+      <c r="L61" s="32"/>
+    </row>
+    <row r="62" spans="1:12" s="11" customFormat="1" ht="12.75">
+      <c r="A62" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="11" customFormat="1" ht="12.75">
-      <c r="A47" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="11" customFormat="1" ht="12.75">
-      <c r="A48" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="11" customFormat="1" ht="12.75">
-      <c r="A49" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="11" customFormat="1" ht="12.75">
-      <c r="A50" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="11" customFormat="1" ht="12.75">
-      <c r="A51" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="11" customFormat="1" ht="12.75">
-      <c r="A52" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F52" s="21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="11" customFormat="1" ht="12.75">
-      <c r="A53" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="11" customFormat="1" ht="12.75">
-      <c r="A54" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F54" s="21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="11" customFormat="1" ht="12.75">
-      <c r="A55" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="11" customFormat="1" ht="16.5">
-      <c r="A56" s="16"/>
-    </row>
-    <row r="57" spans="1:6" s="11" customFormat="1" ht="16.5">
-      <c r="A57" s="16" t="s">
+      <c r="K62" s="32"/>
+      <c r="L62" s="32"/>
+    </row>
+    <row r="63" spans="1:12" s="11" customFormat="1" ht="12.75">
+      <c r="A63" s="10" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="11" customFormat="1" ht="12.75">
-      <c r="A58" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F58" s="18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="11" customFormat="1" ht="12.75">
-      <c r="A59" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="11" customFormat="1" ht="12.75">
-      <c r="A60" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="11" customFormat="1" ht="12.75">
-      <c r="A61" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="11" customFormat="1" ht="12.75">
-      <c r="A62" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="11" customFormat="1" ht="12.75">
-      <c r="A63" s="10" t="s">
-        <v>184</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="11" customFormat="1" ht="12.75">
+        <v>173</v>
+      </c>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+    </row>
+    <row r="64" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A64" s="10" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="11" customFormat="1" ht="12.75">
+        <v>176</v>
+      </c>
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
+    </row>
+    <row r="65" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A65" s="10" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="11" customFormat="1" ht="12.75">
+        <v>179</v>
+      </c>
+      <c r="K65" s="32"/>
+      <c r="L65" s="32"/>
+    </row>
+    <row r="66" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A66" s="10" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="11" customFormat="1" ht="12.75">
+        <v>182</v>
+      </c>
+      <c r="K66" s="32"/>
+      <c r="L66" s="32"/>
+    </row>
+    <row r="67" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A67" s="10" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="11" customFormat="1" ht="12.75">
+        <v>185</v>
+      </c>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
+    </row>
+    <row r="68" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A68" s="10" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" s="11" customFormat="1" ht="12.75">
+        <v>188</v>
+      </c>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+    </row>
+    <row r="69" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A69" s="10" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" s="11" customFormat="1" ht="12.75">
+        <v>191</v>
+      </c>
+      <c r="K69" s="32"/>
+      <c r="L69" s="32"/>
+    </row>
+    <row r="70" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A70" s="10" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" s="11" customFormat="1" ht="12.75">
+        <v>194</v>
+      </c>
+      <c r="K70" s="32"/>
+      <c r="L70" s="32"/>
+    </row>
+    <row r="71" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A71" s="10" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="11" customFormat="1" ht="12.75">
+        <v>197</v>
+      </c>
+      <c r="K71" s="32"/>
+      <c r="L71" s="32"/>
+    </row>
+    <row r="72" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A72" s="10" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" s="11" customFormat="1" ht="12.75">
+        <v>200</v>
+      </c>
+      <c r="K72" s="32"/>
+      <c r="L72" s="32"/>
+    </row>
+    <row r="73" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A73" s="10" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" s="11" customFormat="1" ht="12.75">
+        <v>203</v>
+      </c>
+      <c r="K73" s="32"/>
+      <c r="L73" s="32"/>
+    </row>
+    <row r="74" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A74" s="10" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="11" customFormat="1" ht="12.75">
+        <v>206</v>
+      </c>
+      <c r="K74" s="32"/>
+      <c r="L74" s="32"/>
+    </row>
+    <row r="75" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A75" s="10" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" s="11" customFormat="1" ht="12.75">
+        <v>209</v>
+      </c>
+      <c r="K75" s="32"/>
+      <c r="L75" s="32"/>
+    </row>
+    <row r="76" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A76" s="10" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="11" customFormat="1" ht="12.75">
+        <v>212</v>
+      </c>
+      <c r="K76" s="32"/>
+      <c r="L76" s="32"/>
+    </row>
+    <row r="77" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A77" s="10" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" s="11" customFormat="1" ht="12.75">
+        <v>215</v>
+      </c>
+      <c r="K77" s="32"/>
+      <c r="L77" s="32"/>
+    </row>
+    <row r="78" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A78" s="10" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" s="11" customFormat="1" ht="12.75">
+        <v>218</v>
+      </c>
+      <c r="K78" s="32"/>
+      <c r="L78" s="32"/>
+    </row>
+    <row r="79" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A79" s="10" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" s="11" customFormat="1" ht="12.75">
+        <v>221</v>
+      </c>
+      <c r="K79" s="32"/>
+      <c r="L79" s="32"/>
+    </row>
+    <row r="80" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A80" s="10" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>237</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="K80" s="32"/>
+      <c r="L80" s="32"/>
     </row>
     <row r="81" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A81" s="10" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K81" s="32"/>
+      <c r="L81" s="32"/>
+    </row>
+    <row r="82" spans="1:30" s="11" customFormat="1" ht="12.75">
+      <c r="A82" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="K82" s="32"/>
+      <c r="L82" s="32"/>
+    </row>
+    <row r="83" spans="1:30" s="11" customFormat="1" ht="12.75">
+      <c r="A83" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="K83" s="32"/>
+      <c r="L83" s="32"/>
+    </row>
+    <row r="84" spans="1:30" s="11" customFormat="1" ht="12.75">
+      <c r="A84" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="K84" s="32"/>
+      <c r="L84" s="32"/>
+    </row>
+    <row r="85" spans="1:30" s="11" customFormat="1" ht="12.75">
+      <c r="A85" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="K85" s="32"/>
+      <c r="L85" s="32"/>
+    </row>
+    <row r="86" spans="1:30" s="11" customFormat="1" ht="12.75">
+      <c r="A86" s="21" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="82" spans="1:30" s="11" customFormat="1" ht="12.75">
-      <c r="A82" s="21" t="s">
+      <c r="D86" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="D82" s="21" t="s">
+      <c r="E86" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="E82" s="21" t="s">
+      <c r="K86" s="32"/>
+      <c r="L86" s="32"/>
+    </row>
+    <row r="87" spans="1:30" s="11" customFormat="1" ht="12.75">
+      <c r="A87" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E87" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F82" s="21" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="83" spans="1:30" s="11" customFormat="1" ht="12.75">
-      <c r="A83" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="D83" s="21" t="s">
+      <c r="F87" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="E83" s="21" t="s">
+      <c r="K87" s="32"/>
+      <c r="L87" s="32"/>
+    </row>
+    <row r="88" spans="1:30" s="11" customFormat="1" ht="12.75">
+      <c r="A88" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="E88" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F83" s="21" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="84" spans="1:30" s="11" customFormat="1" ht="12.75">
-      <c r="A84" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="D84" s="21" t="s">
+      <c r="F88" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="E84" s="21" t="s">
+      <c r="K88" s="32"/>
+      <c r="L88" s="32"/>
+    </row>
+    <row r="89" spans="1:30" s="11" customFormat="1" ht="12.75">
+      <c r="A89" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="E89" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F84" s="21" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="85" spans="1:30" s="11" customFormat="1" ht="12.75">
-      <c r="A85" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="D85" s="21" t="s">
+      <c r="F89" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="E85" s="21" t="s">
+      <c r="K89" s="32"/>
+      <c r="L89" s="32"/>
+    </row>
+    <row r="90" spans="1:30" s="11" customFormat="1" ht="12.75">
+      <c r="A90" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="E90" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F85" s="21" t="s">
+      <c r="F90" s="21"/>
+      <c r="K90" s="32"/>
+      <c r="L90" s="32"/>
+    </row>
+    <row r="91" spans="1:30" s="24" customFormat="1" ht="12.75">
+      <c r="A91" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="E91" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="26"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="32"/>
+      <c r="L91" s="32"/>
+      <c r="M91" s="23"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="23"/>
+      <c r="P91" s="23"/>
+      <c r="Q91" s="23"/>
+      <c r="R91" s="23"/>
+      <c r="S91" s="23"/>
+      <c r="T91" s="23"/>
+      <c r="U91" s="23"/>
+      <c r="V91" s="23"/>
+      <c r="W91" s="23"/>
+      <c r="X91" s="23"/>
+      <c r="Y91" s="23"/>
+      <c r="Z91" s="23"/>
+      <c r="AA91" s="23"/>
+      <c r="AB91" s="23"/>
+      <c r="AC91" s="23"/>
+      <c r="AD91" s="23"/>
+    </row>
+    <row r="92" spans="1:30" s="24" customFormat="1" ht="16.5">
+      <c r="A92" s="25"/>
+      <c r="K92" s="32"/>
+      <c r="L92" s="32"/>
+    </row>
+    <row r="93" spans="1:30" s="11" customFormat="1" ht="16.5">
+      <c r="A93" s="16" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="86" spans="1:30" s="11" customFormat="1" ht="16.5">
-      <c r="A86" s="16"/>
-    </row>
-    <row r="87" spans="1:30" s="11" customFormat="1" ht="16.5">
-      <c r="A87" s="16" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="88" spans="1:30" s="11" customFormat="1" ht="12.75">
-      <c r="A88" s="18" t="s">
+      <c r="K93" s="32"/>
+      <c r="L93" s="32"/>
+    </row>
+    <row r="94" spans="1:30" s="11" customFormat="1" ht="12.75">
+      <c r="A94" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E88" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F88" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="10"/>
-      <c r="N88" s="10"/>
-      <c r="O88" s="10"/>
-      <c r="P88" s="10"/>
-      <c r="Q88" s="10"/>
-      <c r="R88" s="10"/>
-      <c r="S88" s="10"/>
-      <c r="T88" s="10"/>
-      <c r="U88" s="10"/>
-      <c r="V88" s="10"/>
-      <c r="W88" s="10"/>
-      <c r="X88" s="10"/>
-      <c r="Y88" s="10"/>
-      <c r="Z88" s="10"/>
-      <c r="AA88" s="10"/>
-      <c r="AB88" s="10"/>
-      <c r="AC88" s="10"/>
-      <c r="AD88" s="10"/>
-    </row>
-    <row r="89" spans="1:30" s="11" customFormat="1" ht="12.75">
-      <c r="A89" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
-      <c r="N89" s="10"/>
-      <c r="O89" s="10"/>
-      <c r="P89" s="10"/>
-      <c r="Q89" s="10"/>
-      <c r="R89" s="10"/>
-      <c r="S89" s="10"/>
-      <c r="T89" s="10"/>
-      <c r="U89" s="10"/>
-      <c r="V89" s="10"/>
-      <c r="W89" s="10"/>
-      <c r="X89" s="10"/>
-      <c r="Y89" s="10"/>
-      <c r="Z89" s="10"/>
-      <c r="AA89" s="10"/>
-      <c r="AB89" s="10"/>
-      <c r="AC89" s="10"/>
-      <c r="AD89" s="10"/>
-    </row>
-    <row r="90" spans="1:30" s="11" customFormat="1" ht="12.75">
-      <c r="A90" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="10"/>
-      <c r="N90" s="10"/>
-      <c r="O90" s="10"/>
-      <c r="P90" s="10"/>
-      <c r="Q90" s="10"/>
-      <c r="R90" s="10"/>
-      <c r="S90" s="10"/>
-      <c r="T90" s="10"/>
-      <c r="U90" s="10"/>
-      <c r="V90" s="10"/>
-      <c r="W90" s="10"/>
-      <c r="X90" s="10"/>
-      <c r="Y90" s="10"/>
-      <c r="Z90" s="10"/>
-      <c r="AA90" s="10"/>
-      <c r="AB90" s="10"/>
-      <c r="AC90" s="10"/>
-      <c r="AD90" s="10"/>
-    </row>
-    <row r="91" spans="1:30" s="11" customFormat="1" ht="12.75">
-      <c r="A91" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="10"/>
-      <c r="N91" s="10"/>
-      <c r="O91" s="10"/>
-      <c r="P91" s="10"/>
-      <c r="Q91" s="10"/>
-      <c r="R91" s="10"/>
-      <c r="S91" s="10"/>
-      <c r="T91" s="10"/>
-      <c r="U91" s="10"/>
-      <c r="V91" s="10"/>
-      <c r="W91" s="10"/>
-      <c r="X91" s="10"/>
-      <c r="Y91" s="10"/>
-      <c r="Z91" s="10"/>
-      <c r="AA91" s="10"/>
-      <c r="AB91" s="10"/>
-      <c r="AC91" s="10"/>
-      <c r="AD91" s="10"/>
-    </row>
-    <row r="92" spans="1:30" s="11" customFormat="1" ht="12.75">
-      <c r="A92" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10"/>
-      <c r="L92" s="10"/>
-      <c r="M92" s="10"/>
-      <c r="N92" s="10"/>
-      <c r="O92" s="10"/>
-      <c r="P92" s="10"/>
-      <c r="Q92" s="10"/>
-      <c r="R92" s="10"/>
-      <c r="S92" s="10"/>
-      <c r="T92" s="10"/>
-      <c r="U92" s="10"/>
-      <c r="V92" s="10"/>
-      <c r="W92" s="10"/>
-      <c r="X92" s="10"/>
-      <c r="Y92" s="10"/>
-      <c r="Z92" s="10"/>
-      <c r="AA92" s="10"/>
-      <c r="AB92" s="10"/>
-      <c r="AC92" s="10"/>
-      <c r="AD92" s="10"/>
-    </row>
-    <row r="93" spans="1:30" s="11" customFormat="1" ht="12.75">
-      <c r="A93" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F93" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="10"/>
-      <c r="L93" s="10"/>
-      <c r="M93" s="10"/>
-      <c r="N93" s="10"/>
-      <c r="O93" s="10"/>
-      <c r="P93" s="10"/>
-      <c r="Q93" s="10"/>
-      <c r="R93" s="10"/>
-      <c r="S93" s="10"/>
-      <c r="T93" s="10"/>
-      <c r="U93" s="10"/>
-      <c r="V93" s="10"/>
-      <c r="W93" s="10"/>
-      <c r="X93" s="10"/>
-      <c r="Y93" s="10"/>
-      <c r="Z93" s="10"/>
-      <c r="AA93" s="10"/>
-      <c r="AB93" s="10"/>
-      <c r="AC93" s="10"/>
-      <c r="AD93" s="10"/>
-    </row>
-    <row r="94" spans="1:30" s="11" customFormat="1" ht="12.75">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
-      <c r="K94" s="10"/>
-      <c r="L94" s="10"/>
+      <c r="K94" s="32"/>
+      <c r="L94" s="32"/>
       <c r="M94" s="10"/>
       <c r="N94" s="10"/>
       <c r="O94" s="10"/>
@@ -3279,21 +3607,27 @@
       <c r="AC94" s="10"/>
       <c r="AD94" s="10"/>
     </row>
-    <row r="95" spans="1:30" s="11" customFormat="1" ht="16.5">
-      <c r="A95" s="16" t="s">
-        <v>269</v>
+    <row r="95" spans="1:30" s="11" customFormat="1" ht="12.75">
+      <c r="A95" s="10" t="s">
+        <v>253</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
+      <c r="D95" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>255</v>
+      </c>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
       <c r="I95" s="10"/>
       <c r="J95" s="10"/>
-      <c r="K95" s="10"/>
-      <c r="L95" s="10"/>
+      <c r="K95" s="32"/>
+      <c r="L95" s="32"/>
       <c r="M95" s="10"/>
       <c r="N95" s="10"/>
       <c r="O95" s="10"/>
@@ -3314,26 +3648,26 @@
       <c r="AD95" s="10"/>
     </row>
     <row r="96" spans="1:30" s="11" customFormat="1" ht="12.75">
-      <c r="A96" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E96" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F96" s="18" t="s">
-        <v>99</v>
+      <c r="A96" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
       <c r="I96" s="10"/>
       <c r="J96" s="10"/>
-      <c r="K96" s="10"/>
-      <c r="L96" s="10"/>
+      <c r="K96" s="32"/>
+      <c r="L96" s="32"/>
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
       <c r="O96" s="10"/>
@@ -3353,81 +3687,3848 @@
       <c r="AC96" s="10"/>
       <c r="AD96" s="10"/>
     </row>
-    <row r="97" spans="1:6" s="11" customFormat="1" ht="12.75">
-      <c r="A97" s="21" t="s">
+    <row r="97" spans="1:30" s="11" customFormat="1" ht="12.75">
+      <c r="A97" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="32"/>
+      <c r="L97" s="32"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="10"/>
+      <c r="O97" s="10"/>
+      <c r="P97" s="10"/>
+      <c r="Q97" s="10"/>
+      <c r="R97" s="10"/>
+      <c r="S97" s="10"/>
+      <c r="T97" s="10"/>
+      <c r="U97" s="10"/>
+      <c r="V97" s="10"/>
+      <c r="W97" s="10"/>
+      <c r="X97" s="10"/>
+      <c r="Y97" s="10"/>
+      <c r="Z97" s="10"/>
+      <c r="AA97" s="10"/>
+      <c r="AB97" s="10"/>
+      <c r="AC97" s="10"/>
+      <c r="AD97" s="10"/>
+    </row>
+    <row r="98" spans="1:30" s="11" customFormat="1" ht="12.75">
+      <c r="A98" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="32"/>
+      <c r="L98" s="32"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="10"/>
+      <c r="R98" s="10"/>
+      <c r="S98" s="10"/>
+      <c r="T98" s="10"/>
+      <c r="U98" s="10"/>
+      <c r="V98" s="10"/>
+      <c r="W98" s="10"/>
+      <c r="X98" s="10"/>
+      <c r="Y98" s="10"/>
+      <c r="Z98" s="10"/>
+      <c r="AA98" s="10"/>
+      <c r="AB98" s="10"/>
+      <c r="AC98" s="10"/>
+      <c r="AD98" s="10"/>
+    </row>
+    <row r="99" spans="1:30" s="11" customFormat="1" ht="12.75">
+      <c r="A99" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="32"/>
+      <c r="L99" s="32"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="10"/>
+      <c r="O99" s="10"/>
+      <c r="P99" s="10"/>
+      <c r="Q99" s="10"/>
+      <c r="R99" s="10"/>
+      <c r="S99" s="10"/>
+      <c r="T99" s="10"/>
+      <c r="U99" s="10"/>
+      <c r="V99" s="10"/>
+      <c r="W99" s="10"/>
+      <c r="X99" s="10"/>
+      <c r="Y99" s="10"/>
+      <c r="Z99" s="10"/>
+      <c r="AA99" s="10"/>
+      <c r="AB99" s="10"/>
+      <c r="AC99" s="10"/>
+      <c r="AD99" s="10"/>
+    </row>
+    <row r="100" spans="1:30" s="11" customFormat="1" ht="12.75">
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="32"/>
+      <c r="L100" s="32"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+      <c r="O100" s="10"/>
+      <c r="P100" s="10"/>
+      <c r="Q100" s="10"/>
+      <c r="R100" s="10"/>
+      <c r="S100" s="10"/>
+      <c r="T100" s="10"/>
+      <c r="U100" s="10"/>
+      <c r="V100" s="10"/>
+      <c r="W100" s="10"/>
+      <c r="X100" s="10"/>
+      <c r="Y100" s="10"/>
+      <c r="Z100" s="10"/>
+      <c r="AA100" s="10"/>
+      <c r="AB100" s="10"/>
+      <c r="AC100" s="10"/>
+      <c r="AD100" s="10"/>
+    </row>
+    <row r="101" spans="1:30" s="11" customFormat="1" ht="16.5">
+      <c r="A101" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="32"/>
+      <c r="L101" s="32"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10"/>
+      <c r="O101" s="10"/>
+      <c r="P101" s="10"/>
+      <c r="Q101" s="10"/>
+      <c r="R101" s="10"/>
+      <c r="S101" s="10"/>
+      <c r="T101" s="10"/>
+      <c r="U101" s="10"/>
+      <c r="V101" s="10"/>
+      <c r="W101" s="10"/>
+      <c r="X101" s="10"/>
+      <c r="Y101" s="10"/>
+      <c r="Z101" s="10"/>
+      <c r="AA101" s="10"/>
+      <c r="AB101" s="10"/>
+      <c r="AC101" s="10"/>
+      <c r="AD101" s="10"/>
+    </row>
+    <row r="102" spans="1:30" s="11" customFormat="1" ht="12.75">
+      <c r="A102" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F102" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="32"/>
+      <c r="L102" s="32"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
+      <c r="O102" s="10"/>
+      <c r="P102" s="10"/>
+      <c r="Q102" s="10"/>
+      <c r="R102" s="10"/>
+      <c r="S102" s="10"/>
+      <c r="T102" s="10"/>
+      <c r="U102" s="10"/>
+      <c r="V102" s="10"/>
+      <c r="W102" s="10"/>
+      <c r="X102" s="10"/>
+      <c r="Y102" s="10"/>
+      <c r="Z102" s="10"/>
+      <c r="AA102" s="10"/>
+      <c r="AB102" s="10"/>
+      <c r="AC102" s="10"/>
+      <c r="AD102" s="10"/>
+    </row>
+    <row r="103" spans="1:30" s="11" customFormat="1" ht="12.75">
+      <c r="A103" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="D103" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="D97" s="10" t="s">
+      <c r="E103" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="E97" s="21" t="s">
+      <c r="K103" s="32"/>
+      <c r="L103" s="32"/>
+    </row>
+    <row r="104" spans="1:30" s="11" customFormat="1" ht="12.75">
+      <c r="A104" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E104" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F97" s="21" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" s="11" customFormat="1" ht="12.75">
-      <c r="A98" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="D98" s="10" t="s">
+      <c r="F104" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="E98" s="21" t="s">
+      <c r="K104" s="32"/>
+      <c r="L104" s="32"/>
+    </row>
+    <row r="105" spans="1:30" s="11" customFormat="1" ht="12.75">
+      <c r="A105" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E105" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F98" s="21" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" s="11" customFormat="1" ht="12.75">
-      <c r="A99" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="D99" s="10" t="s">
+      <c r="F105" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="E99" s="21" t="s">
+      <c r="K105" s="32"/>
+      <c r="L105" s="32"/>
+    </row>
+    <row r="106" spans="1:30" s="11" customFormat="1" ht="12.75">
+      <c r="A106" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D106" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="E106" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F99" s="21" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" s="11" customFormat="1" ht="12.75">
-      <c r="A100" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="D100" s="21" t="s">
+      <c r="F106" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="E100" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="21" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" s="11" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="102" spans="1:6" s="11" customFormat="1" ht="16.5">
-      <c r="A102" s="16"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-    </row>
-    <row r="103" spans="1:6" s="1" customFormat="1" ht="12.75">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-    </row>
-    <row r="104" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="105" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1"/>
+      <c r="K106" s="32"/>
+      <c r="L106" s="32"/>
+    </row>
+    <row r="107" spans="1:30" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="K107" s="32"/>
+      <c r="L107" s="32"/>
+    </row>
+    <row r="108" spans="1:30" s="11" customFormat="1" ht="16.5">
+      <c r="A108" s="16"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="K108" s="32"/>
+      <c r="L108" s="32"/>
+    </row>
+    <row r="109" spans="1:30" s="1" customFormat="1" ht="12.75">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="K109" s="32"/>
+      <c r="L109" s="32"/>
+    </row>
+    <row r="110" spans="1:30" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="K110" s="32"/>
+      <c r="L110" s="32"/>
+    </row>
+    <row r="111" spans="1:30" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="K111" s="32"/>
+      <c r="L111" s="32"/>
+    </row>
+    <row r="112" spans="1:30" ht="15.75" customHeight="1">
+      <c r="K112" s="32"/>
+      <c r="L112" s="32"/>
+    </row>
+    <row r="113" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K113" s="32"/>
+      <c r="L113" s="32"/>
+    </row>
+    <row r="114" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K114" s="32"/>
+      <c r="L114" s="32"/>
+    </row>
+    <row r="115" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K115" s="32"/>
+      <c r="L115" s="32"/>
+    </row>
+    <row r="116" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K116" s="32"/>
+      <c r="L116" s="32"/>
+    </row>
+    <row r="117" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K117" s="32"/>
+      <c r="L117" s="32"/>
+    </row>
+    <row r="118" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K118" s="32"/>
+      <c r="L118" s="32"/>
+    </row>
+    <row r="119" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K119" s="32"/>
+      <c r="L119" s="32"/>
+    </row>
+    <row r="120" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K120" s="32"/>
+      <c r="L120" s="32"/>
+    </row>
+    <row r="121" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K121" s="32"/>
+      <c r="L121" s="32"/>
+    </row>
+    <row r="122" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K122" s="32"/>
+      <c r="L122" s="32"/>
+    </row>
+    <row r="123" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K123" s="32"/>
+      <c r="L123" s="32"/>
+    </row>
+    <row r="124" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K124" s="32"/>
+      <c r="L124" s="32"/>
+    </row>
+    <row r="125" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K125" s="32"/>
+      <c r="L125" s="32"/>
+    </row>
+    <row r="126" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K126" s="32"/>
+      <c r="L126" s="32"/>
+    </row>
+    <row r="127" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K127" s="32"/>
+      <c r="L127" s="32"/>
+    </row>
+    <row r="128" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K128" s="32"/>
+      <c r="L128" s="32"/>
+    </row>
+    <row r="129" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K129" s="32"/>
+      <c r="L129" s="32"/>
+    </row>
+    <row r="130" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K130" s="32"/>
+      <c r="L130" s="32"/>
+    </row>
+    <row r="131" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K131" s="32"/>
+      <c r="L131" s="32"/>
+    </row>
+    <row r="132" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K132" s="32"/>
+      <c r="L132" s="32"/>
+    </row>
+    <row r="133" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K133" s="32"/>
+      <c r="L133" s="32"/>
+    </row>
+    <row r="134" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K134" s="32"/>
+      <c r="L134" s="32"/>
+    </row>
+    <row r="135" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K135" s="32"/>
+      <c r="L135" s="32"/>
+    </row>
+    <row r="136" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K136" s="32"/>
+      <c r="L136" s="32"/>
+    </row>
+    <row r="137" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K137" s="32"/>
+      <c r="L137" s="32"/>
+    </row>
+    <row r="138" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K138" s="32"/>
+      <c r="L138" s="32"/>
+    </row>
+    <row r="139" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K139" s="32"/>
+      <c r="L139" s="32"/>
+    </row>
+    <row r="140" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K140" s="32"/>
+      <c r="L140" s="32"/>
+    </row>
+    <row r="141" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K141" s="32"/>
+      <c r="L141" s="32"/>
+    </row>
+    <row r="142" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K142" s="32"/>
+      <c r="L142" s="32"/>
+    </row>
+    <row r="143" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K143" s="32"/>
+      <c r="L143" s="32"/>
+    </row>
+    <row r="144" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K144" s="32"/>
+      <c r="L144" s="32"/>
+    </row>
+    <row r="145" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K145" s="32"/>
+      <c r="L145" s="32"/>
+    </row>
+    <row r="146" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K146" s="32"/>
+      <c r="L146" s="32"/>
+    </row>
+    <row r="147" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K147" s="32"/>
+      <c r="L147" s="32"/>
+    </row>
+    <row r="148" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K148" s="32"/>
+      <c r="L148" s="32"/>
+    </row>
+    <row r="149" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K149" s="32"/>
+      <c r="L149" s="32"/>
+    </row>
+    <row r="150" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K150" s="32"/>
+      <c r="L150" s="32"/>
+    </row>
+    <row r="151" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K151" s="32"/>
+      <c r="L151" s="32"/>
+    </row>
+    <row r="152" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K152" s="32"/>
+      <c r="L152" s="32"/>
+    </row>
+    <row r="153" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K153" s="32"/>
+      <c r="L153" s="32"/>
+    </row>
+    <row r="154" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K154" s="32"/>
+      <c r="L154" s="32"/>
+    </row>
+    <row r="155" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K155" s="32"/>
+      <c r="L155" s="32"/>
+    </row>
+    <row r="156" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K156" s="32"/>
+      <c r="L156" s="32"/>
+    </row>
+    <row r="157" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K157" s="32"/>
+      <c r="L157" s="32"/>
+    </row>
+    <row r="158" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K158" s="32"/>
+      <c r="L158" s="32"/>
+    </row>
+    <row r="159" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K159" s="32"/>
+      <c r="L159" s="32"/>
+    </row>
+    <row r="160" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K160" s="32"/>
+      <c r="L160" s="32"/>
+    </row>
+    <row r="161" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K161" s="32"/>
+      <c r="L161" s="32"/>
+    </row>
+    <row r="162" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K162" s="32"/>
+      <c r="L162" s="32"/>
+    </row>
+    <row r="163" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K163" s="32"/>
+      <c r="L163" s="32"/>
+    </row>
+    <row r="164" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K164" s="32"/>
+      <c r="L164" s="32"/>
+    </row>
+    <row r="165" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K165" s="32"/>
+      <c r="L165" s="32"/>
+    </row>
+    <row r="166" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K166" s="32"/>
+      <c r="L166" s="32"/>
+    </row>
+    <row r="167" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K167" s="32"/>
+      <c r="L167" s="32"/>
+    </row>
+    <row r="168" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K168" s="32"/>
+      <c r="L168" s="32"/>
+    </row>
+    <row r="169" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K169" s="32"/>
+      <c r="L169" s="32"/>
+    </row>
+    <row r="170" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K170" s="32"/>
+      <c r="L170" s="32"/>
+    </row>
+    <row r="171" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K171" s="32"/>
+      <c r="L171" s="32"/>
+    </row>
+    <row r="172" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K172" s="32"/>
+      <c r="L172" s="32"/>
+    </row>
+    <row r="173" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K173" s="32"/>
+      <c r="L173" s="32"/>
+    </row>
+    <row r="174" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K174" s="32"/>
+      <c r="L174" s="32"/>
+    </row>
+    <row r="175" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K175" s="32"/>
+      <c r="L175" s="32"/>
+    </row>
+    <row r="176" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K176" s="32"/>
+      <c r="L176" s="32"/>
+    </row>
+    <row r="177" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K177" s="32"/>
+      <c r="L177" s="32"/>
+    </row>
+    <row r="178" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K178" s="32"/>
+      <c r="L178" s="32"/>
+    </row>
+    <row r="179" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K179" s="32"/>
+      <c r="L179" s="32"/>
+    </row>
+    <row r="180" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K180" s="32"/>
+      <c r="L180" s="32"/>
+    </row>
+    <row r="181" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K181" s="32"/>
+      <c r="L181" s="32"/>
+    </row>
+    <row r="182" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K182" s="32"/>
+      <c r="L182" s="32"/>
+    </row>
+    <row r="183" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K183" s="32"/>
+      <c r="L183" s="32"/>
+    </row>
+    <row r="184" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K184" s="32"/>
+      <c r="L184" s="32"/>
+    </row>
+    <row r="185" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K185" s="32"/>
+      <c r="L185" s="32"/>
+    </row>
+    <row r="186" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K186" s="32"/>
+      <c r="L186" s="32"/>
+    </row>
+    <row r="187" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K187" s="32"/>
+      <c r="L187" s="32"/>
+    </row>
+    <row r="188" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K188" s="32"/>
+      <c r="L188" s="32"/>
+    </row>
+    <row r="189" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K189" s="32"/>
+      <c r="L189" s="32"/>
+    </row>
+    <row r="190" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K190" s="32"/>
+      <c r="L190" s="32"/>
+    </row>
+    <row r="191" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K191" s="32"/>
+      <c r="L191" s="32"/>
+    </row>
+    <row r="192" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K192" s="32"/>
+      <c r="L192" s="32"/>
+    </row>
+    <row r="193" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K193" s="32"/>
+      <c r="L193" s="32"/>
+    </row>
+    <row r="194" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K194" s="32"/>
+      <c r="L194" s="32"/>
+    </row>
+    <row r="195" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K195" s="32"/>
+      <c r="L195" s="32"/>
+    </row>
+    <row r="196" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K196" s="32"/>
+      <c r="L196" s="32"/>
+    </row>
+    <row r="197" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K197" s="32"/>
+      <c r="L197" s="32"/>
+    </row>
+    <row r="198" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K198" s="32"/>
+      <c r="L198" s="32"/>
+    </row>
+    <row r="199" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K199" s="32"/>
+      <c r="L199" s="32"/>
+    </row>
+    <row r="200" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K200" s="32"/>
+      <c r="L200" s="32"/>
+    </row>
+    <row r="201" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K201" s="32"/>
+      <c r="L201" s="32"/>
+    </row>
+    <row r="202" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K202" s="32"/>
+      <c r="L202" s="32"/>
+    </row>
+    <row r="203" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K203" s="32"/>
+      <c r="L203" s="32"/>
+    </row>
+    <row r="204" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K204" s="32"/>
+      <c r="L204" s="32"/>
+    </row>
+    <row r="205" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K205" s="32"/>
+      <c r="L205" s="32"/>
+    </row>
+    <row r="206" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K206" s="32"/>
+      <c r="L206" s="32"/>
+    </row>
+    <row r="207" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K207" s="32"/>
+      <c r="L207" s="32"/>
+    </row>
+    <row r="208" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K208" s="32"/>
+      <c r="L208" s="32"/>
+    </row>
+    <row r="209" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K209" s="32"/>
+      <c r="L209" s="32"/>
+    </row>
+    <row r="210" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K210" s="32"/>
+      <c r="L210" s="32"/>
+    </row>
+    <row r="211" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K211" s="32"/>
+      <c r="L211" s="32"/>
+    </row>
+    <row r="212" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K212" s="32"/>
+      <c r="L212" s="32"/>
+    </row>
+    <row r="213" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K213" s="32"/>
+      <c r="L213" s="32"/>
+    </row>
+    <row r="214" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K214" s="32"/>
+      <c r="L214" s="32"/>
+    </row>
+    <row r="215" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K215" s="32"/>
+      <c r="L215" s="32"/>
+    </row>
+    <row r="216" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K216" s="32"/>
+      <c r="L216" s="32"/>
+    </row>
+    <row r="217" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K217" s="32"/>
+      <c r="L217" s="32"/>
+    </row>
+    <row r="218" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K218" s="32"/>
+      <c r="L218" s="32"/>
+    </row>
+    <row r="219" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K219" s="32"/>
+      <c r="L219" s="32"/>
+    </row>
+    <row r="220" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K220" s="32"/>
+      <c r="L220" s="32"/>
+    </row>
+    <row r="221" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K221" s="32"/>
+      <c r="L221" s="32"/>
+    </row>
+    <row r="222" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K222" s="32"/>
+      <c r="L222" s="32"/>
+    </row>
+    <row r="223" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K223" s="32"/>
+      <c r="L223" s="32"/>
+    </row>
+    <row r="224" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K224" s="32"/>
+      <c r="L224" s="32"/>
+    </row>
+    <row r="225" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K225" s="32"/>
+      <c r="L225" s="32"/>
+    </row>
+    <row r="226" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K226" s="32"/>
+      <c r="L226" s="32"/>
+    </row>
+    <row r="227" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K227" s="32"/>
+      <c r="L227" s="32"/>
+    </row>
+    <row r="228" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K228" s="32"/>
+      <c r="L228" s="32"/>
+    </row>
+    <row r="229" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K229" s="32"/>
+      <c r="L229" s="32"/>
+    </row>
+    <row r="230" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K230" s="32"/>
+      <c r="L230" s="32"/>
+    </row>
+    <row r="231" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K231" s="32"/>
+      <c r="L231" s="32"/>
+    </row>
+    <row r="232" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K232" s="32"/>
+      <c r="L232" s="32"/>
+    </row>
+    <row r="233" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K233" s="32"/>
+      <c r="L233" s="32"/>
+    </row>
+    <row r="234" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K234" s="32"/>
+      <c r="L234" s="32"/>
+    </row>
+    <row r="235" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K235" s="32"/>
+      <c r="L235" s="32"/>
+    </row>
+    <row r="236" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K236" s="32"/>
+      <c r="L236" s="32"/>
+    </row>
+    <row r="237" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K237" s="32"/>
+      <c r="L237" s="32"/>
+    </row>
+    <row r="238" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K238" s="32"/>
+      <c r="L238" s="32"/>
+    </row>
+    <row r="239" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K239" s="32"/>
+      <c r="L239" s="32"/>
+    </row>
+    <row r="240" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K240" s="32"/>
+      <c r="L240" s="32"/>
+    </row>
+    <row r="241" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K241" s="32"/>
+      <c r="L241" s="32"/>
+    </row>
+    <row r="242" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K242" s="32"/>
+      <c r="L242" s="32"/>
+    </row>
+    <row r="243" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K243" s="32"/>
+      <c r="L243" s="32"/>
+    </row>
+    <row r="244" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K244" s="32"/>
+      <c r="L244" s="32"/>
+    </row>
+    <row r="245" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K245" s="32"/>
+      <c r="L245" s="32"/>
+    </row>
+    <row r="246" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K246" s="32"/>
+      <c r="L246" s="32"/>
+    </row>
+    <row r="247" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K247" s="32"/>
+      <c r="L247" s="32"/>
+    </row>
+    <row r="248" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K248" s="32"/>
+      <c r="L248" s="32"/>
+    </row>
+    <row r="249" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K249" s="32"/>
+      <c r="L249" s="32"/>
+    </row>
+    <row r="250" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K250" s="32"/>
+      <c r="L250" s="32"/>
+    </row>
+    <row r="251" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K251" s="32"/>
+      <c r="L251" s="32"/>
+    </row>
+    <row r="252" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K252" s="32"/>
+      <c r="L252" s="32"/>
+    </row>
+    <row r="253" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K253" s="32"/>
+      <c r="L253" s="32"/>
+    </row>
+    <row r="254" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K254" s="32"/>
+      <c r="L254" s="32"/>
+    </row>
+    <row r="255" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K255" s="32"/>
+      <c r="L255" s="32"/>
+    </row>
+    <row r="256" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K256" s="32"/>
+      <c r="L256" s="32"/>
+    </row>
+    <row r="257" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K257" s="32"/>
+      <c r="L257" s="32"/>
+    </row>
+    <row r="258" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K258" s="32"/>
+      <c r="L258" s="32"/>
+    </row>
+    <row r="259" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K259" s="32"/>
+      <c r="L259" s="32"/>
+    </row>
+    <row r="260" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K260" s="32"/>
+      <c r="L260" s="32"/>
+    </row>
+    <row r="261" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K261" s="32"/>
+      <c r="L261" s="32"/>
+    </row>
+    <row r="262" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K262" s="32"/>
+      <c r="L262" s="32"/>
+    </row>
+    <row r="263" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K263" s="32"/>
+      <c r="L263" s="32"/>
+    </row>
+    <row r="264" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K264" s="32"/>
+      <c r="L264" s="32"/>
+    </row>
+    <row r="265" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K265" s="32"/>
+      <c r="L265" s="32"/>
+    </row>
+    <row r="266" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K266" s="32"/>
+      <c r="L266" s="32"/>
+    </row>
+    <row r="267" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K267" s="32"/>
+      <c r="L267" s="32"/>
+    </row>
+    <row r="268" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K268" s="32"/>
+      <c r="L268" s="32"/>
+    </row>
+    <row r="269" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K269" s="32"/>
+      <c r="L269" s="32"/>
+    </row>
+    <row r="270" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K270" s="32"/>
+      <c r="L270" s="32"/>
+    </row>
+    <row r="271" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K271" s="32"/>
+      <c r="L271" s="32"/>
+    </row>
+    <row r="272" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K272" s="32"/>
+      <c r="L272" s="32"/>
+    </row>
+    <row r="273" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K273" s="32"/>
+      <c r="L273" s="32"/>
+    </row>
+    <row r="274" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K274" s="32"/>
+      <c r="L274" s="32"/>
+    </row>
+    <row r="275" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K275" s="32"/>
+      <c r="L275" s="32"/>
+    </row>
+    <row r="276" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K276" s="32"/>
+      <c r="L276" s="32"/>
+    </row>
+    <row r="277" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K277" s="32"/>
+      <c r="L277" s="32"/>
+    </row>
+    <row r="278" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K278" s="32"/>
+      <c r="L278" s="32"/>
+    </row>
+    <row r="279" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K279" s="32"/>
+      <c r="L279" s="32"/>
+    </row>
+    <row r="280" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K280" s="32"/>
+      <c r="L280" s="32"/>
+    </row>
+    <row r="281" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K281" s="32"/>
+      <c r="L281" s="32"/>
+    </row>
+    <row r="282" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K282" s="32"/>
+      <c r="L282" s="32"/>
+    </row>
+    <row r="283" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K283" s="32"/>
+      <c r="L283" s="32"/>
+    </row>
+    <row r="284" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K284" s="32"/>
+      <c r="L284" s="32"/>
+    </row>
+    <row r="285" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K285" s="32"/>
+      <c r="L285" s="32"/>
+    </row>
+    <row r="286" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K286" s="32"/>
+      <c r="L286" s="32"/>
+    </row>
+    <row r="287" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K287" s="32"/>
+      <c r="L287" s="32"/>
+    </row>
+    <row r="288" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K288" s="32"/>
+      <c r="L288" s="32"/>
+    </row>
+    <row r="289" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K289" s="32"/>
+      <c r="L289" s="32"/>
+    </row>
+    <row r="290" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K290" s="32"/>
+      <c r="L290" s="32"/>
+    </row>
+    <row r="291" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K291" s="32"/>
+      <c r="L291" s="32"/>
+    </row>
+    <row r="292" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K292" s="32"/>
+      <c r="L292" s="32"/>
+    </row>
+    <row r="293" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K293" s="32"/>
+      <c r="L293" s="32"/>
+    </row>
+    <row r="294" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K294" s="32"/>
+      <c r="L294" s="32"/>
+    </row>
+    <row r="295" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K295" s="32"/>
+      <c r="L295" s="32"/>
+    </row>
+    <row r="296" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K296" s="32"/>
+      <c r="L296" s="32"/>
+    </row>
+    <row r="297" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K297" s="32"/>
+      <c r="L297" s="32"/>
+    </row>
+    <row r="298" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K298" s="32"/>
+      <c r="L298" s="32"/>
+    </row>
+    <row r="299" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K299" s="32"/>
+      <c r="L299" s="32"/>
+    </row>
+    <row r="300" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K300" s="32"/>
+      <c r="L300" s="32"/>
+    </row>
+    <row r="301" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K301" s="32"/>
+      <c r="L301" s="32"/>
+    </row>
+    <row r="302" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K302" s="32"/>
+      <c r="L302" s="32"/>
+    </row>
+    <row r="303" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K303" s="32"/>
+      <c r="L303" s="32"/>
+    </row>
+    <row r="304" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K304" s="32"/>
+      <c r="L304" s="32"/>
+    </row>
+    <row r="305" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K305" s="32"/>
+      <c r="L305" s="32"/>
+    </row>
+    <row r="306" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K306" s="32"/>
+      <c r="L306" s="32"/>
+    </row>
+    <row r="307" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K307" s="32"/>
+      <c r="L307" s="32"/>
+    </row>
+    <row r="308" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K308" s="32"/>
+      <c r="L308" s="32"/>
+    </row>
+    <row r="309" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K309" s="32"/>
+      <c r="L309" s="32"/>
+    </row>
+    <row r="310" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K310" s="32"/>
+      <c r="L310" s="32"/>
+    </row>
+    <row r="311" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K311" s="32"/>
+      <c r="L311" s="32"/>
+    </row>
+    <row r="312" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K312" s="32"/>
+      <c r="L312" s="32"/>
+    </row>
+    <row r="313" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K313" s="32"/>
+      <c r="L313" s="32"/>
+    </row>
+    <row r="314" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K314" s="32"/>
+      <c r="L314" s="32"/>
+    </row>
+    <row r="315" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K315" s="32"/>
+      <c r="L315" s="32"/>
+    </row>
+    <row r="316" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K316" s="32"/>
+      <c r="L316" s="32"/>
+    </row>
+    <row r="317" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K317" s="32"/>
+      <c r="L317" s="32"/>
+    </row>
+    <row r="318" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K318" s="32"/>
+      <c r="L318" s="32"/>
+    </row>
+    <row r="319" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K319" s="32"/>
+      <c r="L319" s="32"/>
+    </row>
+    <row r="320" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K320" s="32"/>
+      <c r="L320" s="32"/>
+    </row>
+    <row r="321" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K321" s="32"/>
+      <c r="L321" s="32"/>
+    </row>
+    <row r="322" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K322" s="32"/>
+      <c r="L322" s="32"/>
+    </row>
+    <row r="323" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K323" s="32"/>
+      <c r="L323" s="32"/>
+    </row>
+    <row r="324" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K324" s="32"/>
+      <c r="L324" s="32"/>
+    </row>
+    <row r="325" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K325" s="32"/>
+      <c r="L325" s="32"/>
+    </row>
+    <row r="326" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K326" s="32"/>
+      <c r="L326" s="32"/>
+    </row>
+    <row r="327" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K327" s="32"/>
+      <c r="L327" s="32"/>
+    </row>
+    <row r="328" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K328" s="32"/>
+      <c r="L328" s="32"/>
+    </row>
+    <row r="329" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K329" s="32"/>
+      <c r="L329" s="32"/>
+    </row>
+    <row r="330" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K330" s="32"/>
+      <c r="L330" s="32"/>
+    </row>
+    <row r="331" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K331" s="32"/>
+      <c r="L331" s="32"/>
+    </row>
+    <row r="332" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K332" s="32"/>
+      <c r="L332" s="32"/>
+    </row>
+    <row r="333" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K333" s="32"/>
+      <c r="L333" s="32"/>
+    </row>
+    <row r="334" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K334" s="32"/>
+      <c r="L334" s="32"/>
+    </row>
+    <row r="335" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K335" s="32"/>
+      <c r="L335" s="32"/>
+    </row>
+    <row r="336" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K336" s="32"/>
+      <c r="L336" s="32"/>
+    </row>
+    <row r="337" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K337" s="32"/>
+      <c r="L337" s="32"/>
+    </row>
+    <row r="338" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K338" s="32"/>
+      <c r="L338" s="32"/>
+    </row>
+    <row r="339" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K339" s="32"/>
+      <c r="L339" s="32"/>
+    </row>
+    <row r="340" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K340" s="32"/>
+      <c r="L340" s="32"/>
+    </row>
+    <row r="341" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K341" s="32"/>
+      <c r="L341" s="32"/>
+    </row>
+    <row r="342" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K342" s="32"/>
+      <c r="L342" s="32"/>
+    </row>
+    <row r="343" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K343" s="32"/>
+      <c r="L343" s="32"/>
+    </row>
+    <row r="344" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K344" s="32"/>
+      <c r="L344" s="32"/>
+    </row>
+    <row r="345" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K345" s="32"/>
+      <c r="L345" s="32"/>
+    </row>
+    <row r="346" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K346" s="32"/>
+      <c r="L346" s="32"/>
+    </row>
+    <row r="347" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K347" s="32"/>
+      <c r="L347" s="32"/>
+    </row>
+    <row r="348" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K348" s="32"/>
+      <c r="L348" s="32"/>
+    </row>
+    <row r="349" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K349" s="32"/>
+      <c r="L349" s="32"/>
+    </row>
+    <row r="350" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K350" s="32"/>
+      <c r="L350" s="32"/>
+    </row>
+    <row r="351" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K351" s="32"/>
+      <c r="L351" s="32"/>
+    </row>
+    <row r="352" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K352" s="32"/>
+      <c r="L352" s="32"/>
+    </row>
+    <row r="353" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K353" s="32"/>
+      <c r="L353" s="32"/>
+    </row>
+    <row r="354" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K354" s="32"/>
+      <c r="L354" s="32"/>
+    </row>
+    <row r="355" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K355" s="32"/>
+      <c r="L355" s="32"/>
+    </row>
+    <row r="356" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K356" s="32"/>
+      <c r="L356" s="32"/>
+    </row>
+    <row r="357" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K357" s="32"/>
+      <c r="L357" s="32"/>
+    </row>
+    <row r="358" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K358" s="32"/>
+      <c r="L358" s="32"/>
+    </row>
+    <row r="359" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K359" s="32"/>
+      <c r="L359" s="32"/>
+    </row>
+    <row r="360" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K360" s="32"/>
+      <c r="L360" s="32"/>
+    </row>
+    <row r="361" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K361" s="32"/>
+      <c r="L361" s="32"/>
+    </row>
+    <row r="362" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K362" s="32"/>
+      <c r="L362" s="32"/>
+    </row>
+    <row r="363" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K363" s="32"/>
+      <c r="L363" s="32"/>
+    </row>
+    <row r="364" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K364" s="32"/>
+      <c r="L364" s="32"/>
+    </row>
+    <row r="365" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K365" s="32"/>
+      <c r="L365" s="32"/>
+    </row>
+    <row r="366" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K366" s="32"/>
+      <c r="L366" s="32"/>
+    </row>
+    <row r="367" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K367" s="32"/>
+      <c r="L367" s="32"/>
+    </row>
+    <row r="368" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K368" s="32"/>
+      <c r="L368" s="32"/>
+    </row>
+    <row r="369" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K369" s="32"/>
+      <c r="L369" s="32"/>
+    </row>
+    <row r="370" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K370" s="32"/>
+      <c r="L370" s="32"/>
+    </row>
+    <row r="371" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K371" s="32"/>
+      <c r="L371" s="32"/>
+    </row>
+    <row r="372" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K372" s="32"/>
+      <c r="L372" s="32"/>
+    </row>
+    <row r="373" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K373" s="32"/>
+      <c r="L373" s="32"/>
+    </row>
+    <row r="374" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K374" s="32"/>
+      <c r="L374" s="32"/>
+    </row>
+    <row r="375" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K375" s="32"/>
+      <c r="L375" s="32"/>
+    </row>
+    <row r="376" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K376" s="32"/>
+      <c r="L376" s="32"/>
+    </row>
+    <row r="377" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K377" s="32"/>
+      <c r="L377" s="32"/>
+    </row>
+    <row r="378" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K378" s="32"/>
+      <c r="L378" s="32"/>
+    </row>
+    <row r="379" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K379" s="32"/>
+      <c r="L379" s="32"/>
+    </row>
+    <row r="380" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K380" s="32"/>
+      <c r="L380" s="32"/>
+    </row>
+    <row r="381" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K381" s="32"/>
+      <c r="L381" s="32"/>
+    </row>
+    <row r="382" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K382" s="32"/>
+      <c r="L382" s="32"/>
+    </row>
+    <row r="383" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K383" s="32"/>
+      <c r="L383" s="32"/>
+    </row>
+    <row r="384" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K384" s="32"/>
+      <c r="L384" s="32"/>
+    </row>
+    <row r="385" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K385" s="32"/>
+      <c r="L385" s="32"/>
+    </row>
+    <row r="386" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K386" s="32"/>
+      <c r="L386" s="32"/>
+    </row>
+    <row r="387" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K387" s="32"/>
+      <c r="L387" s="32"/>
+    </row>
+    <row r="388" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K388" s="32"/>
+      <c r="L388" s="32"/>
+    </row>
+    <row r="389" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K389" s="32"/>
+      <c r="L389" s="32"/>
+    </row>
+    <row r="390" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K390" s="32"/>
+      <c r="L390" s="32"/>
+    </row>
+    <row r="391" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K391" s="32"/>
+      <c r="L391" s="32"/>
+    </row>
+    <row r="392" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K392" s="32"/>
+      <c r="L392" s="32"/>
+    </row>
+    <row r="393" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K393" s="32"/>
+      <c r="L393" s="32"/>
+    </row>
+    <row r="394" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K394" s="32"/>
+      <c r="L394" s="32"/>
+    </row>
+    <row r="395" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K395" s="32"/>
+      <c r="L395" s="32"/>
+    </row>
+    <row r="396" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K396" s="32"/>
+      <c r="L396" s="32"/>
+    </row>
+    <row r="397" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K397" s="32"/>
+      <c r="L397" s="32"/>
+    </row>
+    <row r="398" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K398" s="32"/>
+      <c r="L398" s="32"/>
+    </row>
+    <row r="399" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K399" s="32"/>
+      <c r="L399" s="32"/>
+    </row>
+    <row r="400" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K400" s="32"/>
+      <c r="L400" s="32"/>
+    </row>
+    <row r="401" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K401" s="32"/>
+      <c r="L401" s="32"/>
+    </row>
+    <row r="402" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K402" s="32"/>
+      <c r="L402" s="32"/>
+    </row>
+    <row r="403" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K403" s="32"/>
+      <c r="L403" s="32"/>
+    </row>
+    <row r="404" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K404" s="32"/>
+      <c r="L404" s="32"/>
+    </row>
+    <row r="405" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K405" s="32"/>
+      <c r="L405" s="32"/>
+    </row>
+    <row r="406" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K406" s="32"/>
+      <c r="L406" s="32"/>
+    </row>
+    <row r="407" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K407" s="32"/>
+      <c r="L407" s="32"/>
+    </row>
+    <row r="408" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K408" s="32"/>
+      <c r="L408" s="32"/>
+    </row>
+    <row r="409" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K409" s="32"/>
+      <c r="L409" s="32"/>
+    </row>
+    <row r="410" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K410" s="32"/>
+      <c r="L410" s="32"/>
+    </row>
+    <row r="411" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K411" s="32"/>
+      <c r="L411" s="32"/>
+    </row>
+    <row r="412" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K412" s="32"/>
+      <c r="L412" s="32"/>
+    </row>
+    <row r="413" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K413" s="32"/>
+      <c r="L413" s="32"/>
+    </row>
+    <row r="414" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K414" s="32"/>
+      <c r="L414" s="32"/>
+    </row>
+    <row r="415" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K415" s="32"/>
+      <c r="L415" s="32"/>
+    </row>
+    <row r="416" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K416" s="32"/>
+      <c r="L416" s="32"/>
+    </row>
+    <row r="417" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K417" s="32"/>
+      <c r="L417" s="32"/>
+    </row>
+    <row r="418" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K418" s="32"/>
+      <c r="L418" s="32"/>
+    </row>
+    <row r="419" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K419" s="32"/>
+      <c r="L419" s="32"/>
+    </row>
+    <row r="420" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K420" s="32"/>
+      <c r="L420" s="32"/>
+    </row>
+    <row r="421" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K421" s="32"/>
+      <c r="L421" s="32"/>
+    </row>
+    <row r="422" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K422" s="32"/>
+      <c r="L422" s="32"/>
+    </row>
+    <row r="423" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K423" s="32"/>
+      <c r="L423" s="32"/>
+    </row>
+    <row r="424" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K424" s="32"/>
+      <c r="L424" s="32"/>
+    </row>
+    <row r="425" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K425" s="32"/>
+      <c r="L425" s="32"/>
+    </row>
+    <row r="426" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K426" s="32"/>
+      <c r="L426" s="32"/>
+    </row>
+    <row r="427" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K427" s="32"/>
+      <c r="L427" s="32"/>
+    </row>
+    <row r="428" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K428" s="32"/>
+      <c r="L428" s="32"/>
+    </row>
+    <row r="429" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K429" s="32"/>
+      <c r="L429" s="32"/>
+    </row>
+    <row r="430" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K430" s="32"/>
+      <c r="L430" s="32"/>
+    </row>
+    <row r="431" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K431" s="32"/>
+      <c r="L431" s="32"/>
+    </row>
+    <row r="432" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K432" s="32"/>
+      <c r="L432" s="32"/>
+    </row>
+    <row r="433" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K433" s="32"/>
+      <c r="L433" s="32"/>
+    </row>
+    <row r="434" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K434" s="32"/>
+      <c r="L434" s="32"/>
+    </row>
+    <row r="435" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K435" s="32"/>
+      <c r="L435" s="32"/>
+    </row>
+    <row r="436" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K436" s="32"/>
+      <c r="L436" s="32"/>
+    </row>
+    <row r="437" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K437" s="32"/>
+      <c r="L437" s="32"/>
+    </row>
+    <row r="438" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K438" s="32"/>
+      <c r="L438" s="32"/>
+    </row>
+    <row r="439" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K439" s="32"/>
+      <c r="L439" s="32"/>
+    </row>
+    <row r="440" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K440" s="32"/>
+      <c r="L440" s="32"/>
+    </row>
+    <row r="441" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K441" s="32"/>
+      <c r="L441" s="32"/>
+    </row>
+    <row r="442" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K442" s="32"/>
+      <c r="L442" s="32"/>
+    </row>
+    <row r="443" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K443" s="32"/>
+      <c r="L443" s="32"/>
+    </row>
+    <row r="444" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K444" s="32"/>
+      <c r="L444" s="32"/>
+    </row>
+    <row r="445" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K445" s="32"/>
+      <c r="L445" s="32"/>
+    </row>
+    <row r="446" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K446" s="32"/>
+      <c r="L446" s="32"/>
+    </row>
+    <row r="447" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K447" s="32"/>
+      <c r="L447" s="32"/>
+    </row>
+    <row r="448" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K448" s="32"/>
+      <c r="L448" s="32"/>
+    </row>
+    <row r="449" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K449" s="32"/>
+      <c r="L449" s="32"/>
+    </row>
+    <row r="450" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K450" s="32"/>
+      <c r="L450" s="32"/>
+    </row>
+    <row r="451" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K451" s="32"/>
+      <c r="L451" s="32"/>
+    </row>
+    <row r="452" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K452" s="32"/>
+      <c r="L452" s="32"/>
+    </row>
+    <row r="453" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K453" s="32"/>
+      <c r="L453" s="32"/>
+    </row>
+    <row r="454" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K454" s="32"/>
+      <c r="L454" s="32"/>
+    </row>
+    <row r="455" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K455" s="32"/>
+      <c r="L455" s="32"/>
+    </row>
+    <row r="456" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K456" s="32"/>
+      <c r="L456" s="32"/>
+    </row>
+    <row r="457" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K457" s="32"/>
+      <c r="L457" s="32"/>
+    </row>
+    <row r="458" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K458" s="32"/>
+      <c r="L458" s="32"/>
+    </row>
+    <row r="459" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K459" s="32"/>
+      <c r="L459" s="32"/>
+    </row>
+    <row r="460" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K460" s="32"/>
+      <c r="L460" s="32"/>
+    </row>
+    <row r="461" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K461" s="32"/>
+      <c r="L461" s="32"/>
+    </row>
+    <row r="462" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K462" s="32"/>
+      <c r="L462" s="32"/>
+    </row>
+    <row r="463" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K463" s="32"/>
+      <c r="L463" s="32"/>
+    </row>
+    <row r="464" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K464" s="32"/>
+      <c r="L464" s="32"/>
+    </row>
+    <row r="465" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K465" s="32"/>
+      <c r="L465" s="32"/>
+    </row>
+    <row r="466" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K466" s="32"/>
+      <c r="L466" s="32"/>
+    </row>
+    <row r="467" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K467" s="32"/>
+      <c r="L467" s="32"/>
+    </row>
+    <row r="468" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K468" s="32"/>
+      <c r="L468" s="32"/>
+    </row>
+    <row r="469" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K469" s="32"/>
+      <c r="L469" s="32"/>
+    </row>
+    <row r="470" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K470" s="32"/>
+      <c r="L470" s="32"/>
+    </row>
+    <row r="471" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K471" s="32"/>
+      <c r="L471" s="32"/>
+    </row>
+    <row r="472" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K472" s="32"/>
+      <c r="L472" s="32"/>
+    </row>
+    <row r="473" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K473" s="32"/>
+      <c r="L473" s="32"/>
+    </row>
+    <row r="474" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K474" s="32"/>
+      <c r="L474" s="32"/>
+    </row>
+    <row r="475" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K475" s="32"/>
+      <c r="L475" s="32"/>
+    </row>
+    <row r="476" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K476" s="32"/>
+      <c r="L476" s="32"/>
+    </row>
+    <row r="477" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K477" s="32"/>
+      <c r="L477" s="32"/>
+    </row>
+    <row r="478" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K478" s="32"/>
+      <c r="L478" s="32"/>
+    </row>
+    <row r="479" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K479" s="32"/>
+      <c r="L479" s="32"/>
+    </row>
+    <row r="480" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K480" s="32"/>
+      <c r="L480" s="32"/>
+    </row>
+    <row r="481" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K481" s="32"/>
+      <c r="L481" s="32"/>
+    </row>
+    <row r="482" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K482" s="32"/>
+      <c r="L482" s="32"/>
+    </row>
+    <row r="483" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K483" s="32"/>
+      <c r="L483" s="32"/>
+    </row>
+    <row r="484" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K484" s="32"/>
+      <c r="L484" s="32"/>
+    </row>
+    <row r="485" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K485" s="32"/>
+      <c r="L485" s="32"/>
+    </row>
+    <row r="486" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K486" s="32"/>
+      <c r="L486" s="32"/>
+    </row>
+    <row r="487" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K487" s="32"/>
+      <c r="L487" s="32"/>
+    </row>
+    <row r="488" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K488" s="32"/>
+      <c r="L488" s="32"/>
+    </row>
+    <row r="489" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K489" s="32"/>
+      <c r="L489" s="32"/>
+    </row>
+    <row r="490" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K490" s="32"/>
+      <c r="L490" s="32"/>
+    </row>
+    <row r="491" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K491" s="32"/>
+      <c r="L491" s="32"/>
+    </row>
+    <row r="492" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K492" s="32"/>
+      <c r="L492" s="32"/>
+    </row>
+    <row r="493" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K493" s="32"/>
+      <c r="L493" s="32"/>
+    </row>
+    <row r="494" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K494" s="32"/>
+      <c r="L494" s="32"/>
+    </row>
+    <row r="495" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K495" s="32"/>
+      <c r="L495" s="32"/>
+    </row>
+    <row r="496" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K496" s="32"/>
+      <c r="L496" s="32"/>
+    </row>
+    <row r="497" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K497" s="32"/>
+      <c r="L497" s="32"/>
+    </row>
+    <row r="498" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K498" s="32"/>
+      <c r="L498" s="32"/>
+    </row>
+    <row r="499" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K499" s="32"/>
+      <c r="L499" s="32"/>
+    </row>
+    <row r="500" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K500" s="32"/>
+      <c r="L500" s="32"/>
+    </row>
+    <row r="501" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K501" s="32"/>
+      <c r="L501" s="32"/>
+    </row>
+    <row r="502" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K502" s="32"/>
+      <c r="L502" s="32"/>
+    </row>
+    <row r="503" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K503" s="32"/>
+      <c r="L503" s="32"/>
+    </row>
+    <row r="504" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K504" s="32"/>
+      <c r="L504" s="32"/>
+    </row>
+    <row r="505" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K505" s="32"/>
+      <c r="L505" s="32"/>
+    </row>
+    <row r="506" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K506" s="32"/>
+      <c r="L506" s="32"/>
+    </row>
+    <row r="507" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K507" s="32"/>
+      <c r="L507" s="32"/>
+    </row>
+    <row r="508" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K508" s="32"/>
+      <c r="L508" s="32"/>
+    </row>
+    <row r="509" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K509" s="32"/>
+      <c r="L509" s="32"/>
+    </row>
+    <row r="510" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K510" s="32"/>
+      <c r="L510" s="32"/>
+    </row>
+    <row r="511" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K511" s="32"/>
+      <c r="L511" s="32"/>
+    </row>
+    <row r="512" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K512" s="32"/>
+      <c r="L512" s="32"/>
+    </row>
+    <row r="513" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K513" s="32"/>
+      <c r="L513" s="32"/>
+    </row>
+    <row r="514" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K514" s="32"/>
+      <c r="L514" s="32"/>
+    </row>
+    <row r="515" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K515" s="32"/>
+      <c r="L515" s="32"/>
+    </row>
+    <row r="516" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K516" s="32"/>
+      <c r="L516" s="32"/>
+    </row>
+    <row r="517" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K517" s="32"/>
+      <c r="L517" s="32"/>
+    </row>
+    <row r="518" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K518" s="32"/>
+      <c r="L518" s="32"/>
+    </row>
+    <row r="519" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K519" s="32"/>
+      <c r="L519" s="32"/>
+    </row>
+    <row r="520" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K520" s="32"/>
+      <c r="L520" s="32"/>
+    </row>
+    <row r="521" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K521" s="32"/>
+      <c r="L521" s="32"/>
+    </row>
+    <row r="522" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K522" s="32"/>
+      <c r="L522" s="32"/>
+    </row>
+    <row r="523" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K523" s="32"/>
+      <c r="L523" s="32"/>
+    </row>
+    <row r="524" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K524" s="32"/>
+      <c r="L524" s="32"/>
+    </row>
+    <row r="525" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K525" s="32"/>
+      <c r="L525" s="32"/>
+    </row>
+    <row r="526" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K526" s="32"/>
+      <c r="L526" s="32"/>
+    </row>
+    <row r="527" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K527" s="32"/>
+      <c r="L527" s="32"/>
+    </row>
+    <row r="528" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K528" s="32"/>
+      <c r="L528" s="32"/>
+    </row>
+    <row r="529" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K529" s="32"/>
+      <c r="L529" s="32"/>
+    </row>
+    <row r="530" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K530" s="32"/>
+      <c r="L530" s="32"/>
+    </row>
+    <row r="531" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K531" s="32"/>
+      <c r="L531" s="32"/>
+    </row>
+    <row r="532" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K532" s="32"/>
+      <c r="L532" s="32"/>
+    </row>
+    <row r="533" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K533" s="32"/>
+      <c r="L533" s="32"/>
+    </row>
+    <row r="534" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K534" s="32"/>
+      <c r="L534" s="32"/>
+    </row>
+    <row r="535" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K535" s="32"/>
+      <c r="L535" s="32"/>
+    </row>
+    <row r="536" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K536" s="32"/>
+      <c r="L536" s="32"/>
+    </row>
+    <row r="537" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K537" s="32"/>
+      <c r="L537" s="32"/>
+    </row>
+    <row r="538" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K538" s="32"/>
+      <c r="L538" s="32"/>
+    </row>
+    <row r="539" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K539" s="32"/>
+      <c r="L539" s="32"/>
+    </row>
+    <row r="540" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K540" s="32"/>
+      <c r="L540" s="32"/>
+    </row>
+    <row r="541" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K541" s="32"/>
+      <c r="L541" s="32"/>
+    </row>
+    <row r="542" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K542" s="32"/>
+      <c r="L542" s="32"/>
+    </row>
+    <row r="543" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K543" s="32"/>
+      <c r="L543" s="32"/>
+    </row>
+    <row r="544" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K544" s="32"/>
+      <c r="L544" s="32"/>
+    </row>
+    <row r="545" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K545" s="32"/>
+      <c r="L545" s="32"/>
+    </row>
+    <row r="546" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K546" s="32"/>
+      <c r="L546" s="32"/>
+    </row>
+    <row r="547" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K547" s="32"/>
+      <c r="L547" s="32"/>
+    </row>
+    <row r="548" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K548" s="32"/>
+      <c r="L548" s="32"/>
+    </row>
+    <row r="549" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K549" s="32"/>
+      <c r="L549" s="32"/>
+    </row>
+    <row r="550" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K550" s="32"/>
+      <c r="L550" s="32"/>
+    </row>
+    <row r="551" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K551" s="32"/>
+      <c r="L551" s="32"/>
+    </row>
+    <row r="552" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K552" s="32"/>
+      <c r="L552" s="32"/>
+    </row>
+    <row r="553" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K553" s="32"/>
+      <c r="L553" s="32"/>
+    </row>
+    <row r="554" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K554" s="32"/>
+      <c r="L554" s="32"/>
+    </row>
+    <row r="555" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K555" s="32"/>
+      <c r="L555" s="32"/>
+    </row>
+    <row r="556" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K556" s="32"/>
+      <c r="L556" s="32"/>
+    </row>
+    <row r="557" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K557" s="32"/>
+      <c r="L557" s="32"/>
+    </row>
+    <row r="558" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K558" s="32"/>
+      <c r="L558" s="32"/>
+    </row>
+    <row r="559" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K559" s="32"/>
+      <c r="L559" s="32"/>
+    </row>
+    <row r="560" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K560" s="32"/>
+      <c r="L560" s="32"/>
+    </row>
+    <row r="561" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K561" s="32"/>
+      <c r="L561" s="32"/>
+    </row>
+    <row r="562" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K562" s="32"/>
+      <c r="L562" s="32"/>
+    </row>
+    <row r="563" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K563" s="32"/>
+      <c r="L563" s="32"/>
+    </row>
+    <row r="564" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K564" s="32"/>
+      <c r="L564" s="32"/>
+    </row>
+    <row r="565" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K565" s="32"/>
+      <c r="L565" s="32"/>
+    </row>
+    <row r="566" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K566" s="32"/>
+      <c r="L566" s="32"/>
+    </row>
+    <row r="567" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K567" s="32"/>
+      <c r="L567" s="32"/>
+    </row>
+    <row r="568" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K568" s="32"/>
+      <c r="L568" s="32"/>
+    </row>
+    <row r="569" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K569" s="32"/>
+      <c r="L569" s="32"/>
+    </row>
+    <row r="570" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K570" s="32"/>
+      <c r="L570" s="32"/>
+    </row>
+    <row r="571" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K571" s="32"/>
+      <c r="L571" s="32"/>
+    </row>
+    <row r="572" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K572" s="32"/>
+      <c r="L572" s="32"/>
+    </row>
+    <row r="573" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K573" s="32"/>
+      <c r="L573" s="32"/>
+    </row>
+    <row r="574" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K574" s="32"/>
+      <c r="L574" s="32"/>
+    </row>
+    <row r="575" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K575" s="32"/>
+      <c r="L575" s="32"/>
+    </row>
+    <row r="576" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K576" s="32"/>
+      <c r="L576" s="32"/>
+    </row>
+    <row r="577" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K577" s="32"/>
+      <c r="L577" s="32"/>
+    </row>
+    <row r="578" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K578" s="32"/>
+      <c r="L578" s="32"/>
+    </row>
+    <row r="579" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K579" s="32"/>
+      <c r="L579" s="32"/>
+    </row>
+    <row r="580" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K580" s="32"/>
+      <c r="L580" s="32"/>
+    </row>
+    <row r="581" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K581" s="32"/>
+      <c r="L581" s="32"/>
+    </row>
+    <row r="582" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K582" s="32"/>
+      <c r="L582" s="32"/>
+    </row>
+    <row r="583" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K583" s="32"/>
+      <c r="L583" s="32"/>
+    </row>
+    <row r="584" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K584" s="32"/>
+      <c r="L584" s="32"/>
+    </row>
+    <row r="585" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K585" s="32"/>
+      <c r="L585" s="32"/>
+    </row>
+    <row r="586" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K586" s="32"/>
+      <c r="L586" s="32"/>
+    </row>
+    <row r="587" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K587" s="32"/>
+      <c r="L587" s="32"/>
+    </row>
+    <row r="588" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K588" s="32"/>
+      <c r="L588" s="32"/>
+    </row>
+    <row r="589" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K589" s="32"/>
+      <c r="L589" s="32"/>
+    </row>
+    <row r="590" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K590" s="32"/>
+      <c r="L590" s="32"/>
+    </row>
+    <row r="591" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K591" s="32"/>
+      <c r="L591" s="32"/>
+    </row>
+    <row r="592" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K592" s="32"/>
+      <c r="L592" s="32"/>
+    </row>
+    <row r="593" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K593" s="32"/>
+      <c r="L593" s="32"/>
+    </row>
+    <row r="594" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K594" s="32"/>
+      <c r="L594" s="32"/>
+    </row>
+    <row r="595" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K595" s="32"/>
+      <c r="L595" s="32"/>
+    </row>
+    <row r="596" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K596" s="32"/>
+      <c r="L596" s="32"/>
+    </row>
+    <row r="597" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K597" s="32"/>
+      <c r="L597" s="32"/>
+    </row>
+    <row r="598" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K598" s="32"/>
+      <c r="L598" s="32"/>
+    </row>
+    <row r="599" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K599" s="32"/>
+      <c r="L599" s="32"/>
+    </row>
+    <row r="600" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K600" s="32"/>
+      <c r="L600" s="32"/>
+    </row>
+    <row r="601" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K601" s="32"/>
+      <c r="L601" s="32"/>
+    </row>
+    <row r="602" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K602" s="32"/>
+      <c r="L602" s="32"/>
+    </row>
+    <row r="603" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K603" s="32"/>
+      <c r="L603" s="32"/>
+    </row>
+    <row r="604" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K604" s="32"/>
+      <c r="L604" s="32"/>
+    </row>
+    <row r="605" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K605" s="32"/>
+      <c r="L605" s="32"/>
+    </row>
+    <row r="606" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K606" s="32"/>
+      <c r="L606" s="32"/>
+    </row>
+    <row r="607" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K607" s="32"/>
+      <c r="L607" s="32"/>
+    </row>
+    <row r="608" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K608" s="32"/>
+      <c r="L608" s="32"/>
+    </row>
+    <row r="609" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K609" s="32"/>
+      <c r="L609" s="32"/>
+    </row>
+    <row r="610" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K610" s="32"/>
+      <c r="L610" s="32"/>
+    </row>
+    <row r="611" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K611" s="32"/>
+      <c r="L611" s="32"/>
+    </row>
+    <row r="612" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K612" s="32"/>
+      <c r="L612" s="32"/>
+    </row>
+    <row r="613" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K613" s="32"/>
+      <c r="L613" s="32"/>
+    </row>
+    <row r="614" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K614" s="32"/>
+      <c r="L614" s="32"/>
+    </row>
+    <row r="615" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K615" s="32"/>
+      <c r="L615" s="32"/>
+    </row>
+    <row r="616" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K616" s="32"/>
+      <c r="L616" s="32"/>
+    </row>
+    <row r="617" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K617" s="32"/>
+      <c r="L617" s="32"/>
+    </row>
+    <row r="618" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K618" s="32"/>
+      <c r="L618" s="32"/>
+    </row>
+    <row r="619" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K619" s="32"/>
+      <c r="L619" s="32"/>
+    </row>
+    <row r="620" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K620" s="32"/>
+      <c r="L620" s="32"/>
+    </row>
+    <row r="621" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K621" s="32"/>
+      <c r="L621" s="32"/>
+    </row>
+    <row r="622" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K622" s="32"/>
+      <c r="L622" s="32"/>
+    </row>
+    <row r="623" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K623" s="32"/>
+      <c r="L623" s="32"/>
+    </row>
+    <row r="624" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K624" s="32"/>
+      <c r="L624" s="32"/>
+    </row>
+    <row r="625" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K625" s="32"/>
+      <c r="L625" s="32"/>
+    </row>
+    <row r="626" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K626" s="32"/>
+      <c r="L626" s="32"/>
+    </row>
+    <row r="627" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K627" s="32"/>
+      <c r="L627" s="32"/>
+    </row>
+    <row r="628" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K628" s="32"/>
+      <c r="L628" s="32"/>
+    </row>
+    <row r="629" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K629" s="32"/>
+      <c r="L629" s="32"/>
+    </row>
+    <row r="630" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K630" s="32"/>
+      <c r="L630" s="32"/>
+    </row>
+    <row r="631" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K631" s="32"/>
+      <c r="L631" s="32"/>
+    </row>
+    <row r="632" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K632" s="32"/>
+      <c r="L632" s="32"/>
+    </row>
+    <row r="633" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K633" s="32"/>
+      <c r="L633" s="32"/>
+    </row>
+    <row r="634" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K634" s="32"/>
+      <c r="L634" s="32"/>
+    </row>
+    <row r="635" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K635" s="32"/>
+      <c r="L635" s="32"/>
+    </row>
+    <row r="636" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K636" s="32"/>
+      <c r="L636" s="32"/>
+    </row>
+    <row r="637" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K637" s="32"/>
+      <c r="L637" s="32"/>
+    </row>
+    <row r="638" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K638" s="32"/>
+      <c r="L638" s="32"/>
+    </row>
+    <row r="639" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K639" s="32"/>
+      <c r="L639" s="32"/>
+    </row>
+    <row r="640" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K640" s="32"/>
+      <c r="L640" s="32"/>
+    </row>
+    <row r="641" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K641" s="32"/>
+      <c r="L641" s="32"/>
+    </row>
+    <row r="642" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K642" s="32"/>
+      <c r="L642" s="32"/>
+    </row>
+    <row r="643" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K643" s="32"/>
+      <c r="L643" s="32"/>
+    </row>
+    <row r="644" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K644" s="32"/>
+      <c r="L644" s="32"/>
+    </row>
+    <row r="645" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K645" s="32"/>
+      <c r="L645" s="32"/>
+    </row>
+    <row r="646" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K646" s="32"/>
+      <c r="L646" s="32"/>
+    </row>
+    <row r="647" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K647" s="32"/>
+      <c r="L647" s="32"/>
+    </row>
+    <row r="648" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K648" s="32"/>
+      <c r="L648" s="32"/>
+    </row>
+    <row r="649" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K649" s="32"/>
+      <c r="L649" s="32"/>
+    </row>
+    <row r="650" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K650" s="32"/>
+      <c r="L650" s="32"/>
+    </row>
+    <row r="651" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K651" s="32"/>
+      <c r="L651" s="32"/>
+    </row>
+    <row r="652" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K652" s="32"/>
+      <c r="L652" s="32"/>
+    </row>
+    <row r="653" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K653" s="32"/>
+      <c r="L653" s="32"/>
+    </row>
+    <row r="654" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K654" s="32"/>
+      <c r="L654" s="32"/>
+    </row>
+    <row r="655" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K655" s="32"/>
+      <c r="L655" s="32"/>
+    </row>
+    <row r="656" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K656" s="32"/>
+      <c r="L656" s="32"/>
+    </row>
+    <row r="657" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K657" s="32"/>
+      <c r="L657" s="32"/>
+    </row>
+    <row r="658" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K658" s="32"/>
+      <c r="L658" s="32"/>
+    </row>
+    <row r="659" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K659" s="32"/>
+      <c r="L659" s="32"/>
+    </row>
+    <row r="660" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K660" s="32"/>
+      <c r="L660" s="32"/>
+    </row>
+    <row r="661" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K661" s="32"/>
+      <c r="L661" s="32"/>
+    </row>
+    <row r="662" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K662" s="32"/>
+      <c r="L662" s="32"/>
+    </row>
+    <row r="663" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K663" s="32"/>
+      <c r="L663" s="32"/>
+    </row>
+    <row r="664" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K664" s="32"/>
+      <c r="L664" s="32"/>
+    </row>
+    <row r="665" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K665" s="32"/>
+      <c r="L665" s="32"/>
+    </row>
+    <row r="666" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K666" s="32"/>
+      <c r="L666" s="32"/>
+    </row>
+    <row r="667" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K667" s="32"/>
+      <c r="L667" s="32"/>
+    </row>
+    <row r="668" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K668" s="32"/>
+      <c r="L668" s="32"/>
+    </row>
+    <row r="669" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K669" s="32"/>
+      <c r="L669" s="32"/>
+    </row>
+    <row r="670" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K670" s="32"/>
+      <c r="L670" s="32"/>
+    </row>
+    <row r="671" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K671" s="32"/>
+      <c r="L671" s="32"/>
+    </row>
+    <row r="672" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K672" s="32"/>
+      <c r="L672" s="32"/>
+    </row>
+    <row r="673" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K673" s="32"/>
+      <c r="L673" s="32"/>
+    </row>
+    <row r="674" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K674" s="32"/>
+      <c r="L674" s="32"/>
+    </row>
+    <row r="675" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K675" s="32"/>
+      <c r="L675" s="32"/>
+    </row>
+    <row r="676" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K676" s="32"/>
+      <c r="L676" s="32"/>
+    </row>
+    <row r="677" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K677" s="32"/>
+      <c r="L677" s="32"/>
+    </row>
+    <row r="678" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K678" s="32"/>
+      <c r="L678" s="32"/>
+    </row>
+    <row r="679" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K679" s="32"/>
+      <c r="L679" s="32"/>
+    </row>
+    <row r="680" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K680" s="32"/>
+      <c r="L680" s="32"/>
+    </row>
+    <row r="681" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K681" s="32"/>
+      <c r="L681" s="32"/>
+    </row>
+    <row r="682" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K682" s="32"/>
+      <c r="L682" s="32"/>
+    </row>
+    <row r="683" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K683" s="32"/>
+      <c r="L683" s="32"/>
+    </row>
+    <row r="684" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K684" s="32"/>
+      <c r="L684" s="32"/>
+    </row>
+    <row r="685" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K685" s="32"/>
+      <c r="L685" s="32"/>
+    </row>
+    <row r="686" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K686" s="32"/>
+      <c r="L686" s="32"/>
+    </row>
+    <row r="687" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K687" s="32"/>
+      <c r="L687" s="32"/>
+    </row>
+    <row r="688" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K688" s="32"/>
+      <c r="L688" s="32"/>
+    </row>
+    <row r="689" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K689" s="32"/>
+      <c r="L689" s="32"/>
+    </row>
+    <row r="690" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K690" s="32"/>
+      <c r="L690" s="32"/>
+    </row>
+    <row r="691" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K691" s="32"/>
+      <c r="L691" s="32"/>
+    </row>
+    <row r="692" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K692" s="32"/>
+      <c r="L692" s="32"/>
+    </row>
+    <row r="693" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K693" s="32"/>
+      <c r="L693" s="32"/>
+    </row>
+    <row r="694" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K694" s="32"/>
+      <c r="L694" s="32"/>
+    </row>
+    <row r="695" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K695" s="32"/>
+      <c r="L695" s="32"/>
+    </row>
+    <row r="696" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K696" s="32"/>
+      <c r="L696" s="32"/>
+    </row>
+    <row r="697" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K697" s="32"/>
+      <c r="L697" s="32"/>
+    </row>
+    <row r="698" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K698" s="32"/>
+      <c r="L698" s="32"/>
+    </row>
+    <row r="699" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K699" s="32"/>
+      <c r="L699" s="32"/>
+    </row>
+    <row r="700" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K700" s="32"/>
+      <c r="L700" s="32"/>
+    </row>
+    <row r="701" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K701" s="32"/>
+      <c r="L701" s="32"/>
+    </row>
+    <row r="702" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K702" s="32"/>
+      <c r="L702" s="32"/>
+    </row>
+    <row r="703" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K703" s="32"/>
+      <c r="L703" s="32"/>
+    </row>
+    <row r="704" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K704" s="32"/>
+      <c r="L704" s="32"/>
+    </row>
+    <row r="705" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K705" s="32"/>
+      <c r="L705" s="32"/>
+    </row>
+    <row r="706" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K706" s="32"/>
+      <c r="L706" s="32"/>
+    </row>
+    <row r="707" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K707" s="32"/>
+      <c r="L707" s="32"/>
+    </row>
+    <row r="708" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K708" s="32"/>
+      <c r="L708" s="32"/>
+    </row>
+    <row r="709" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K709" s="32"/>
+      <c r="L709" s="32"/>
+    </row>
+    <row r="710" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K710" s="32"/>
+      <c r="L710" s="32"/>
+    </row>
+    <row r="711" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K711" s="32"/>
+      <c r="L711" s="32"/>
+    </row>
+    <row r="712" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K712" s="32"/>
+      <c r="L712" s="32"/>
+    </row>
+    <row r="713" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K713" s="32"/>
+      <c r="L713" s="32"/>
+    </row>
+    <row r="714" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K714" s="32"/>
+      <c r="L714" s="32"/>
+    </row>
+    <row r="715" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K715" s="32"/>
+      <c r="L715" s="32"/>
+    </row>
+    <row r="716" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K716" s="32"/>
+      <c r="L716" s="32"/>
+    </row>
+    <row r="717" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K717" s="32"/>
+      <c r="L717" s="32"/>
+    </row>
+    <row r="718" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K718" s="32"/>
+      <c r="L718" s="32"/>
+    </row>
+    <row r="719" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K719" s="32"/>
+      <c r="L719" s="32"/>
+    </row>
+    <row r="720" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K720" s="32"/>
+      <c r="L720" s="32"/>
+    </row>
+    <row r="721" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K721" s="32"/>
+      <c r="L721" s="32"/>
+    </row>
+    <row r="722" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K722" s="32"/>
+      <c r="L722" s="32"/>
+    </row>
+    <row r="723" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K723" s="32"/>
+      <c r="L723" s="32"/>
+    </row>
+    <row r="724" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K724" s="32"/>
+      <c r="L724" s="32"/>
+    </row>
+    <row r="725" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K725" s="32"/>
+      <c r="L725" s="32"/>
+    </row>
+    <row r="726" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K726" s="32"/>
+      <c r="L726" s="32"/>
+    </row>
+    <row r="727" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K727" s="32"/>
+      <c r="L727" s="32"/>
+    </row>
+    <row r="728" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K728" s="32"/>
+      <c r="L728" s="32"/>
+    </row>
+    <row r="729" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K729" s="32"/>
+      <c r="L729" s="32"/>
+    </row>
+    <row r="730" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K730" s="32"/>
+      <c r="L730" s="32"/>
+    </row>
+    <row r="731" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K731" s="32"/>
+      <c r="L731" s="32"/>
+    </row>
+    <row r="732" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K732" s="32"/>
+      <c r="L732" s="32"/>
+    </row>
+    <row r="733" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K733" s="32"/>
+      <c r="L733" s="32"/>
+    </row>
+    <row r="734" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K734" s="32"/>
+      <c r="L734" s="32"/>
+    </row>
+    <row r="735" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K735" s="32"/>
+      <c r="L735" s="32"/>
+    </row>
+    <row r="736" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K736" s="32"/>
+      <c r="L736" s="32"/>
+    </row>
+    <row r="737" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K737" s="32"/>
+      <c r="L737" s="32"/>
+    </row>
+    <row r="738" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K738" s="32"/>
+      <c r="L738" s="32"/>
+    </row>
+    <row r="739" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K739" s="32"/>
+      <c r="L739" s="32"/>
+    </row>
+    <row r="740" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K740" s="32"/>
+      <c r="L740" s="32"/>
+    </row>
+    <row r="741" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K741" s="32"/>
+      <c r="L741" s="32"/>
+    </row>
+    <row r="742" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K742" s="32"/>
+      <c r="L742" s="32"/>
+    </row>
+    <row r="743" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K743" s="32"/>
+      <c r="L743" s="32"/>
+    </row>
+    <row r="744" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K744" s="32"/>
+      <c r="L744" s="32"/>
+    </row>
+    <row r="745" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K745" s="32"/>
+      <c r="L745" s="32"/>
+    </row>
+    <row r="746" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K746" s="32"/>
+      <c r="L746" s="32"/>
+    </row>
+    <row r="747" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K747" s="32"/>
+      <c r="L747" s="32"/>
+    </row>
+    <row r="748" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K748" s="32"/>
+      <c r="L748" s="32"/>
+    </row>
+    <row r="749" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K749" s="32"/>
+      <c r="L749" s="32"/>
+    </row>
+    <row r="750" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K750" s="32"/>
+      <c r="L750" s="32"/>
+    </row>
+    <row r="751" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K751" s="32"/>
+      <c r="L751" s="32"/>
+    </row>
+    <row r="752" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K752" s="32"/>
+      <c r="L752" s="32"/>
+    </row>
+    <row r="753" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K753" s="32"/>
+      <c r="L753" s="32"/>
+    </row>
+    <row r="754" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K754" s="32"/>
+      <c r="L754" s="32"/>
+    </row>
+    <row r="755" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K755" s="32"/>
+      <c r="L755" s="32"/>
+    </row>
+    <row r="756" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K756" s="32"/>
+      <c r="L756" s="32"/>
+    </row>
+    <row r="757" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K757" s="32"/>
+      <c r="L757" s="32"/>
+    </row>
+    <row r="758" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K758" s="32"/>
+      <c r="L758" s="32"/>
+    </row>
+    <row r="759" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K759" s="32"/>
+      <c r="L759" s="32"/>
+    </row>
+    <row r="760" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K760" s="32"/>
+      <c r="L760" s="32"/>
+    </row>
+    <row r="761" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K761" s="32"/>
+      <c r="L761" s="32"/>
+    </row>
+    <row r="762" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K762" s="32"/>
+      <c r="L762" s="32"/>
+    </row>
+    <row r="763" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K763" s="32"/>
+      <c r="L763" s="32"/>
+    </row>
+    <row r="764" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K764" s="32"/>
+      <c r="L764" s="32"/>
+    </row>
+    <row r="765" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K765" s="32"/>
+      <c r="L765" s="32"/>
+    </row>
+    <row r="766" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K766" s="32"/>
+      <c r="L766" s="32"/>
+    </row>
+    <row r="767" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K767" s="32"/>
+      <c r="L767" s="32"/>
+    </row>
+    <row r="768" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K768" s="32"/>
+      <c r="L768" s="32"/>
+    </row>
+    <row r="769" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K769" s="32"/>
+      <c r="L769" s="32"/>
+    </row>
+    <row r="770" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K770" s="32"/>
+      <c r="L770" s="32"/>
+    </row>
+    <row r="771" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K771" s="32"/>
+      <c r="L771" s="32"/>
+    </row>
+    <row r="772" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K772" s="32"/>
+      <c r="L772" s="32"/>
+    </row>
+    <row r="773" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K773" s="32"/>
+      <c r="L773" s="32"/>
+    </row>
+    <row r="774" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K774" s="32"/>
+      <c r="L774" s="32"/>
+    </row>
+    <row r="775" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K775" s="32"/>
+      <c r="L775" s="32"/>
+    </row>
+    <row r="776" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K776" s="32"/>
+      <c r="L776" s="32"/>
+    </row>
+    <row r="777" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K777" s="32"/>
+      <c r="L777" s="32"/>
+    </row>
+    <row r="778" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K778" s="32"/>
+      <c r="L778" s="32"/>
+    </row>
+    <row r="779" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K779" s="32"/>
+      <c r="L779" s="32"/>
+    </row>
+    <row r="780" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K780" s="32"/>
+      <c r="L780" s="32"/>
+    </row>
+    <row r="781" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K781" s="32"/>
+      <c r="L781" s="32"/>
+    </row>
+    <row r="782" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K782" s="32"/>
+      <c r="L782" s="32"/>
+    </row>
+    <row r="783" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K783" s="32"/>
+      <c r="L783" s="32"/>
+    </row>
+    <row r="784" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K784" s="32"/>
+      <c r="L784" s="32"/>
+    </row>
+    <row r="785" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K785" s="32"/>
+      <c r="L785" s="32"/>
+    </row>
+    <row r="786" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K786" s="32"/>
+      <c r="L786" s="32"/>
+    </row>
+    <row r="787" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K787" s="32"/>
+      <c r="L787" s="32"/>
+    </row>
+    <row r="788" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K788" s="32"/>
+      <c r="L788" s="32"/>
+    </row>
+    <row r="789" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K789" s="32"/>
+      <c r="L789" s="32"/>
+    </row>
+    <row r="790" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K790" s="32"/>
+      <c r="L790" s="32"/>
+    </row>
+    <row r="791" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K791" s="32"/>
+      <c r="L791" s="32"/>
+    </row>
+    <row r="792" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K792" s="32"/>
+      <c r="L792" s="32"/>
+    </row>
+    <row r="793" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K793" s="32"/>
+      <c r="L793" s="32"/>
+    </row>
+    <row r="794" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K794" s="32"/>
+      <c r="L794" s="32"/>
+    </row>
+    <row r="795" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K795" s="32"/>
+      <c r="L795" s="32"/>
+    </row>
+    <row r="796" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K796" s="32"/>
+      <c r="L796" s="32"/>
+    </row>
+    <row r="797" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K797" s="32"/>
+      <c r="L797" s="32"/>
+    </row>
+    <row r="798" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K798" s="32"/>
+      <c r="L798" s="32"/>
+    </row>
+    <row r="799" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K799" s="32"/>
+      <c r="L799" s="32"/>
+    </row>
+    <row r="800" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K800" s="32"/>
+      <c r="L800" s="32"/>
+    </row>
+    <row r="801" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K801" s="32"/>
+      <c r="L801" s="32"/>
+    </row>
+    <row r="802" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K802" s="32"/>
+      <c r="L802" s="32"/>
+    </row>
+    <row r="803" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K803" s="32"/>
+      <c r="L803" s="32"/>
+    </row>
+    <row r="804" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K804" s="32"/>
+      <c r="L804" s="32"/>
+    </row>
+    <row r="805" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K805" s="32"/>
+      <c r="L805" s="32"/>
+    </row>
+    <row r="806" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K806" s="32"/>
+      <c r="L806" s="32"/>
+    </row>
+    <row r="807" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K807" s="32"/>
+      <c r="L807" s="32"/>
+    </row>
+    <row r="808" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K808" s="32"/>
+      <c r="L808" s="32"/>
+    </row>
+    <row r="809" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K809" s="32"/>
+      <c r="L809" s="32"/>
+    </row>
+    <row r="810" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K810" s="32"/>
+      <c r="L810" s="32"/>
+    </row>
+    <row r="811" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K811" s="32"/>
+      <c r="L811" s="32"/>
+    </row>
+    <row r="812" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K812" s="32"/>
+      <c r="L812" s="32"/>
+    </row>
+    <row r="813" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K813" s="32"/>
+      <c r="L813" s="32"/>
+    </row>
+    <row r="814" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K814" s="32"/>
+      <c r="L814" s="32"/>
+    </row>
+    <row r="815" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K815" s="32"/>
+      <c r="L815" s="32"/>
+    </row>
+    <row r="816" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K816" s="32"/>
+      <c r="L816" s="32"/>
+    </row>
+    <row r="817" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K817" s="32"/>
+      <c r="L817" s="32"/>
+    </row>
+    <row r="818" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K818" s="32"/>
+      <c r="L818" s="32"/>
+    </row>
+    <row r="819" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K819" s="32"/>
+      <c r="L819" s="32"/>
+    </row>
+    <row r="820" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K820" s="32"/>
+      <c r="L820" s="32"/>
+    </row>
+    <row r="821" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K821" s="32"/>
+      <c r="L821" s="32"/>
+    </row>
+    <row r="822" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K822" s="32"/>
+      <c r="L822" s="32"/>
+    </row>
+    <row r="823" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K823" s="32"/>
+      <c r="L823" s="32"/>
+    </row>
+    <row r="824" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K824" s="32"/>
+      <c r="L824" s="32"/>
+    </row>
+    <row r="825" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K825" s="32"/>
+      <c r="L825" s="32"/>
+    </row>
+    <row r="826" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K826" s="32"/>
+      <c r="L826" s="32"/>
+    </row>
+    <row r="827" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K827" s="32"/>
+      <c r="L827" s="32"/>
+    </row>
+    <row r="828" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K828" s="32"/>
+      <c r="L828" s="32"/>
+    </row>
+    <row r="829" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K829" s="32"/>
+      <c r="L829" s="32"/>
+    </row>
+    <row r="830" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K830" s="32"/>
+      <c r="L830" s="32"/>
+    </row>
+    <row r="831" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K831" s="32"/>
+      <c r="L831" s="32"/>
+    </row>
+    <row r="832" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K832" s="32"/>
+      <c r="L832" s="32"/>
+    </row>
+    <row r="833" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K833" s="32"/>
+      <c r="L833" s="32"/>
+    </row>
+    <row r="834" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K834" s="32"/>
+      <c r="L834" s="32"/>
+    </row>
+    <row r="835" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K835" s="32"/>
+      <c r="L835" s="32"/>
+    </row>
+    <row r="836" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K836" s="32"/>
+      <c r="L836" s="32"/>
+    </row>
+    <row r="837" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K837" s="32"/>
+      <c r="L837" s="32"/>
+    </row>
+    <row r="838" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K838" s="32"/>
+      <c r="L838" s="32"/>
+    </row>
+    <row r="839" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K839" s="32"/>
+      <c r="L839" s="32"/>
+    </row>
+    <row r="840" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K840" s="32"/>
+      <c r="L840" s="32"/>
+    </row>
+    <row r="841" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K841" s="32"/>
+      <c r="L841" s="32"/>
+    </row>
+    <row r="842" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K842" s="32"/>
+      <c r="L842" s="32"/>
+    </row>
+    <row r="843" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K843" s="32"/>
+      <c r="L843" s="32"/>
+    </row>
+    <row r="844" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K844" s="32"/>
+      <c r="L844" s="32"/>
+    </row>
+    <row r="845" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K845" s="32"/>
+      <c r="L845" s="32"/>
+    </row>
+    <row r="846" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K846" s="32"/>
+      <c r="L846" s="32"/>
+    </row>
+    <row r="847" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K847" s="32"/>
+      <c r="L847" s="32"/>
+    </row>
+    <row r="848" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K848" s="32"/>
+      <c r="L848" s="32"/>
+    </row>
+    <row r="849" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K849" s="32"/>
+      <c r="L849" s="32"/>
+    </row>
+    <row r="850" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K850" s="32"/>
+      <c r="L850" s="32"/>
+    </row>
+    <row r="851" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K851" s="32"/>
+      <c r="L851" s="32"/>
+    </row>
+    <row r="852" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K852" s="32"/>
+      <c r="L852" s="32"/>
+    </row>
+    <row r="853" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K853" s="32"/>
+      <c r="L853" s="32"/>
+    </row>
+    <row r="854" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K854" s="32"/>
+      <c r="L854" s="32"/>
+    </row>
+    <row r="855" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K855" s="32"/>
+      <c r="L855" s="32"/>
+    </row>
+    <row r="856" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K856" s="32"/>
+      <c r="L856" s="32"/>
+    </row>
+    <row r="857" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K857" s="32"/>
+      <c r="L857" s="32"/>
+    </row>
+    <row r="858" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K858" s="32"/>
+      <c r="L858" s="32"/>
+    </row>
+    <row r="859" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K859" s="32"/>
+      <c r="L859" s="32"/>
+    </row>
+    <row r="860" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K860" s="32"/>
+      <c r="L860" s="32"/>
+    </row>
+    <row r="861" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K861" s="32"/>
+      <c r="L861" s="32"/>
+    </row>
+    <row r="862" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K862" s="32"/>
+      <c r="L862" s="32"/>
+    </row>
+    <row r="863" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K863" s="32"/>
+      <c r="L863" s="32"/>
+    </row>
+    <row r="864" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K864" s="32"/>
+      <c r="L864" s="32"/>
+    </row>
+    <row r="865" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K865" s="32"/>
+      <c r="L865" s="32"/>
+    </row>
+    <row r="866" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K866" s="32"/>
+      <c r="L866" s="32"/>
+    </row>
+    <row r="867" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K867" s="32"/>
+      <c r="L867" s="32"/>
+    </row>
+    <row r="868" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K868" s="32"/>
+      <c r="L868" s="32"/>
+    </row>
+    <row r="869" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K869" s="32"/>
+      <c r="L869" s="32"/>
+    </row>
+    <row r="870" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K870" s="32"/>
+      <c r="L870" s="32"/>
+    </row>
+    <row r="871" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K871" s="32"/>
+      <c r="L871" s="32"/>
+    </row>
+    <row r="872" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K872" s="32"/>
+      <c r="L872" s="32"/>
+    </row>
+    <row r="873" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K873" s="32"/>
+      <c r="L873" s="32"/>
+    </row>
+    <row r="874" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K874" s="32"/>
+      <c r="L874" s="32"/>
+    </row>
+    <row r="875" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K875" s="32"/>
+      <c r="L875" s="32"/>
+    </row>
+    <row r="876" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K876" s="32"/>
+      <c r="L876" s="32"/>
+    </row>
+    <row r="877" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K877" s="32"/>
+      <c r="L877" s="32"/>
+    </row>
+    <row r="878" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K878" s="32"/>
+      <c r="L878" s="32"/>
+    </row>
+    <row r="879" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K879" s="32"/>
+      <c r="L879" s="32"/>
+    </row>
+    <row r="880" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K880" s="32"/>
+      <c r="L880" s="32"/>
+    </row>
+    <row r="881" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K881" s="32"/>
+      <c r="L881" s="32"/>
+    </row>
+    <row r="882" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K882" s="32"/>
+      <c r="L882" s="32"/>
+    </row>
+    <row r="883" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K883" s="32"/>
+      <c r="L883" s="32"/>
+    </row>
+    <row r="884" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K884" s="32"/>
+      <c r="L884" s="32"/>
+    </row>
+    <row r="885" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K885" s="32"/>
+      <c r="L885" s="32"/>
+    </row>
+    <row r="886" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K886" s="32"/>
+      <c r="L886" s="32"/>
+    </row>
+    <row r="887" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K887" s="32"/>
+      <c r="L887" s="32"/>
+    </row>
+    <row r="888" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K888" s="32"/>
+      <c r="L888" s="32"/>
+    </row>
+    <row r="889" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K889" s="32"/>
+      <c r="L889" s="32"/>
+    </row>
+    <row r="890" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K890" s="32"/>
+      <c r="L890" s="32"/>
+    </row>
+    <row r="891" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K891" s="32"/>
+      <c r="L891" s="32"/>
+    </row>
+    <row r="892" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K892" s="32"/>
+      <c r="L892" s="32"/>
+    </row>
+    <row r="893" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K893" s="32"/>
+      <c r="L893" s="32"/>
+    </row>
+    <row r="894" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K894" s="32"/>
+      <c r="L894" s="32"/>
+    </row>
+    <row r="895" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K895" s="32"/>
+      <c r="L895" s="32"/>
+    </row>
+    <row r="896" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K896" s="32"/>
+      <c r="L896" s="32"/>
+    </row>
+    <row r="897" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K897" s="32"/>
+      <c r="L897" s="32"/>
+    </row>
+    <row r="898" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K898" s="32"/>
+      <c r="L898" s="32"/>
+    </row>
+    <row r="899" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K899" s="32"/>
+      <c r="L899" s="32"/>
+    </row>
+    <row r="900" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K900" s="32"/>
+      <c r="L900" s="32"/>
+    </row>
+    <row r="901" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K901" s="32"/>
+      <c r="L901" s="32"/>
+    </row>
+    <row r="902" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K902" s="32"/>
+      <c r="L902" s="32"/>
+    </row>
+    <row r="903" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K903" s="32"/>
+      <c r="L903" s="32"/>
+    </row>
+    <row r="904" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K904" s="32"/>
+      <c r="L904" s="32"/>
+    </row>
+    <row r="905" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K905" s="32"/>
+      <c r="L905" s="32"/>
+    </row>
+    <row r="906" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K906" s="32"/>
+      <c r="L906" s="32"/>
+    </row>
+    <row r="907" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K907" s="32"/>
+      <c r="L907" s="32"/>
+    </row>
+    <row r="908" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K908" s="32"/>
+      <c r="L908" s="32"/>
+    </row>
+    <row r="909" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K909" s="32"/>
+      <c r="L909" s="32"/>
+    </row>
+    <row r="910" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K910" s="32"/>
+      <c r="L910" s="32"/>
+    </row>
+    <row r="911" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K911" s="32"/>
+      <c r="L911" s="32"/>
+    </row>
+    <row r="912" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K912" s="32"/>
+      <c r="L912" s="32"/>
+    </row>
+    <row r="913" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K913" s="32"/>
+      <c r="L913" s="32"/>
+    </row>
+    <row r="914" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K914" s="32"/>
+      <c r="L914" s="32"/>
+    </row>
+    <row r="915" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K915" s="32"/>
+      <c r="L915" s="32"/>
+    </row>
+    <row r="916" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K916" s="32"/>
+      <c r="L916" s="32"/>
+    </row>
+    <row r="917" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K917" s="32"/>
+      <c r="L917" s="32"/>
+    </row>
+    <row r="918" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K918" s="32"/>
+      <c r="L918" s="32"/>
+    </row>
+    <row r="919" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K919" s="32"/>
+      <c r="L919" s="32"/>
+    </row>
+    <row r="920" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K920" s="32"/>
+      <c r="L920" s="32"/>
+    </row>
+    <row r="921" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K921" s="32"/>
+      <c r="L921" s="32"/>
+    </row>
+    <row r="922" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K922" s="32"/>
+      <c r="L922" s="32"/>
+    </row>
+    <row r="923" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K923" s="32"/>
+      <c r="L923" s="32"/>
+    </row>
+    <row r="924" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K924" s="32"/>
+      <c r="L924" s="32"/>
+    </row>
+    <row r="925" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K925" s="32"/>
+      <c r="L925" s="32"/>
+    </row>
+    <row r="926" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K926" s="32"/>
+      <c r="L926" s="32"/>
+    </row>
+    <row r="927" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K927" s="32"/>
+      <c r="L927" s="32"/>
+    </row>
+    <row r="928" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K928" s="32"/>
+      <c r="L928" s="32"/>
+    </row>
+    <row r="929" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K929" s="32"/>
+      <c r="L929" s="32"/>
+    </row>
+    <row r="930" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K930" s="32"/>
+      <c r="L930" s="32"/>
+    </row>
+    <row r="931" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K931" s="32"/>
+      <c r="L931" s="32"/>
+    </row>
+    <row r="932" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K932" s="32"/>
+      <c r="L932" s="32"/>
+    </row>
+    <row r="933" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K933" s="32"/>
+      <c r="L933" s="32"/>
+    </row>
+    <row r="934" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K934" s="32"/>
+      <c r="L934" s="32"/>
+    </row>
+    <row r="935" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K935" s="32"/>
+      <c r="L935" s="32"/>
+    </row>
+    <row r="936" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K936" s="32"/>
+      <c r="L936" s="32"/>
+    </row>
+    <row r="937" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K937" s="32"/>
+      <c r="L937" s="32"/>
+    </row>
+    <row r="938" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K938" s="32"/>
+      <c r="L938" s="32"/>
+    </row>
+    <row r="939" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K939" s="32"/>
+      <c r="L939" s="32"/>
+    </row>
+    <row r="940" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K940" s="32"/>
+      <c r="L940" s="32"/>
+    </row>
+    <row r="941" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K941" s="32"/>
+      <c r="L941" s="32"/>
+    </row>
+    <row r="942" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K942" s="32"/>
+      <c r="L942" s="32"/>
+    </row>
+    <row r="943" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K943" s="32"/>
+      <c r="L943" s="32"/>
+    </row>
+    <row r="944" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K944" s="32"/>
+      <c r="L944" s="32"/>
+    </row>
+    <row r="945" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K945" s="32"/>
+      <c r="L945" s="32"/>
+    </row>
+    <row r="946" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K946" s="32"/>
+      <c r="L946" s="32"/>
+    </row>
+    <row r="947" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K947" s="32"/>
+      <c r="L947" s="32"/>
+    </row>
+    <row r="948" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K948" s="32"/>
+      <c r="L948" s="32"/>
+    </row>
+    <row r="949" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K949" s="32"/>
+      <c r="L949" s="32"/>
+    </row>
+    <row r="950" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K950" s="32"/>
+      <c r="L950" s="32"/>
+    </row>
+    <row r="951" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K951" s="32"/>
+      <c r="L951" s="32"/>
+    </row>
+    <row r="952" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K952" s="32"/>
+      <c r="L952" s="32"/>
+    </row>
+    <row r="953" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K953" s="32"/>
+      <c r="L953" s="32"/>
+    </row>
+    <row r="954" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K954" s="32"/>
+      <c r="L954" s="32"/>
+    </row>
+    <row r="955" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K955" s="32"/>
+      <c r="L955" s="32"/>
+    </row>
+    <row r="956" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K956" s="32"/>
+      <c r="L956" s="32"/>
+    </row>
+    <row r="957" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K957" s="32"/>
+      <c r="L957" s="32"/>
+    </row>
+    <row r="958" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K958" s="32"/>
+      <c r="L958" s="32"/>
+    </row>
+    <row r="959" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K959" s="32"/>
+      <c r="L959" s="32"/>
+    </row>
+    <row r="960" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K960" s="32"/>
+      <c r="L960" s="32"/>
+    </row>
+    <row r="961" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K961" s="32"/>
+      <c r="L961" s="32"/>
+    </row>
+    <row r="962" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K962" s="32"/>
+      <c r="L962" s="32"/>
+    </row>
+    <row r="963" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K963" s="32"/>
+      <c r="L963" s="32"/>
+    </row>
+    <row r="964" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K964" s="32"/>
+      <c r="L964" s="32"/>
+    </row>
+    <row r="965" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K965" s="32"/>
+      <c r="L965" s="32"/>
+    </row>
+    <row r="966" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K966" s="32"/>
+      <c r="L966" s="32"/>
+    </row>
+    <row r="967" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K967" s="32"/>
+      <c r="L967" s="32"/>
+    </row>
+    <row r="968" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K968" s="32"/>
+      <c r="L968" s="32"/>
+    </row>
+    <row r="969" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K969" s="32"/>
+      <c r="L969" s="32"/>
+    </row>
+    <row r="970" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K970" s="32"/>
+      <c r="L970" s="32"/>
+    </row>
+    <row r="971" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K971" s="32"/>
+      <c r="L971" s="32"/>
+    </row>
+    <row r="972" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K972" s="32"/>
+      <c r="L972" s="32"/>
+    </row>
+    <row r="973" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K973" s="32"/>
+      <c r="L973" s="32"/>
+    </row>
+    <row r="974" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K974" s="32"/>
+      <c r="L974" s="32"/>
+    </row>
+    <row r="975" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K975" s="32"/>
+      <c r="L975" s="32"/>
+    </row>
+    <row r="976" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K976" s="32"/>
+      <c r="L976" s="32"/>
+    </row>
+    <row r="977" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K977" s="32"/>
+      <c r="L977" s="32"/>
+    </row>
+    <row r="978" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K978" s="32"/>
+      <c r="L978" s="32"/>
+    </row>
+    <row r="979" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K979" s="32"/>
+      <c r="L979" s="32"/>
+    </row>
+    <row r="980" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K980" s="32"/>
+      <c r="L980" s="32"/>
+    </row>
+    <row r="981" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K981" s="32"/>
+      <c r="L981" s="32"/>
+    </row>
+    <row r="982" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K982" s="32"/>
+      <c r="L982" s="32"/>
+    </row>
+    <row r="983" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K983" s="32"/>
+      <c r="L983" s="32"/>
+    </row>
+    <row r="984" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K984" s="32"/>
+      <c r="L984" s="32"/>
+    </row>
+    <row r="985" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K985" s="32"/>
+      <c r="L985" s="32"/>
+    </row>
+    <row r="986" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K986" s="32"/>
+      <c r="L986" s="32"/>
+    </row>
+    <row r="987" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K987" s="32"/>
+      <c r="L987" s="32"/>
+    </row>
+    <row r="988" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K988" s="32"/>
+      <c r="L988" s="32"/>
+    </row>
+    <row r="989" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K989" s="32"/>
+      <c r="L989" s="32"/>
+    </row>
+    <row r="990" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K990" s="32"/>
+      <c r="L990" s="32"/>
+    </row>
+    <row r="991" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K991" s="32"/>
+      <c r="L991" s="32"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
+++ b/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="302">
   <si>
     <t>Rule element ID</t>
   </si>
@@ -287,9 +287,6 @@
     <t>Equity Components [Axis]</t>
   </si>
   <si>
-    <t>WarrantsNotSettleableInCashMember, ContingentConsiderationClassifiedAsEquityMember, EquityIssuedInBusinessCombinationMember, TrustForBenefitOfEmployeesMember</t>
-  </si>
-  <si>
     <t>DQC_0001.76</t>
   </si>
   <si>
@@ -902,9 +899,6 @@
     <t>Customer [Axis]</t>
   </si>
   <si>
-    <t>Release Adopted</t>
-  </si>
-  <si>
     <t>Taxonomy Added</t>
   </si>
   <si>
@@ -921,6 +915,15 @@
   </si>
   <si>
     <t>Hotel [Member]</t>
+  </si>
+  <si>
+    <t>Release Adopted &amp; Updated</t>
+  </si>
+  <si>
+    <t>3,6</t>
+  </si>
+  <si>
+    <t>Before 2018: WarrantsNotSettleableInCashMember, ContingentConsiderationClassifiedAsEquityMember, EquityIssuedInBusinessCombinationMember, TrustForBenefitOfEmployeesMember; Added For 2018: AccumulatedNetGainLossFromCashFlowHedgesIncludingPortionAttributableToNoncontrollingInterestMember, AccumulatedNetGainLossFromDesignatedOrQualifyingCashFlowHedgesMember, AccumulatedNetGainLossFromCashFlowHedgesAttributableToNoncontrollingInterestMember</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1040,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1085,11 +1088,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1178,11 +1205,20 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1483,8 +1519,8 @@
   </sheetPr>
   <dimension ref="A1:AD991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1496,12 +1532,12 @@
     <col min="5" max="5" width="58.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="46.85546875" customWidth="1"/>
-    <col min="8" max="8" width="32.5703125" customWidth="1"/>
+    <col min="8" max="8" width="33.7109375" customWidth="1"/>
     <col min="10" max="10" width="54.85546875" customWidth="1"/>
     <col min="11" max="12" width="14.42578125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.5">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="44.25" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1532,11 +1568,11 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>295</v>
+      <c r="K1" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>293</v>
       </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -1583,7 +1619,7 @@
       <c r="J2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="31">
+      <c r="K2" s="36">
         <v>3</v>
       </c>
       <c r="L2" s="32"/>
@@ -1613,7 +1649,7 @@
         <v>21</v>
       </c>
       <c r="J3" s="10"/>
-      <c r="K3" s="31">
+      <c r="K3" s="37">
         <v>3</v>
       </c>
       <c r="L3" s="32"/>
@@ -1643,7 +1679,7 @@
         <v>15</v>
       </c>
       <c r="J4" s="10"/>
-      <c r="K4" s="31">
+      <c r="K4" s="37">
         <v>3</v>
       </c>
       <c r="L4" s="32"/>
@@ -1677,7 +1713,7 @@
         <v>15</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="31">
+      <c r="K5" s="37">
         <v>3</v>
       </c>
       <c r="L5" s="32"/>
@@ -1707,7 +1743,7 @@
         <v>15</v>
       </c>
       <c r="J6" s="10"/>
-      <c r="K6" s="31">
+      <c r="K6" s="37">
         <v>3</v>
       </c>
       <c r="L6" s="32"/>
@@ -1737,8 +1773,8 @@
         <v>15</v>
       </c>
       <c r="J7" s="10"/>
-      <c r="K7" s="31">
-        <v>3</v>
+      <c r="K7" s="38" t="s">
+        <v>300</v>
       </c>
       <c r="L7" s="32"/>
     </row>
@@ -1769,8 +1805,8 @@
         <v>15</v>
       </c>
       <c r="J8" s="10"/>
-      <c r="K8" s="31">
-        <v>3</v>
+      <c r="K8" s="38" t="s">
+        <v>300</v>
       </c>
       <c r="L8" s="32"/>
       <c r="M8" s="10"/>
@@ -1808,7 +1844,7 @@
         <v>15</v>
       </c>
       <c r="J9" s="10"/>
-      <c r="K9" s="31">
+      <c r="K9" s="37">
         <v>3</v>
       </c>
       <c r="L9" s="32"/>
@@ -1838,7 +1874,7 @@
         <v>15</v>
       </c>
       <c r="J10" s="10"/>
-      <c r="K10" s="31">
+      <c r="K10" s="37">
         <v>3</v>
       </c>
       <c r="L10" s="32"/>
@@ -1870,8 +1906,8 @@
       <c r="J11" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="31">
-        <v>3</v>
+      <c r="K11" s="38" t="s">
+        <v>300</v>
       </c>
       <c r="L11" s="32"/>
     </row>
@@ -1902,7 +1938,7 @@
       <c r="J12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="37">
         <v>3</v>
       </c>
       <c r="L12" s="32"/>
@@ -1932,7 +1968,7 @@
         <v>21</v>
       </c>
       <c r="J13" s="10"/>
-      <c r="K13" s="31">
+      <c r="K13" s="37">
         <v>3</v>
       </c>
       <c r="L13" s="32"/>
@@ -1962,7 +1998,7 @@
         <v>21</v>
       </c>
       <c r="J14" s="10"/>
-      <c r="K14" s="31">
+      <c r="K14" s="37">
         <v>3</v>
       </c>
       <c r="L14" s="32"/>
@@ -1994,7 +2030,7 @@
       <c r="J15" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="31">
+      <c r="K15" s="37">
         <v>3</v>
       </c>
       <c r="L15" s="32"/>
@@ -2022,14 +2058,14 @@
         <v>71</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J16" s="10"/>
-      <c r="K16" s="31">
-        <v>3</v>
+      <c r="K16" s="38" t="s">
+        <v>300</v>
       </c>
       <c r="L16" s="32"/>
     </row>
@@ -2060,8 +2096,8 @@
       <c r="J17" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="31">
-        <v>3</v>
+      <c r="K17" s="38" t="s">
+        <v>300</v>
       </c>
       <c r="L17" s="32"/>
     </row>
@@ -2092,7 +2128,7 @@
         <v>15</v>
       </c>
       <c r="J18" s="10"/>
-      <c r="K18" s="31">
+      <c r="K18" s="37">
         <v>3</v>
       </c>
       <c r="L18" s="32"/>
@@ -2122,7 +2158,7 @@
         <v>15</v>
       </c>
       <c r="J19" s="10"/>
-      <c r="K19" s="31">
+      <c r="K19" s="37">
         <v>3</v>
       </c>
       <c r="L19" s="32"/>
@@ -2152,12 +2188,12 @@
         <v>21</v>
       </c>
       <c r="J20" s="10"/>
-      <c r="K20" s="31">
+      <c r="K20" s="37">
         <v>3</v>
       </c>
       <c r="L20" s="32"/>
     </row>
-    <row r="21" spans="1:30" s="24" customFormat="1" ht="72">
+    <row r="21" spans="1:30" s="24" customFormat="1" ht="204">
       <c r="A21" s="29" t="s">
         <v>86</v>
       </c>
@@ -2177,21 +2213,21 @@
         <v>15</v>
       </c>
       <c r="G21" s="30"/>
-      <c r="H21" s="30" t="s">
-        <v>89</v>
+      <c r="H21" s="31" t="s">
+        <v>301</v>
       </c>
       <c r="I21" s="29" t="s">
         <v>15</v>
       </c>
       <c r="J21" s="29"/>
-      <c r="K21" s="31">
-        <v>3</v>
+      <c r="K21" s="38" t="s">
+        <v>300</v>
       </c>
       <c r="L21" s="32"/>
     </row>
     <row r="22" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A22" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" s="29" t="s">
         <v>11</v>
@@ -2200,10 +2236,10 @@
         <v>12</v>
       </c>
       <c r="D22" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>91</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>92</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>15</v>
@@ -2214,14 +2250,14 @@
         <v>15</v>
       </c>
       <c r="J22" s="29"/>
-      <c r="K22" s="31">
+      <c r="K22" s="37">
         <v>3</v>
       </c>
       <c r="L22" s="32"/>
     </row>
     <row r="23" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A23" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" s="29" t="s">
         <v>11</v>
@@ -2230,10 +2266,10 @@
         <v>36</v>
       </c>
       <c r="D23" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="29" t="s">
         <v>94</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>95</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>15</v>
@@ -2244,14 +2280,14 @@
         <v>21</v>
       </c>
       <c r="J23" s="29"/>
-      <c r="K23" s="31">
-        <v>3</v>
+      <c r="K23" s="38" t="s">
+        <v>300</v>
       </c>
       <c r="L23" s="32"/>
     </row>
     <row r="24" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A24" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B24" s="31" t="s">
         <v>11</v>
@@ -2260,10 +2296,10 @@
         <v>12</v>
       </c>
       <c r="D24" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="E24" s="31" t="s">
         <v>282</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>283</v>
       </c>
       <c r="F24" s="31" t="s">
         <v>25</v>
@@ -2274,7 +2310,7 @@
         <v>15</v>
       </c>
       <c r="J24" s="31"/>
-      <c r="K24" s="31">
+      <c r="K24" s="37">
         <v>7</v>
       </c>
       <c r="L24" s="32"/>
@@ -2299,7 +2335,7 @@
     </row>
     <row r="25" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A25" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B25" s="31" t="s">
         <v>11</v>
@@ -2308,10 +2344,10 @@
         <v>12</v>
       </c>
       <c r="D25" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="E25" s="31" t="s">
         <v>285</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>286</v>
       </c>
       <c r="F25" s="31" t="s">
         <v>25</v>
@@ -2322,7 +2358,7 @@
         <v>15</v>
       </c>
       <c r="J25" s="31"/>
-      <c r="K25" s="31">
+      <c r="K25" s="37">
         <v>7</v>
       </c>
       <c r="L25" s="31">
@@ -2349,19 +2385,19 @@
     </row>
     <row r="26" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A26" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B26" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="D26" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="E26" s="31" t="s">
         <v>289</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>290</v>
       </c>
       <c r="F26" s="31" t="s">
         <v>25</v>
@@ -2372,7 +2408,7 @@
         <v>15</v>
       </c>
       <c r="J26" s="31"/>
-      <c r="K26" s="31">
+      <c r="K26" s="37">
         <v>7</v>
       </c>
       <c r="L26" s="31">
@@ -2399,19 +2435,19 @@
     </row>
     <row r="27" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A27" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B27" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D27" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="E27" s="31" t="s">
         <v>292</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>293</v>
       </c>
       <c r="F27" s="31" t="s">
         <v>25</v>
@@ -2422,7 +2458,7 @@
         <v>15</v>
       </c>
       <c r="J27" s="31"/>
-      <c r="K27" s="31">
+      <c r="K27" s="37">
         <v>7</v>
       </c>
       <c r="L27" s="32"/>
@@ -2512,7 +2548,7 @@
     </row>
     <row r="32" spans="1:30" s="11" customFormat="1" ht="16.5">
       <c r="A32" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -2546,7 +2582,7 @@
     </row>
     <row r="33" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A33" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -2557,259 +2593,259 @@
         <v>2</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
     <row r="34" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A34" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A35" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
     <row r="36" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A36" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K36" s="32"/>
       <c r="L36" s="32"/>
     </row>
     <row r="37" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A37" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K37" s="32"/>
       <c r="L37" s="32"/>
     </row>
     <row r="38" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A38" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K38" s="32"/>
       <c r="L38" s="32"/>
     </row>
     <row r="39" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A39" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K39" s="32"/>
       <c r="L39" s="32"/>
     </row>
     <row r="40" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A40" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
     <row r="41" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A41" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
     <row r="42" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A42" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K42" s="32"/>
       <c r="L42" s="32"/>
     </row>
     <row r="43" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A43" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K43" s="32"/>
       <c r="L43" s="32"/>
     </row>
     <row r="44" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A44" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K44" s="32"/>
       <c r="L44" s="32"/>
     </row>
     <row r="45" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A45" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K45" s="32"/>
       <c r="L45" s="32"/>
     </row>
     <row r="46" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A46" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K46" s="32"/>
       <c r="L46" s="32"/>
     </row>
     <row r="47" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A47" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K47" s="32"/>
       <c r="L47" s="32"/>
@@ -2820,14 +2856,14 @@
     </row>
     <row r="49" spans="1:12" s="11" customFormat="1" ht="16.5">
       <c r="A49" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K49" s="32"/>
       <c r="L49" s="32"/>
     </row>
     <row r="50" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A50" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -2838,159 +2874,159 @@
         <v>2</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
     </row>
     <row r="51" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A51" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="F51" s="10" t="s">
         <v>144</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>145</v>
       </c>
       <c r="K51" s="32"/>
       <c r="L51" s="32"/>
     </row>
     <row r="52" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A52" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>148</v>
       </c>
       <c r="K52" s="32"/>
       <c r="L52" s="32"/>
     </row>
     <row r="53" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A53" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>151</v>
       </c>
       <c r="K53" s="32"/>
       <c r="L53" s="32"/>
     </row>
     <row r="54" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A54" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F54" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="K54" s="32"/>
       <c r="L54" s="32"/>
     </row>
     <row r="55" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A55" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="E55" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" s="21" t="s">
         <v>156</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>157</v>
       </c>
       <c r="K55" s="32"/>
       <c r="L55" s="32"/>
     </row>
     <row r="56" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A56" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="E56" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="21" t="s">
         <v>159</v>
-      </c>
-      <c r="E56" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F56" s="21" t="s">
-        <v>160</v>
       </c>
       <c r="K56" s="32"/>
       <c r="L56" s="32"/>
     </row>
     <row r="57" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A57" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="E57" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" s="21" t="s">
         <v>162</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>163</v>
       </c>
       <c r="K57" s="32"/>
       <c r="L57" s="32"/>
     </row>
     <row r="58" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A58" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="E58" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58" s="21" t="s">
         <v>165</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>166</v>
       </c>
       <c r="K58" s="32"/>
       <c r="L58" s="32"/>
     </row>
     <row r="59" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A59" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="E59" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F59" s="21" t="s">
         <v>168</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F59" s="21" t="s">
-        <v>169</v>
       </c>
       <c r="K59" s="32"/>
       <c r="L59" s="32"/>
@@ -3002,14 +3038,14 @@
     </row>
     <row r="61" spans="1:12" s="11" customFormat="1" ht="16.5">
       <c r="A61" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K61" s="32"/>
       <c r="L61" s="32"/>
     </row>
     <row r="62" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A62" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
@@ -3020,495 +3056,495 @@
         <v>2</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K62" s="32"/>
       <c r="L62" s="32"/>
     </row>
     <row r="63" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A63" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K63" s="32"/>
       <c r="L63" s="32"/>
     </row>
     <row r="64" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A64" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K64" s="32"/>
       <c r="L64" s="32"/>
     </row>
     <row r="65" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A65" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K65" s="32"/>
       <c r="L65" s="32"/>
     </row>
     <row r="66" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A66" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K66" s="32"/>
       <c r="L66" s="32"/>
     </row>
     <row r="67" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A67" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K67" s="32"/>
       <c r="L67" s="32"/>
     </row>
     <row r="68" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A68" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K68" s="32"/>
       <c r="L68" s="32"/>
     </row>
     <row r="69" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A69" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K69" s="32"/>
       <c r="L69" s="32"/>
     </row>
     <row r="70" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A70" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K70" s="32"/>
       <c r="L70" s="32"/>
     </row>
     <row r="71" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A71" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K71" s="32"/>
       <c r="L71" s="32"/>
     </row>
     <row r="72" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A72" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K72" s="32"/>
       <c r="L72" s="32"/>
     </row>
     <row r="73" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A73" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K73" s="32"/>
       <c r="L73" s="32"/>
     </row>
     <row r="74" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A74" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K74" s="32"/>
       <c r="L74" s="32"/>
     </row>
     <row r="75" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A75" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K75" s="32"/>
       <c r="L75" s="32"/>
     </row>
     <row r="76" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A76" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K76" s="32"/>
       <c r="L76" s="32"/>
     </row>
     <row r="77" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A77" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K77" s="32"/>
       <c r="L77" s="32"/>
     </row>
     <row r="78" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A78" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K78" s="32"/>
       <c r="L78" s="32"/>
     </row>
     <row r="79" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A79" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K79" s="32"/>
       <c r="L79" s="32"/>
     </row>
     <row r="80" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A80" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K80" s="32"/>
       <c r="L80" s="32"/>
     </row>
     <row r="81" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A81" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K81" s="32"/>
       <c r="L81" s="32"/>
     </row>
     <row r="82" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A82" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K82" s="32"/>
       <c r="L82" s="32"/>
     </row>
     <row r="83" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A83" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K83" s="32"/>
       <c r="L83" s="32"/>
     </row>
     <row r="84" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A84" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K84" s="32"/>
       <c r="L84" s="32"/>
     </row>
     <row r="85" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A85" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K85" s="32"/>
       <c r="L85" s="32"/>
     </row>
     <row r="86" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A86" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="D86" s="21" t="s">
         <v>240</v>
-      </c>
-      <c r="D86" s="21" t="s">
-        <v>241</v>
       </c>
       <c r="E86" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K86" s="32"/>
       <c r="L86" s="32"/>
     </row>
     <row r="87" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A87" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D87" s="21" t="s">
         <v>243</v>
-      </c>
-      <c r="D87" s="21" t="s">
-        <v>244</v>
       </c>
       <c r="E87" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K87" s="32"/>
       <c r="L87" s="32"/>
     </row>
     <row r="88" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A88" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D88" s="21" t="s">
         <v>246</v>
-      </c>
-      <c r="D88" s="21" t="s">
-        <v>247</v>
       </c>
       <c r="E88" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F88" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K88" s="32"/>
       <c r="L88" s="32"/>
     </row>
     <row r="89" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A89" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="D89" s="21" t="s">
         <v>249</v>
-      </c>
-      <c r="D89" s="21" t="s">
-        <v>250</v>
       </c>
       <c r="E89" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K89" s="32"/>
       <c r="L89" s="32"/>
     </row>
     <row r="90" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A90" s="22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E90" s="27" t="s">
         <v>12</v>
@@ -3519,12 +3555,12 @@
     </row>
     <row r="91" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A91" s="26" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B91" s="26"/>
       <c r="C91" s="26"/>
       <c r="D91" s="26" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E91" s="26" t="s">
         <v>12</v>
@@ -3562,14 +3598,14 @@
     </row>
     <row r="93" spans="1:30" s="11" customFormat="1" ht="16.5">
       <c r="A93" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K93" s="32"/>
       <c r="L93" s="32"/>
     </row>
     <row r="94" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A94" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
@@ -3580,7 +3616,7 @@
         <v>2</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
@@ -3609,18 +3645,18 @@
     </row>
     <row r="95" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A95" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
       <c r="D95" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F95" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F95" s="10" t="s">
-        <v>255</v>
       </c>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
@@ -3649,18 +3685,18 @@
     </row>
     <row r="96" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A96" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
       <c r="D96" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F96" s="10" t="s">
         <v>257</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>258</v>
       </c>
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
@@ -3689,18 +3725,18 @@
     </row>
     <row r="97" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A97" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F97" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F97" s="10" t="s">
-        <v>261</v>
       </c>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
@@ -3729,18 +3765,18 @@
     </row>
     <row r="98" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A98" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
       <c r="D98" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F98" s="10" t="s">
         <v>263</v>
-      </c>
-      <c r="E98" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F98" s="10" t="s">
-        <v>264</v>
       </c>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
@@ -3769,18 +3805,18 @@
     </row>
     <row r="99" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A99" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
       <c r="D99" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F99" s="10" t="s">
         <v>266</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F99" s="10" t="s">
-        <v>267</v>
       </c>
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
@@ -3841,7 +3877,7 @@
     </row>
     <row r="101" spans="1:30" s="11" customFormat="1" ht="16.5">
       <c r="A101" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -3875,7 +3911,7 @@
     </row>
     <row r="102" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A102" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
@@ -3886,7 +3922,7 @@
         <v>2</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
@@ -3915,64 +3951,64 @@
     </row>
     <row r="103" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A103" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D103" s="10" t="s">
         <v>269</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>270</v>
       </c>
       <c r="E103" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K103" s="32"/>
       <c r="L103" s="32"/>
     </row>
     <row r="104" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A104" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="D104" s="10" t="s">
         <v>272</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>273</v>
       </c>
       <c r="E104" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K104" s="32"/>
       <c r="L104" s="32"/>
     </row>
     <row r="105" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A105" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D105" s="10" t="s">
         <v>275</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>276</v>
       </c>
       <c r="E105" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K105" s="32"/>
       <c r="L105" s="32"/>
     </row>
     <row r="106" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A106" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="D106" s="21" t="s">
         <v>278</v>
-      </c>
-      <c r="D106" s="21" t="s">
-        <v>279</v>
       </c>
       <c r="E106" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K106" s="32"/>
       <c r="L106" s="32"/>

--- a/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
+++ b/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
@@ -244,686 +244,686 @@
     <t>Consolidation Items [Axis]</t>
   </si>
   <si>
-    <t xml:space="preserve">CorporateReconcilingItemsAndEliminationsMember, CorporateAndReconcilingItemsMember, CorporateAndEliminationsMember, EliminationsAndReconcilingItemsMember, OperatingSegmentsAndCorporateNonSegmentMember
+    <t>DQC_0001.71</t>
+  </si>
+  <si>
+    <t>DefinedBenefitPlanByPlanAssetCategoriesAxis</t>
+  </si>
+  <si>
+    <t>Defined Benefit Plan, Asset Categories [Axis]</t>
+  </si>
+  <si>
+    <t>All - except members on DefinedBenefitPlansDisclosuresDefinedBenefitPlansAxis (Not applicable after 2016);  All - except members on: RetirementPlanTypeAxis, RetirementPlanSponsorLocationAxis, RetirementPlanTaxStatusAxis, RetirementPlanFundingStatusAxis, RetirementPlanNameAxis (After 2016)</t>
+  </si>
+  <si>
+    <t>DQC_0001.72</t>
+  </si>
+  <si>
+    <t>AwardDateAxis</t>
+  </si>
+  <si>
+    <t>Award Date [Axis]</t>
+  </si>
+  <si>
+    <t>DQC_0001.74</t>
+  </si>
+  <si>
+    <t>SubsequentEventTypeAxis</t>
+  </si>
+  <si>
+    <t>Subsequent Event Type [Axis]</t>
+  </si>
+  <si>
+    <t>DQC_0001.75</t>
+  </si>
+  <si>
+    <t>StatementEquityComponentsAxis</t>
+  </si>
+  <si>
+    <t>Equity Components [Axis]</t>
+  </si>
+  <si>
+    <t>DQC_0001.76</t>
+  </si>
+  <si>
+    <t>StatementScenarioAxis</t>
+  </si>
+  <si>
+    <t>Scenario [Axis]</t>
+  </si>
+  <si>
+    <t>DQC_0001.61</t>
+  </si>
+  <si>
+    <t>RangeAxis</t>
+  </si>
+  <si>
+    <t>Range [Axis]</t>
+  </si>
+  <si>
+    <t>Note 1 - Allowable US-GAAP members on the CounterpartyNameAxis</t>
+  </si>
+  <si>
+    <t>Element Name</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>AffiliatedEntityMember</t>
+  </si>
+  <si>
+    <t>Affiliated Entity [Member]</t>
+  </si>
+  <si>
+    <t>An affiliate is a party that, directly or indirectly through one or more intermediaries, controls, is controlled by, or is under common control with the entity.</t>
+  </si>
+  <si>
+    <t>InvestorMember</t>
+  </si>
+  <si>
+    <t>Investor [Member]</t>
+  </si>
+  <si>
+    <t>Business entity or individual that puts money, by purchase or expenditure, in something offering potential profitable returns, such as interest income or appreciation in value.</t>
+  </si>
+  <si>
+    <t>VariableInterestEntityNotPrimaryBeneficiaryMember</t>
+  </si>
+  <si>
+    <t>Variable Interest Entity, Not Primary Beneficiary [Member]</t>
+  </si>
+  <si>
+    <t>Variable Interest Entities (VIE) in which the entity does not have a controlling financial interest (as defined) and of which it is therefore not the primary beneficiary. VIEs of which the entity is not the primary beneficiary because it does not have the power to direct the activities of the VIE that most significantly impact the VIE's economic performance and for which it does not have the obligation to absorb losses of the VIE that could potentially be significant to the VIE or the right to receive benefits from the VIE that could potentially be significant to the VIE are not included in the consolidated financial statements of the entity.</t>
+  </si>
+  <si>
+    <t>ChiefFinancialOfficerMember</t>
+  </si>
+  <si>
+    <t>Chief Financial Officer [Member]</t>
+  </si>
+  <si>
+    <t>Senior executive officer responsible for overseeing the financial activities of the entity.</t>
+  </si>
+  <si>
+    <t>IndividualMember</t>
+  </si>
+  <si>
+    <t>Individual Counterparty [Member]</t>
+  </si>
+  <si>
+    <t>Individual person that is legally permitted to enter into a contract and be sued if that person fails to meet the obligations imposed by a contract.</t>
+  </si>
+  <si>
+    <t>GovernmentMember</t>
+  </si>
+  <si>
+    <t>Government [Member]</t>
+  </si>
+  <si>
+    <t>Organization that is the governing authority of a community.</t>
+  </si>
+  <si>
+    <t>GuarantorSubsidiariesMember</t>
+  </si>
+  <si>
+    <t>Guarantor Subsidiaries [Member]</t>
+  </si>
+  <si>
+    <t>Entity owned or controlled by another entity which has guaranteed the issue of securities by another subsidiary of the parent or has guaranteed the issue of securities by the parent.</t>
+  </si>
+  <si>
+    <t>SubsidiaryIssuerMember</t>
+  </si>
+  <si>
+    <t>Subsidiary Issuer [Member]</t>
+  </si>
+  <si>
+    <t>A company controlled, directly or indirectly, by its parent, which has issued securities and those securities are guaranteed by its parent and another subsidiary of the parent.</t>
+  </si>
+  <si>
+    <t>DirectorMember</t>
+  </si>
+  <si>
+    <t>Director [Member]</t>
+  </si>
+  <si>
+    <t>Person serving on the board of directors (who collectively have responsibility for governing the entity).</t>
+  </si>
+  <si>
+    <t>ChiefExecutiveOfficerMember</t>
+  </si>
+  <si>
+    <t>Chief Executive Officer [Member]</t>
+  </si>
+  <si>
+    <t>Highest ranking executive officer, who has ultimate managerial responsibility for the entity and who reports to the board of directors. In addition, the chief executive officer (CEO) may also be the chairman of the board or president.</t>
+  </si>
+  <si>
+    <t>ChiefOperatingOfficerMember</t>
+  </si>
+  <si>
+    <t>Chief Operating Officer [Member]</t>
+  </si>
+  <si>
+    <t>Senior executive officer responsible for management of day-to-day activities of the entity.</t>
+  </si>
+  <si>
+    <t>GeneralPartnerMember</t>
+  </si>
+  <si>
+    <t>General Partner [Member]</t>
+  </si>
+  <si>
+    <t>Party to a partnership business who has unlimited liability.</t>
+  </si>
+  <si>
+    <t>CorporateJointVentureMember</t>
+  </si>
+  <si>
+    <t>Corporate Joint Venture [Member]</t>
+  </si>
+  <si>
+    <t>Corporation owned and operated by a small group of ventures to accomplish a mutually beneficial venture or project.</t>
+  </si>
+  <si>
+    <t>SubsidiaryOfCommonParentMember</t>
+  </si>
+  <si>
+    <t>Subsidiary of Common Parent [Member]</t>
+  </si>
+  <si>
+    <t>Refers to an entity under the control of the same parent as another entity (that is, a sister company).</t>
+  </si>
+  <si>
+    <t>Note 2 - Allowable extension members on the CurrencyAxis</t>
+  </si>
+  <si>
+    <t>SICAD1Member</t>
+  </si>
+  <si>
+    <t>SICA D1 [Member]</t>
+  </si>
+  <si>
+    <t>extension</t>
+  </si>
+  <si>
+    <t>Venezuelan complementary currency exchange system, Sistema Complementario de Administracion de Divisas 1</t>
+  </si>
+  <si>
+    <t>SICAD2Member</t>
+  </si>
+  <si>
+    <t>SICA D2 [Member]</t>
+  </si>
+  <si>
+    <t>Venezuelan complementary currency exchange system, Sistema Complementario de Administracion de Divisas 2</t>
+  </si>
+  <si>
+    <t>OtherCurrencyMember</t>
+  </si>
+  <si>
+    <t>Other [Member]</t>
+  </si>
+  <si>
+    <t>Represents all other currencies not specifically defined.</t>
+  </si>
+  <si>
+    <t>NonUSDollarMember</t>
+  </si>
+  <si>
+    <t>Non-U.S. Dollar [Member]</t>
+  </si>
+  <si>
+    <t>Represents all other currencies that are not USD.</t>
+  </si>
+  <si>
+    <t>CENCOEXMember</t>
+  </si>
+  <si>
+    <t>CENCOEX [Member]</t>
+  </si>
+  <si>
+    <t>The official Venezuelan exchange rate offered by the National Foreign Trade Center. (CENCOEX)</t>
+  </si>
+  <si>
+    <t>SICADMember</t>
+  </si>
+  <si>
+    <t>SICAD [Member]</t>
+  </si>
+  <si>
+    <t>The Venezuelan exchange rate available to companies importing essential goods (e.g., certain food, medicine, raw materials). Consolidates SICAD 1 and SICAD 2.</t>
+  </si>
+  <si>
+    <t>SIMADIMember</t>
+  </si>
+  <si>
+    <t>SIMADI [Member]</t>
+  </si>
+  <si>
+    <t>The market based Venezuelan Exchange Rate.</t>
+  </si>
+  <si>
+    <t>DIPROMember</t>
+  </si>
+  <si>
+    <t>DIPRO [Member]</t>
+  </si>
+  <si>
+    <t>Venezuelan Exchange Rate that replaced the SICAD on March 10, 2016.  The DIPRO, is used for payments of critical importance such as healthcare.</t>
+  </si>
+  <si>
+    <t>DICOMMember</t>
+  </si>
+  <si>
+    <t>DICON [Member]</t>
+  </si>
+  <si>
+    <t>Venezuelan Exchange Rate that replaced the SIMADI on March 10, 2016.  The DICOM, fluctuates according to market supply and demand.</t>
+  </si>
+  <si>
+    <t>Note 3 - Allowable US-GAAP members on the ProductOrServiceAxis</t>
+  </si>
+  <si>
+    <t>AuctionRateSecuritiesMember</t>
+  </si>
+  <si>
+    <t>Auction Rate Securities [Member]</t>
+  </si>
+  <si>
+    <t>Debt instrument securities (for example, but not limited to, corporate or municipal bonds) that typically have long-term nominal maturities for which the interest rate is reset through an auction process.</t>
+  </si>
+  <si>
+    <t>AutomobileLoanMember</t>
+  </si>
+  <si>
+    <t>Automobile Loan [Member]</t>
+  </si>
+  <si>
+    <t>Loan to finance the purchase of a vehicle.</t>
+  </si>
+  <si>
+    <t>CommercialLoanMember</t>
+  </si>
+  <si>
+    <t>Commercial Loan [Member]</t>
+  </si>
+  <si>
+    <t>A loan, whether secured or unsecured, to a company for purposes such as seasonal working capital needs, inventory financing, equipment purchases and acquisitions.</t>
+  </si>
+  <si>
+    <t>CommercialRealEstateMember</t>
+  </si>
+  <si>
+    <t>Commercial Real Estate [Member]</t>
+  </si>
+  <si>
+    <t>Property that is solely used for business purposes.</t>
+  </si>
+  <si>
+    <t>ConstructionLoansMember</t>
+  </si>
+  <si>
+    <t>Construction Loans [Member]</t>
+  </si>
+  <si>
+    <t>A borrowing arrangement which provides the entity constructing a facility (such as a building and a landfill) with funds to effect construction, generally on a draw down, or as needed, basis.</t>
+  </si>
+  <si>
+    <t>ConsumerLoanMember</t>
+  </si>
+  <si>
+    <t>Consumer Loan [Member]</t>
+  </si>
+  <si>
+    <t>Loan or extension of credit for personal, family, or household use excluding real estate.</t>
+  </si>
+  <si>
+    <t>CrudeOilMember</t>
+  </si>
+  <si>
+    <t>Crude Oil [Member]</t>
+  </si>
+  <si>
+    <t>Unrefined, unprocessed oil, which may be used in a variety of applications, and from which, petroleum-based products are produced.</t>
+  </si>
+  <si>
+    <t>FuelMember</t>
+  </si>
+  <si>
+    <t>Fuel [Member]</t>
+  </si>
+  <si>
+    <t>Represents material used for the production of energy in the form of heat or power. Examples may include, but not be limited to heating, transpiration, etc.</t>
+  </si>
+  <si>
+    <t>GeneralLiabilityMember</t>
+  </si>
+  <si>
+    <t>General Liability [Member]</t>
+  </si>
+  <si>
+    <t>Type of business insurance which provides insurance coverage for a wide variety of liability exposures including, but not limited to, contractual liability, product liability and personal injury liability.</t>
+  </si>
+  <si>
+    <t>HeatingOilMember</t>
+  </si>
+  <si>
+    <t>Heating Oil [Member]</t>
+  </si>
+  <si>
+    <t>Fuel oil used to produce heat in an office, plant, or any other location where temperature is controlled or managed.</t>
+  </si>
+  <si>
+    <t>HomeEquityLoanMember</t>
+  </si>
+  <si>
+    <t>Home Equity Loan [Member]</t>
+  </si>
+  <si>
+    <t>Loan based on the equity of the borrower's residential property in which the borrower receives the loan amount upfront. Excludes home equity lines of credit.</t>
+  </si>
+  <si>
+    <t>HomeEquityMember</t>
+  </si>
+  <si>
+    <t>Home Equity Line of Credit [Member]</t>
+  </si>
+  <si>
+    <t>Revolving, open-end loan extended under a line of credit and secured by the borrower's residential property.</t>
+  </si>
+  <si>
+    <t>LetterOfCreditMember</t>
+  </si>
+  <si>
+    <t>Letter of Credit [Member]</t>
+  </si>
+  <si>
+    <t>A document typically issued by a financial institution which acts as a guarantee of payment to a beneficiary, or as the source of payment for a specific transaction (for example, wiring funds to a foreign exporter if and when specified merchandise is accepted pursuant to the terms of the letter of credit).</t>
+  </si>
+  <si>
+    <t>LineOfCreditMember</t>
+  </si>
+  <si>
+    <t>Line of Credit [Member]</t>
+  </si>
+  <si>
+    <t>A contractual arrangement with a lender under which borrowings can be made up to a specific amount at any point in time, and under which borrowings outstanding may be either short-term or long-term, depending upon the particulars.</t>
+  </si>
+  <si>
+    <t>LoansMember</t>
+  </si>
+  <si>
+    <t>Loans [Member]</t>
+  </si>
+  <si>
+    <t>When a lender gives money or property over other debt securities sold by the issuer. In the event the issuer goes bankrupt, senior debt holders receive priority for [must receive] repayment [prior] relative to junior and unsecured (general) creditors.</t>
+  </si>
+  <si>
+    <t>MortgageLoansOnRealEstateMember</t>
+  </si>
+  <si>
+    <t>Mortgage Loans on Real Estate [Member] (Deprecated 2015-01-31)</t>
+  </si>
+  <si>
+    <t>A loan to finance the purchase of real estate where the lender has a lien on the property as collateral for the loan.</t>
+  </si>
+  <si>
+    <t>NaturalGasLiquidsReservesMember</t>
+  </si>
+  <si>
+    <t>Natural Gas Liquids [Member]</t>
+  </si>
+  <si>
+    <t>Natural gas liquids that include, but are not limited to, ethane, propane, natural gasoline, butane and isobutane.</t>
+  </si>
+  <si>
+    <t>NaturalGasReservesMember</t>
+  </si>
+  <si>
+    <t>Natural Gas [Member]</t>
+  </si>
+  <si>
+    <t>Natural gas composed primarily of methane gas, excluding liquid or condensate natural gas.</t>
+  </si>
+  <si>
+    <t>OilReservesMember</t>
+  </si>
+  <si>
+    <t>Oil [Member]</t>
+  </si>
+  <si>
+    <t>Crude oil, which may also include condensate and natural gas liquids.</t>
+  </si>
+  <si>
+    <t>ProfessionalMalpracticeLiabilityMember</t>
+  </si>
+  <si>
+    <t>Professional Malpractice Liability Insurance [Member]</t>
+  </si>
+  <si>
+    <t>Business insurance coverage for professionals, such as doctors, lawyers, insurance agents, accountants, real estate agents, veterinarians, and others. This liability coverage insures losses for claims arising from mistakes and errors or omissions in the course of professional activities.</t>
+  </si>
+  <si>
+    <t>RealEstateLoanMember</t>
+  </si>
+  <si>
+    <t>Real Estate Loan [Member]</t>
+  </si>
+  <si>
+    <t>Loan to finance the purchase of real estate, including but not limited to, land or building.</t>
+  </si>
+  <si>
+    <t>ResidentialMortgageMember</t>
+  </si>
+  <si>
+    <t>Residential Mortgage [Member]</t>
+  </si>
+  <si>
+    <t>Loan to purchase or refinance residential real estate for example, but not limited to, a home, in which the real estate itself serves as collateral for the loan.</t>
+  </si>
+  <si>
+    <t>SyntheticOilMember</t>
+  </si>
+  <si>
+    <t>Synthetic Oil [Member]</t>
+  </si>
+  <si>
+    <t>Lubricant consisting of chemical compounds that are synthetically made.</t>
+  </si>
+  <si>
+    <t>PublicUtilitiesInventoryWaterMember</t>
+  </si>
+  <si>
+    <t>Water [Member]</t>
+  </si>
+  <si>
+    <t>Clear, colorless, odorless and tasteless liquid essential for most plant and animal life comprised of two parts hydrogen and one part oxygen (H2O).</t>
+  </si>
+  <si>
+    <t>PublicUtilitiesInventoryPropaneMember</t>
+  </si>
+  <si>
+    <t>Propane [Member]</t>
+  </si>
+  <si>
+    <t>Product derived from petroleum during the processing of oil or natural gas which is then used as a heat source or fuel.</t>
+  </si>
+  <si>
+    <t>ResidentialRealEstateMember</t>
+  </si>
+  <si>
+    <t>Residential Real Estate [Member]</t>
+  </si>
+  <si>
+    <t>Property that is used as a home.</t>
+  </si>
+  <si>
+    <t>AutomobilesMember</t>
+  </si>
+  <si>
+    <t>Automobiles [Member]</t>
+  </si>
+  <si>
+    <t>Vehicles that are used primarily for transporting people.</t>
+  </si>
+  <si>
+    <t>Note 4 - Allowable US-GAAP Members on the ConsolidationItemsAxis</t>
+  </si>
+  <si>
+    <t>CorporateReconcilingItemsAndEliminationsMember</t>
+  </si>
+  <si>
+    <t>Eliminations, Corporate and Reconciling Items [Member]</t>
+  </si>
+  <si>
+    <t>Represents the aggregate total of adjustments for non operating corporate items, reconciling items and eliminations.</t>
+  </si>
+  <si>
+    <t>CorporateAndReconcilingItemsMember</t>
+  </si>
+  <si>
+    <t>Corporate and Reconciling Items [Member]</t>
+  </si>
+  <si>
+    <t>Represents the aggregate total of non operating corporate items and reconciling items</t>
+  </si>
+  <si>
+    <t>CorporateAndEliminationsMember</t>
+  </si>
+  <si>
+    <t>Corporate and Eliminations [Member]</t>
+  </si>
+  <si>
+    <t>Represents the aggregate total of non operating corporate items and elimination items</t>
+  </si>
+  <si>
+    <t>EliminationsAndReconcilingItemsMember</t>
+  </si>
+  <si>
+    <t>Eliminations and Reconciling Items [Member]</t>
+  </si>
+  <si>
+    <t>Represents the aggregate total of reconciling items and elimination items</t>
+  </si>
+  <si>
+    <t>OperatingSegmentsAndCorporateNonSegmentMember</t>
+  </si>
+  <si>
+    <t>Operating Segments and Corporate Non Segment [Member]</t>
+  </si>
+  <si>
+    <t>Represents the aggregate total of “Operating Segments” and “Corporate, Non-Segment”, before elimination and reconciliation items.</t>
+  </si>
+  <si>
+    <t>Note 5 - Allowable US-GAAP Members on the StatementEquityComponentsAxis</t>
+  </si>
+  <si>
+    <t>WarrantsNotSettleableInCashMember</t>
+  </si>
+  <si>
+    <t>Warrants Not Settleable in Cash [Member]</t>
+  </si>
+  <si>
+    <t>Warrants not settleable in cash that are classified in shareholders' equity.</t>
+  </si>
+  <si>
+    <t>ContingentConsiderationClassifiedAsEquityMember</t>
+  </si>
+  <si>
+    <t>Contingent Consideration Classified as Equity [Member]</t>
+  </si>
+  <si>
+    <t>Contingent consideration in a business combination that is classified in shareholders' equity.</t>
+  </si>
+  <si>
+    <t>EquityIssuedInBusinessCombinationMember</t>
+  </si>
+  <si>
+    <t>Equity Issued in Business Combination [Member]</t>
+  </si>
+  <si>
+    <t>Equity issued by an entity in a business combination that is classified in shareholders' equity.</t>
+  </si>
+  <si>
+    <t>TrustForBenefitOfEmployeesMember</t>
+  </si>
+  <si>
+    <t>Trust for Benefit of Employees [Member]</t>
+  </si>
+  <si>
+    <t>Trust created by the entity that exists for the benefit of its employees, such as pension and profit-sharing trusts that are managed by or under the trusteeship of the entity's management.</t>
+  </si>
+  <si>
+    <t>DQC_0001.77</t>
+  </si>
+  <si>
+    <t>PreferredUnitsByNameAxis</t>
+  </si>
+  <si>
+    <t>Preferred Units by Name [Axis]</t>
+  </si>
+  <si>
+    <t>DQC_0001.78</t>
+  </si>
+  <si>
+    <t>RetirementPlanNameAxis</t>
+  </si>
+  <si>
+    <t>Retirement Plan Name [Axis]</t>
+  </si>
+  <si>
+    <t>DQC_0001.79</t>
+  </si>
+  <si>
+    <t>srt</t>
+  </si>
+  <si>
+    <t>OwnershipAxis</t>
+  </si>
+  <si>
+    <t>Ownership [Axis]</t>
+  </si>
+  <si>
+    <t>DQC_0001.80</t>
+  </si>
+  <si>
+    <t>MajorCustomersAxis</t>
+  </si>
+  <si>
+    <t>Customer [Axis]</t>
+  </si>
+  <si>
+    <t>Taxonomy Added</t>
+  </si>
+  <si>
+    <t>AuctionRateSecuritiesMember, AutomobileLoanMember, CommercialLoanMember, CommercialRealEstateMember, ConstructionLoansMember, ConsumerLoanMember, CrudeOilMember, FuelMember, GeneralLiabilityMember, HeatingOilMember, HomeEquityLoanMember, HomeEquityMember, LetterOfCreditMember, LineOfCreditMember, LoansMember, MortgageLoansOnRealEstateMember, NaturalGasLiquidsReservesMember, NaturalGasReservesMember, OilReservesMember, ProfessionalMalpracticeLiabilityMember, RealEstateLoanMember, ResidentialMortgageMember, SyntheticOilMember, PublicUtilitiesInventoryWaterMember, PublicUtilitiesInventoryPropaneMember, ResidentialRealEstateMember, RealEstateMember, AutomobilesMember, HotelMember</t>
+  </si>
+  <si>
+    <t>RealEstateMember</t>
+  </si>
+  <si>
+    <t>Real Estate [Member]</t>
+  </si>
+  <si>
+    <t>HotelMember</t>
+  </si>
+  <si>
+    <t>Hotel [Member]</t>
+  </si>
+  <si>
+    <t>Release Adopted &amp; Updated</t>
+  </si>
+  <si>
+    <t>3,6</t>
+  </si>
+  <si>
+    <t>Before 2018: WarrantsNotSettleableInCashMember, ContingentConsiderationClassifiedAsEquityMember, EquityIssuedInBusinessCombinationMember, TrustForBenefitOfEmployeesMember; Added For 2018: AccumulatedNetGainLossFromCashFlowHedgesIncludingPortionAttributableToNoncontrollingInterestMember, AccumulatedNetGainLossFromDesignatedOrQualifyingCashFlowHedgesMember, AccumulatedNetGainLossFromCashFlowHedgesAttributableToNoncontrollingInterestMember</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CorporateReconcilingItemsAndEliminationsMember, CorporateAndReconcilingItemsMember, CorporateAndEliminationsMember, EliminationsAndReconcilingItemsMember, OperatingSegmentsAndCorporateNonSegmentMember, OperatingSegmentsExcludingIntersegmentEliminationMember
 </t>
-  </si>
-  <si>
-    <t>DQC_0001.71</t>
-  </si>
-  <si>
-    <t>DefinedBenefitPlanByPlanAssetCategoriesAxis</t>
-  </si>
-  <si>
-    <t>Defined Benefit Plan, Asset Categories [Axis]</t>
-  </si>
-  <si>
-    <t>All - except members on DefinedBenefitPlansDisclosuresDefinedBenefitPlansAxis (Not applicable after 2016);  All - except members on: RetirementPlanTypeAxis, RetirementPlanSponsorLocationAxis, RetirementPlanTaxStatusAxis, RetirementPlanFundingStatusAxis, RetirementPlanNameAxis (After 2016)</t>
-  </si>
-  <si>
-    <t>DQC_0001.72</t>
-  </si>
-  <si>
-    <t>AwardDateAxis</t>
-  </si>
-  <si>
-    <t>Award Date [Axis]</t>
-  </si>
-  <si>
-    <t>DQC_0001.74</t>
-  </si>
-  <si>
-    <t>SubsequentEventTypeAxis</t>
-  </si>
-  <si>
-    <t>Subsequent Event Type [Axis]</t>
-  </si>
-  <si>
-    <t>DQC_0001.75</t>
-  </si>
-  <si>
-    <t>StatementEquityComponentsAxis</t>
-  </si>
-  <si>
-    <t>Equity Components [Axis]</t>
-  </si>
-  <si>
-    <t>DQC_0001.76</t>
-  </si>
-  <si>
-    <t>StatementScenarioAxis</t>
-  </si>
-  <si>
-    <t>Scenario [Axis]</t>
-  </si>
-  <si>
-    <t>DQC_0001.61</t>
-  </si>
-  <si>
-    <t>RangeAxis</t>
-  </si>
-  <si>
-    <t>Range [Axis]</t>
-  </si>
-  <si>
-    <t>Note 1 - Allowable US-GAAP members on the CounterpartyNameAxis</t>
-  </si>
-  <si>
-    <t>Element Name</t>
-  </si>
-  <si>
-    <t>Documentation</t>
-  </si>
-  <si>
-    <t>AffiliatedEntityMember</t>
-  </si>
-  <si>
-    <t>Affiliated Entity [Member]</t>
-  </si>
-  <si>
-    <t>An affiliate is a party that, directly or indirectly through one or more intermediaries, controls, is controlled by, or is under common control with the entity.</t>
-  </si>
-  <si>
-    <t>InvestorMember</t>
-  </si>
-  <si>
-    <t>Investor [Member]</t>
-  </si>
-  <si>
-    <t>Business entity or individual that puts money, by purchase or expenditure, in something offering potential profitable returns, such as interest income or appreciation in value.</t>
-  </si>
-  <si>
-    <t>VariableInterestEntityNotPrimaryBeneficiaryMember</t>
-  </si>
-  <si>
-    <t>Variable Interest Entity, Not Primary Beneficiary [Member]</t>
-  </si>
-  <si>
-    <t>Variable Interest Entities (VIE) in which the entity does not have a controlling financial interest (as defined) and of which it is therefore not the primary beneficiary. VIEs of which the entity is not the primary beneficiary because it does not have the power to direct the activities of the VIE that most significantly impact the VIE's economic performance and for which it does not have the obligation to absorb losses of the VIE that could potentially be significant to the VIE or the right to receive benefits from the VIE that could potentially be significant to the VIE are not included in the consolidated financial statements of the entity.</t>
-  </si>
-  <si>
-    <t>ChiefFinancialOfficerMember</t>
-  </si>
-  <si>
-    <t>Chief Financial Officer [Member]</t>
-  </si>
-  <si>
-    <t>Senior executive officer responsible for overseeing the financial activities of the entity.</t>
-  </si>
-  <si>
-    <t>IndividualMember</t>
-  </si>
-  <si>
-    <t>Individual Counterparty [Member]</t>
-  </si>
-  <si>
-    <t>Individual person that is legally permitted to enter into a contract and be sued if that person fails to meet the obligations imposed by a contract.</t>
-  </si>
-  <si>
-    <t>GovernmentMember</t>
-  </si>
-  <si>
-    <t>Government [Member]</t>
-  </si>
-  <si>
-    <t>Organization that is the governing authority of a community.</t>
-  </si>
-  <si>
-    <t>GuarantorSubsidiariesMember</t>
-  </si>
-  <si>
-    <t>Guarantor Subsidiaries [Member]</t>
-  </si>
-  <si>
-    <t>Entity owned or controlled by another entity which has guaranteed the issue of securities by another subsidiary of the parent or has guaranteed the issue of securities by the parent.</t>
-  </si>
-  <si>
-    <t>SubsidiaryIssuerMember</t>
-  </si>
-  <si>
-    <t>Subsidiary Issuer [Member]</t>
-  </si>
-  <si>
-    <t>A company controlled, directly or indirectly, by its parent, which has issued securities and those securities are guaranteed by its parent and another subsidiary of the parent.</t>
-  </si>
-  <si>
-    <t>DirectorMember</t>
-  </si>
-  <si>
-    <t>Director [Member]</t>
-  </si>
-  <si>
-    <t>Person serving on the board of directors (who collectively have responsibility for governing the entity).</t>
-  </si>
-  <si>
-    <t>ChiefExecutiveOfficerMember</t>
-  </si>
-  <si>
-    <t>Chief Executive Officer [Member]</t>
-  </si>
-  <si>
-    <t>Highest ranking executive officer, who has ultimate managerial responsibility for the entity and who reports to the board of directors. In addition, the chief executive officer (CEO) may also be the chairman of the board or president.</t>
-  </si>
-  <si>
-    <t>ChiefOperatingOfficerMember</t>
-  </si>
-  <si>
-    <t>Chief Operating Officer [Member]</t>
-  </si>
-  <si>
-    <t>Senior executive officer responsible for management of day-to-day activities of the entity.</t>
-  </si>
-  <si>
-    <t>GeneralPartnerMember</t>
-  </si>
-  <si>
-    <t>General Partner [Member]</t>
-  </si>
-  <si>
-    <t>Party to a partnership business who has unlimited liability.</t>
-  </si>
-  <si>
-    <t>CorporateJointVentureMember</t>
-  </si>
-  <si>
-    <t>Corporate Joint Venture [Member]</t>
-  </si>
-  <si>
-    <t>Corporation owned and operated by a small group of ventures to accomplish a mutually beneficial venture or project.</t>
-  </si>
-  <si>
-    <t>SubsidiaryOfCommonParentMember</t>
-  </si>
-  <si>
-    <t>Subsidiary of Common Parent [Member]</t>
-  </si>
-  <si>
-    <t>Refers to an entity under the control of the same parent as another entity (that is, a sister company).</t>
-  </si>
-  <si>
-    <t>Note 2 - Allowable extension members on the CurrencyAxis</t>
-  </si>
-  <si>
-    <t>SICAD1Member</t>
-  </si>
-  <si>
-    <t>SICA D1 [Member]</t>
-  </si>
-  <si>
-    <t>extension</t>
-  </si>
-  <si>
-    <t>Venezuelan complementary currency exchange system, Sistema Complementario de Administracion de Divisas 1</t>
-  </si>
-  <si>
-    <t>SICAD2Member</t>
-  </si>
-  <si>
-    <t>SICA D2 [Member]</t>
-  </si>
-  <si>
-    <t>Venezuelan complementary currency exchange system, Sistema Complementario de Administracion de Divisas 2</t>
-  </si>
-  <si>
-    <t>OtherCurrencyMember</t>
-  </si>
-  <si>
-    <t>Other [Member]</t>
-  </si>
-  <si>
-    <t>Represents all other currencies not specifically defined.</t>
-  </si>
-  <si>
-    <t>NonUSDollarMember</t>
-  </si>
-  <si>
-    <t>Non-U.S. Dollar [Member]</t>
-  </si>
-  <si>
-    <t>Represents all other currencies that are not USD.</t>
-  </si>
-  <si>
-    <t>CENCOEXMember</t>
-  </si>
-  <si>
-    <t>CENCOEX [Member]</t>
-  </si>
-  <si>
-    <t>The official Venezuelan exchange rate offered by the National Foreign Trade Center. (CENCOEX)</t>
-  </si>
-  <si>
-    <t>SICADMember</t>
-  </si>
-  <si>
-    <t>SICAD [Member]</t>
-  </si>
-  <si>
-    <t>The Venezuelan exchange rate available to companies importing essential goods (e.g., certain food, medicine, raw materials). Consolidates SICAD 1 and SICAD 2.</t>
-  </si>
-  <si>
-    <t>SIMADIMember</t>
-  </si>
-  <si>
-    <t>SIMADI [Member]</t>
-  </si>
-  <si>
-    <t>The market based Venezuelan Exchange Rate.</t>
-  </si>
-  <si>
-    <t>DIPROMember</t>
-  </si>
-  <si>
-    <t>DIPRO [Member]</t>
-  </si>
-  <si>
-    <t>Venezuelan Exchange Rate that replaced the SICAD on March 10, 2016.  The DIPRO, is used for payments of critical importance such as healthcare.</t>
-  </si>
-  <si>
-    <t>DICOMMember</t>
-  </si>
-  <si>
-    <t>DICON [Member]</t>
-  </si>
-  <si>
-    <t>Venezuelan Exchange Rate that replaced the SIMADI on March 10, 2016.  The DICOM, fluctuates according to market supply and demand.</t>
-  </si>
-  <si>
-    <t>Note 3 - Allowable US-GAAP members on the ProductOrServiceAxis</t>
-  </si>
-  <si>
-    <t>AuctionRateSecuritiesMember</t>
-  </si>
-  <si>
-    <t>Auction Rate Securities [Member]</t>
-  </si>
-  <si>
-    <t>Debt instrument securities (for example, but not limited to, corporate or municipal bonds) that typically have long-term nominal maturities for which the interest rate is reset through an auction process.</t>
-  </si>
-  <si>
-    <t>AutomobileLoanMember</t>
-  </si>
-  <si>
-    <t>Automobile Loan [Member]</t>
-  </si>
-  <si>
-    <t>Loan to finance the purchase of a vehicle.</t>
-  </si>
-  <si>
-    <t>CommercialLoanMember</t>
-  </si>
-  <si>
-    <t>Commercial Loan [Member]</t>
-  </si>
-  <si>
-    <t>A loan, whether secured or unsecured, to a company for purposes such as seasonal working capital needs, inventory financing, equipment purchases and acquisitions.</t>
-  </si>
-  <si>
-    <t>CommercialRealEstateMember</t>
-  </si>
-  <si>
-    <t>Commercial Real Estate [Member]</t>
-  </si>
-  <si>
-    <t>Property that is solely used for business purposes.</t>
-  </si>
-  <si>
-    <t>ConstructionLoansMember</t>
-  </si>
-  <si>
-    <t>Construction Loans [Member]</t>
-  </si>
-  <si>
-    <t>A borrowing arrangement which provides the entity constructing a facility (such as a building and a landfill) with funds to effect construction, generally on a draw down, or as needed, basis.</t>
-  </si>
-  <si>
-    <t>ConsumerLoanMember</t>
-  </si>
-  <si>
-    <t>Consumer Loan [Member]</t>
-  </si>
-  <si>
-    <t>Loan or extension of credit for personal, family, or household use excluding real estate.</t>
-  </si>
-  <si>
-    <t>CrudeOilMember</t>
-  </si>
-  <si>
-    <t>Crude Oil [Member]</t>
-  </si>
-  <si>
-    <t>Unrefined, unprocessed oil, which may be used in a variety of applications, and from which, petroleum-based products are produced.</t>
-  </si>
-  <si>
-    <t>FuelMember</t>
-  </si>
-  <si>
-    <t>Fuel [Member]</t>
-  </si>
-  <si>
-    <t>Represents material used for the production of energy in the form of heat or power. Examples may include, but not be limited to heating, transpiration, etc.</t>
-  </si>
-  <si>
-    <t>GeneralLiabilityMember</t>
-  </si>
-  <si>
-    <t>General Liability [Member]</t>
-  </si>
-  <si>
-    <t>Type of business insurance which provides insurance coverage for a wide variety of liability exposures including, but not limited to, contractual liability, product liability and personal injury liability.</t>
-  </si>
-  <si>
-    <t>HeatingOilMember</t>
-  </si>
-  <si>
-    <t>Heating Oil [Member]</t>
-  </si>
-  <si>
-    <t>Fuel oil used to produce heat in an office, plant, or any other location where temperature is controlled or managed.</t>
-  </si>
-  <si>
-    <t>HomeEquityLoanMember</t>
-  </si>
-  <si>
-    <t>Home Equity Loan [Member]</t>
-  </si>
-  <si>
-    <t>Loan based on the equity of the borrower's residential property in which the borrower receives the loan amount upfront. Excludes home equity lines of credit.</t>
-  </si>
-  <si>
-    <t>HomeEquityMember</t>
-  </si>
-  <si>
-    <t>Home Equity Line of Credit [Member]</t>
-  </si>
-  <si>
-    <t>Revolving, open-end loan extended under a line of credit and secured by the borrower's residential property.</t>
-  </si>
-  <si>
-    <t>LetterOfCreditMember</t>
-  </si>
-  <si>
-    <t>Letter of Credit [Member]</t>
-  </si>
-  <si>
-    <t>A document typically issued by a financial institution which acts as a guarantee of payment to a beneficiary, or as the source of payment for a specific transaction (for example, wiring funds to a foreign exporter if and when specified merchandise is accepted pursuant to the terms of the letter of credit).</t>
-  </si>
-  <si>
-    <t>LineOfCreditMember</t>
-  </si>
-  <si>
-    <t>Line of Credit [Member]</t>
-  </si>
-  <si>
-    <t>A contractual arrangement with a lender under which borrowings can be made up to a specific amount at any point in time, and under which borrowings outstanding may be either short-term or long-term, depending upon the particulars.</t>
-  </si>
-  <si>
-    <t>LoansMember</t>
-  </si>
-  <si>
-    <t>Loans [Member]</t>
-  </si>
-  <si>
-    <t>When a lender gives money or property over other debt securities sold by the issuer. In the event the issuer goes bankrupt, senior debt holders receive priority for [must receive] repayment [prior] relative to junior and unsecured (general) creditors.</t>
-  </si>
-  <si>
-    <t>MortgageLoansOnRealEstateMember</t>
-  </si>
-  <si>
-    <t>Mortgage Loans on Real Estate [Member] (Deprecated 2015-01-31)</t>
-  </si>
-  <si>
-    <t>A loan to finance the purchase of real estate where the lender has a lien on the property as collateral for the loan.</t>
-  </si>
-  <si>
-    <t>NaturalGasLiquidsReservesMember</t>
-  </si>
-  <si>
-    <t>Natural Gas Liquids [Member]</t>
-  </si>
-  <si>
-    <t>Natural gas liquids that include, but are not limited to, ethane, propane, natural gasoline, butane and isobutane.</t>
-  </si>
-  <si>
-    <t>NaturalGasReservesMember</t>
-  </si>
-  <si>
-    <t>Natural Gas [Member]</t>
-  </si>
-  <si>
-    <t>Natural gas composed primarily of methane gas, excluding liquid or condensate natural gas.</t>
-  </si>
-  <si>
-    <t>OilReservesMember</t>
-  </si>
-  <si>
-    <t>Oil [Member]</t>
-  </si>
-  <si>
-    <t>Crude oil, which may also include condensate and natural gas liquids.</t>
-  </si>
-  <si>
-    <t>ProfessionalMalpracticeLiabilityMember</t>
-  </si>
-  <si>
-    <t>Professional Malpractice Liability Insurance [Member]</t>
-  </si>
-  <si>
-    <t>Business insurance coverage for professionals, such as doctors, lawyers, insurance agents, accountants, real estate agents, veterinarians, and others. This liability coverage insures losses for claims arising from mistakes and errors or omissions in the course of professional activities.</t>
-  </si>
-  <si>
-    <t>RealEstateLoanMember</t>
-  </si>
-  <si>
-    <t>Real Estate Loan [Member]</t>
-  </si>
-  <si>
-    <t>Loan to finance the purchase of real estate, including but not limited to, land or building.</t>
-  </si>
-  <si>
-    <t>ResidentialMortgageMember</t>
-  </si>
-  <si>
-    <t>Residential Mortgage [Member]</t>
-  </si>
-  <si>
-    <t>Loan to purchase or refinance residential real estate for example, but not limited to, a home, in which the real estate itself serves as collateral for the loan.</t>
-  </si>
-  <si>
-    <t>SyntheticOilMember</t>
-  </si>
-  <si>
-    <t>Synthetic Oil [Member]</t>
-  </si>
-  <si>
-    <t>Lubricant consisting of chemical compounds that are synthetically made.</t>
-  </si>
-  <si>
-    <t>PublicUtilitiesInventoryWaterMember</t>
-  </si>
-  <si>
-    <t>Water [Member]</t>
-  </si>
-  <si>
-    <t>Clear, colorless, odorless and tasteless liquid essential for most plant and animal life comprised of two parts hydrogen and one part oxygen (H2O).</t>
-  </si>
-  <si>
-    <t>PublicUtilitiesInventoryPropaneMember</t>
-  </si>
-  <si>
-    <t>Propane [Member]</t>
-  </si>
-  <si>
-    <t>Product derived from petroleum during the processing of oil or natural gas which is then used as a heat source or fuel.</t>
-  </si>
-  <si>
-    <t>ResidentialRealEstateMember</t>
-  </si>
-  <si>
-    <t>Residential Real Estate [Member]</t>
-  </si>
-  <si>
-    <t>Property that is used as a home.</t>
-  </si>
-  <si>
-    <t>AutomobilesMember</t>
-  </si>
-  <si>
-    <t>Automobiles [Member]</t>
-  </si>
-  <si>
-    <t>Vehicles that are used primarily for transporting people.</t>
-  </si>
-  <si>
-    <t>Note 4 - Allowable US-GAAP Members on the ConsolidationItemsAxis</t>
-  </si>
-  <si>
-    <t>CorporateReconcilingItemsAndEliminationsMember</t>
-  </si>
-  <si>
-    <t>Eliminations, Corporate and Reconciling Items [Member]</t>
-  </si>
-  <si>
-    <t>Represents the aggregate total of adjustments for non operating corporate items, reconciling items and eliminations.</t>
-  </si>
-  <si>
-    <t>CorporateAndReconcilingItemsMember</t>
-  </si>
-  <si>
-    <t>Corporate and Reconciling Items [Member]</t>
-  </si>
-  <si>
-    <t>Represents the aggregate total of non operating corporate items and reconciling items</t>
-  </si>
-  <si>
-    <t>CorporateAndEliminationsMember</t>
-  </si>
-  <si>
-    <t>Corporate and Eliminations [Member]</t>
-  </si>
-  <si>
-    <t>Represents the aggregate total of non operating corporate items and elimination items</t>
-  </si>
-  <si>
-    <t>EliminationsAndReconcilingItemsMember</t>
-  </si>
-  <si>
-    <t>Eliminations and Reconciling Items [Member]</t>
-  </si>
-  <si>
-    <t>Represents the aggregate total of reconciling items and elimination items</t>
-  </si>
-  <si>
-    <t>OperatingSegmentsAndCorporateNonSegmentMember</t>
-  </si>
-  <si>
-    <t>Operating Segments and Corporate Non Segment [Member]</t>
-  </si>
-  <si>
-    <t>Represents the aggregate total of “Operating Segments” and “Corporate, Non-Segment”, before elimination and reconciliation items.</t>
-  </si>
-  <si>
-    <t>Note 5 - Allowable US-GAAP Members on the StatementEquityComponentsAxis</t>
-  </si>
-  <si>
-    <t>WarrantsNotSettleableInCashMember</t>
-  </si>
-  <si>
-    <t>Warrants Not Settleable in Cash [Member]</t>
-  </si>
-  <si>
-    <t>Warrants not settleable in cash that are classified in shareholders' equity.</t>
-  </si>
-  <si>
-    <t>ContingentConsiderationClassifiedAsEquityMember</t>
-  </si>
-  <si>
-    <t>Contingent Consideration Classified as Equity [Member]</t>
-  </si>
-  <si>
-    <t>Contingent consideration in a business combination that is classified in shareholders' equity.</t>
-  </si>
-  <si>
-    <t>EquityIssuedInBusinessCombinationMember</t>
-  </si>
-  <si>
-    <t>Equity Issued in Business Combination [Member]</t>
-  </si>
-  <si>
-    <t>Equity issued by an entity in a business combination that is classified in shareholders' equity.</t>
-  </si>
-  <si>
-    <t>TrustForBenefitOfEmployeesMember</t>
-  </si>
-  <si>
-    <t>Trust for Benefit of Employees [Member]</t>
-  </si>
-  <si>
-    <t>Trust created by the entity that exists for the benefit of its employees, such as pension and profit-sharing trusts that are managed by or under the trusteeship of the entity's management.</t>
-  </si>
-  <si>
-    <t>DQC_0001.77</t>
-  </si>
-  <si>
-    <t>PreferredUnitsByNameAxis</t>
-  </si>
-  <si>
-    <t>Preferred Units by Name [Axis]</t>
-  </si>
-  <si>
-    <t>DQC_0001.78</t>
-  </si>
-  <si>
-    <t>RetirementPlanNameAxis</t>
-  </si>
-  <si>
-    <t>Retirement Plan Name [Axis]</t>
-  </si>
-  <si>
-    <t>DQC_0001.79</t>
-  </si>
-  <si>
-    <t>srt</t>
-  </si>
-  <si>
-    <t>OwnershipAxis</t>
-  </si>
-  <si>
-    <t>Ownership [Axis]</t>
-  </si>
-  <si>
-    <t>DQC_0001.80</t>
-  </si>
-  <si>
-    <t>MajorCustomersAxis</t>
-  </si>
-  <si>
-    <t>Customer [Axis]</t>
-  </si>
-  <si>
-    <t>Taxonomy Added</t>
-  </si>
-  <si>
-    <t>AuctionRateSecuritiesMember, AutomobileLoanMember, CommercialLoanMember, CommercialRealEstateMember, ConstructionLoansMember, ConsumerLoanMember, CrudeOilMember, FuelMember, GeneralLiabilityMember, HeatingOilMember, HomeEquityLoanMember, HomeEquityMember, LetterOfCreditMember, LineOfCreditMember, LoansMember, MortgageLoansOnRealEstateMember, NaturalGasLiquidsReservesMember, NaturalGasReservesMember, OilReservesMember, ProfessionalMalpracticeLiabilityMember, RealEstateLoanMember, ResidentialMortgageMember, SyntheticOilMember, PublicUtilitiesInventoryWaterMember, PublicUtilitiesInventoryPropaneMember, ResidentialRealEstateMember, RealEstateMember, AutomobilesMember, HotelMember</t>
-  </si>
-  <si>
-    <t>RealEstateMember</t>
-  </si>
-  <si>
-    <t>Real Estate [Member]</t>
-  </si>
-  <si>
-    <t>HotelMember</t>
-  </si>
-  <si>
-    <t>Hotel [Member]</t>
-  </si>
-  <si>
-    <t>Release Adopted &amp; Updated</t>
-  </si>
-  <si>
-    <t>3,6</t>
-  </si>
-  <si>
-    <t>Before 2018: WarrantsNotSettleableInCashMember, ContingentConsiderationClassifiedAsEquityMember, EquityIssuedInBusinessCombinationMember, TrustForBenefitOfEmployeesMember; Added For 2018: AccumulatedNetGainLossFromCashFlowHedgesIncludingPortionAttributableToNoncontrollingInterestMember, AccumulatedNetGainLossFromDesignatedOrQualifyingCashFlowHedgesMember, AccumulatedNetGainLossFromCashFlowHedgesAttributableToNoncontrollingInterestMember</t>
   </si>
 </sst>
 </file>
@@ -1519,9 +1519,7 @@
   </sheetPr>
   <dimension ref="A1:AD991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1569,10 +1567,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -1774,11 +1772,11 @@
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:29" s="11" customFormat="1" ht="180">
+    <row r="8" spans="1:29" s="11" customFormat="1" ht="156">
       <c r="A8" s="12" t="s">
         <v>39</v>
       </c>
@@ -1806,7 +1804,7 @@
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L8" s="32"/>
       <c r="M8" s="10"/>
@@ -1907,7 +1905,7 @@
         <v>53</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L11" s="32"/>
     </row>
@@ -2058,18 +2056,18 @@
         <v>71</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="1:30" s="11" customFormat="1" ht="12.75">
+    <row r="17" spans="1:30" s="11" customFormat="1" ht="84">
       <c r="A17" s="12" t="s">
         <v>72</v>
       </c>
@@ -2093,17 +2091,17 @@
       <c r="I17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>75</v>
+      <c r="J17" s="13" t="s">
+        <v>301</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L17" s="32"/>
     </row>
     <row r="18" spans="1:30" s="11" customFormat="1" ht="96">
       <c r="A18" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>11</v>
@@ -2112,16 +2110,16 @@
         <v>12</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>78</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="10" t="s">
@@ -2135,7 +2133,7 @@
     </row>
     <row r="19" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A19" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>11</v>
@@ -2144,10 +2142,10 @@
         <v>12</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>25</v>
@@ -2165,7 +2163,7 @@
     </row>
     <row r="20" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A20" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>11</v>
@@ -2174,10 +2172,10 @@
         <v>12</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>85</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>15</v>
@@ -2195,7 +2193,7 @@
     </row>
     <row r="21" spans="1:30" s="24" customFormat="1" ht="204">
       <c r="A21" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>11</v>
@@ -2204,30 +2202,30 @@
         <v>12</v>
       </c>
       <c r="D21" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="29" t="s">
         <v>87</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>88</v>
       </c>
       <c r="F21" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I21" s="29" t="s">
         <v>15</v>
       </c>
       <c r="J21" s="29"/>
       <c r="K21" s="38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L21" s="32"/>
     </row>
     <row r="22" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A22" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22" s="29" t="s">
         <v>11</v>
@@ -2236,10 +2234,10 @@
         <v>12</v>
       </c>
       <c r="D22" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>90</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>91</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>15</v>
@@ -2257,7 +2255,7 @@
     </row>
     <row r="23" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A23" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" s="29" t="s">
         <v>11</v>
@@ -2266,10 +2264,10 @@
         <v>36</v>
       </c>
       <c r="D23" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="29" t="s">
         <v>93</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>94</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>15</v>
@@ -2281,13 +2279,13 @@
       </c>
       <c r="J23" s="29"/>
       <c r="K23" s="38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L23" s="32"/>
     </row>
     <row r="24" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A24" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B24" s="31" t="s">
         <v>11</v>
@@ -2296,10 +2294,10 @@
         <v>12</v>
       </c>
       <c r="D24" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="E24" s="31" t="s">
         <v>281</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>282</v>
       </c>
       <c r="F24" s="31" t="s">
         <v>25</v>
@@ -2335,7 +2333,7 @@
     </row>
     <row r="25" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A25" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B25" s="31" t="s">
         <v>11</v>
@@ -2344,10 +2342,10 @@
         <v>12</v>
       </c>
       <c r="D25" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="E25" s="31" t="s">
         <v>284</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>285</v>
       </c>
       <c r="F25" s="31" t="s">
         <v>25</v>
@@ -2385,19 +2383,19 @@
     </row>
     <row r="26" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A26" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B26" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="D26" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="E26" s="31" t="s">
         <v>288</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>289</v>
       </c>
       <c r="F26" s="31" t="s">
         <v>25</v>
@@ -2435,19 +2433,19 @@
     </row>
     <row r="27" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A27" s="31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B27" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D27" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="E27" s="31" t="s">
         <v>291</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>292</v>
       </c>
       <c r="F27" s="31" t="s">
         <v>25</v>
@@ -2548,7 +2546,7 @@
     </row>
     <row r="32" spans="1:30" s="11" customFormat="1" ht="16.5">
       <c r="A32" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -2582,7 +2580,7 @@
     </row>
     <row r="33" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A33" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -2593,259 +2591,259 @@
         <v>2</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
     <row r="34" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A34" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A35" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
     <row r="36" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A36" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K36" s="32"/>
       <c r="L36" s="32"/>
     </row>
     <row r="37" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A37" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K37" s="32"/>
       <c r="L37" s="32"/>
     </row>
     <row r="38" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A38" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K38" s="32"/>
       <c r="L38" s="32"/>
     </row>
     <row r="39" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A39" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K39" s="32"/>
       <c r="L39" s="32"/>
     </row>
     <row r="40" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A40" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
     <row r="41" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A41" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
     <row r="42" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A42" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K42" s="32"/>
       <c r="L42" s="32"/>
     </row>
     <row r="43" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A43" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K43" s="32"/>
       <c r="L43" s="32"/>
     </row>
     <row r="44" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A44" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K44" s="32"/>
       <c r="L44" s="32"/>
     </row>
     <row r="45" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A45" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K45" s="32"/>
       <c r="L45" s="32"/>
     </row>
     <row r="46" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A46" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K46" s="32"/>
       <c r="L46" s="32"/>
     </row>
     <row r="47" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A47" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K47" s="32"/>
       <c r="L47" s="32"/>
@@ -2856,14 +2854,14 @@
     </row>
     <row r="49" spans="1:12" s="11" customFormat="1" ht="16.5">
       <c r="A49" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K49" s="32"/>
       <c r="L49" s="32"/>
     </row>
     <row r="50" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A50" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -2874,159 +2872,159 @@
         <v>2</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
     </row>
     <row r="51" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A51" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="F51" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>144</v>
       </c>
       <c r="K51" s="32"/>
       <c r="L51" s="32"/>
     </row>
     <row r="52" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A52" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F52" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="K52" s="32"/>
       <c r="L52" s="32"/>
     </row>
     <row r="53" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A53" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F53" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="K53" s="32"/>
       <c r="L53" s="32"/>
     </row>
     <row r="54" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A54" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F54" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>153</v>
       </c>
       <c r="K54" s="32"/>
       <c r="L54" s="32"/>
     </row>
     <row r="55" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A55" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="E55" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F55" s="21" t="s">
         <v>155</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>156</v>
       </c>
       <c r="K55" s="32"/>
       <c r="L55" s="32"/>
     </row>
     <row r="56" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A56" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="E56" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F56" s="21" t="s">
         <v>158</v>
-      </c>
-      <c r="E56" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="F56" s="21" t="s">
-        <v>159</v>
       </c>
       <c r="K56" s="32"/>
       <c r="L56" s="32"/>
     </row>
     <row r="57" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A57" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="E57" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F57" s="21" t="s">
         <v>161</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>162</v>
       </c>
       <c r="K57" s="32"/>
       <c r="L57" s="32"/>
     </row>
     <row r="58" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A58" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D58" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="E58" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F58" s="21" t="s">
         <v>164</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>165</v>
       </c>
       <c r="K58" s="32"/>
       <c r="L58" s="32"/>
     </row>
     <row r="59" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A59" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="E59" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F59" s="21" t="s">
         <v>167</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="F59" s="21" t="s">
-        <v>168</v>
       </c>
       <c r="K59" s="32"/>
       <c r="L59" s="32"/>
@@ -3038,14 +3036,14 @@
     </row>
     <row r="61" spans="1:12" s="11" customFormat="1" ht="16.5">
       <c r="A61" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K61" s="32"/>
       <c r="L61" s="32"/>
     </row>
     <row r="62" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A62" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
@@ -3056,495 +3054,495 @@
         <v>2</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K62" s="32"/>
       <c r="L62" s="32"/>
     </row>
     <row r="63" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A63" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K63" s="32"/>
       <c r="L63" s="32"/>
     </row>
     <row r="64" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A64" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K64" s="32"/>
       <c r="L64" s="32"/>
     </row>
     <row r="65" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A65" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K65" s="32"/>
       <c r="L65" s="32"/>
     </row>
     <row r="66" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A66" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K66" s="32"/>
       <c r="L66" s="32"/>
     </row>
     <row r="67" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A67" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K67" s="32"/>
       <c r="L67" s="32"/>
     </row>
     <row r="68" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A68" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K68" s="32"/>
       <c r="L68" s="32"/>
     </row>
     <row r="69" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A69" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K69" s="32"/>
       <c r="L69" s="32"/>
     </row>
     <row r="70" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A70" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K70" s="32"/>
       <c r="L70" s="32"/>
     </row>
     <row r="71" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A71" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K71" s="32"/>
       <c r="L71" s="32"/>
     </row>
     <row r="72" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A72" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K72" s="32"/>
       <c r="L72" s="32"/>
     </row>
     <row r="73" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A73" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K73" s="32"/>
       <c r="L73" s="32"/>
     </row>
     <row r="74" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A74" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K74" s="32"/>
       <c r="L74" s="32"/>
     </row>
     <row r="75" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A75" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K75" s="32"/>
       <c r="L75" s="32"/>
     </row>
     <row r="76" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A76" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K76" s="32"/>
       <c r="L76" s="32"/>
     </row>
     <row r="77" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A77" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K77" s="32"/>
       <c r="L77" s="32"/>
     </row>
     <row r="78" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A78" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K78" s="32"/>
       <c r="L78" s="32"/>
     </row>
     <row r="79" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A79" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K79" s="32"/>
       <c r="L79" s="32"/>
     </row>
     <row r="80" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A80" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K80" s="32"/>
       <c r="L80" s="32"/>
     </row>
     <row r="81" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A81" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K81" s="32"/>
       <c r="L81" s="32"/>
     </row>
     <row r="82" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A82" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K82" s="32"/>
       <c r="L82" s="32"/>
     </row>
     <row r="83" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A83" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K83" s="32"/>
       <c r="L83" s="32"/>
     </row>
     <row r="84" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A84" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K84" s="32"/>
       <c r="L84" s="32"/>
     </row>
     <row r="85" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A85" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K85" s="32"/>
       <c r="L85" s="32"/>
     </row>
     <row r="86" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A86" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="D86" s="21" t="s">
         <v>239</v>
-      </c>
-      <c r="D86" s="21" t="s">
-        <v>240</v>
       </c>
       <c r="E86" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K86" s="32"/>
       <c r="L86" s="32"/>
     </row>
     <row r="87" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A87" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D87" s="21" t="s">
         <v>242</v>
-      </c>
-      <c r="D87" s="21" t="s">
-        <v>243</v>
       </c>
       <c r="E87" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K87" s="32"/>
       <c r="L87" s="32"/>
     </row>
     <row r="88" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A88" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D88" s="21" t="s">
         <v>245</v>
-      </c>
-      <c r="D88" s="21" t="s">
-        <v>246</v>
       </c>
       <c r="E88" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F88" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K88" s="32"/>
       <c r="L88" s="32"/>
     </row>
     <row r="89" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A89" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="D89" s="21" t="s">
         <v>248</v>
-      </c>
-      <c r="D89" s="21" t="s">
-        <v>249</v>
       </c>
       <c r="E89" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K89" s="32"/>
       <c r="L89" s="32"/>
     </row>
     <row r="90" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A90" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D90" s="21" t="s">
         <v>295</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>296</v>
       </c>
       <c r="E90" s="27" t="s">
         <v>12</v>
@@ -3555,12 +3553,12 @@
     </row>
     <row r="91" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A91" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B91" s="26"/>
       <c r="C91" s="26"/>
       <c r="D91" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E91" s="26" t="s">
         <v>12</v>
@@ -3598,14 +3596,14 @@
     </row>
     <row r="93" spans="1:30" s="11" customFormat="1" ht="16.5">
       <c r="A93" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K93" s="32"/>
       <c r="L93" s="32"/>
     </row>
     <row r="94" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A94" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
@@ -3616,7 +3614,7 @@
         <v>2</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
@@ -3645,18 +3643,18 @@
     </row>
     <row r="95" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A95" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
       <c r="D95" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F95" s="10" t="s">
         <v>253</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F95" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
@@ -3685,18 +3683,18 @@
     </row>
     <row r="96" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A96" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
       <c r="D96" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F96" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>257</v>
       </c>
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
@@ -3725,18 +3723,18 @@
     </row>
     <row r="97" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A97" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F97" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F97" s="10" t="s">
-        <v>260</v>
       </c>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
@@ -3765,18 +3763,18 @@
     </row>
     <row r="98" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A98" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
       <c r="D98" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F98" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="E98" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F98" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
@@ -3805,18 +3803,18 @@
     </row>
     <row r="99" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A99" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
       <c r="D99" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F99" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F99" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
@@ -3877,7 +3875,7 @@
     </row>
     <row r="101" spans="1:30" s="11" customFormat="1" ht="16.5">
       <c r="A101" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -3911,7 +3909,7 @@
     </row>
     <row r="102" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A102" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
@@ -3922,7 +3920,7 @@
         <v>2</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
@@ -3951,64 +3949,64 @@
     </row>
     <row r="103" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A103" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="D103" s="10" t="s">
         <v>268</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>269</v>
       </c>
       <c r="E103" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K103" s="32"/>
       <c r="L103" s="32"/>
     </row>
     <row r="104" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A104" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="D104" s="10" t="s">
         <v>271</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>272</v>
       </c>
       <c r="E104" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K104" s="32"/>
       <c r="L104" s="32"/>
     </row>
     <row r="105" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A105" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="D105" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>275</v>
       </c>
       <c r="E105" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K105" s="32"/>
       <c r="L105" s="32"/>
     </row>
     <row r="106" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A106" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="D106" s="21" t="s">
         <v>277</v>
-      </c>
-      <c r="D106" s="21" t="s">
-        <v>278</v>
       </c>
       <c r="E106" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K106" s="32"/>
       <c r="L106" s="32"/>

--- a/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
+++ b/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
@@ -70,9 +70,6 @@
     <t>Limited</t>
   </si>
   <si>
-    <t>FairValueInputsLevel1AndLevel2Member, FairValueInputsLevel2AndLevel3Member, InvestmentsNetAssetValueMember</t>
-  </si>
-  <si>
     <t>DQC_0001.52</t>
   </si>
   <si>
@@ -924,6 +921,9 @@
   <si>
     <t xml:space="preserve">CorporateReconcilingItemsAndEliminationsMember, CorporateAndReconcilingItemsMember, CorporateAndEliminationsMember, EliminationsAndReconcilingItemsMember, OperatingSegmentsAndCorporateNonSegmentMember, OperatingSegmentsExcludingIntersegmentEliminationMember
 </t>
+  </si>
+  <si>
+    <t>FairValueInputsLevel1AndLevel2Member, FairValueInputsLevel2AndLevel3Member, FairValueInputsLevel12And3Member, FairValueInputsLevel1AndLevel3Member, FairValueMeasuredAtNetAssetValuePerShareMember</t>
   </si>
 </sst>
 </file>
@@ -1519,7 +1519,9 @@
   </sheetPr>
   <dimension ref="A1:AD991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1567,10 +1569,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -1615,7 +1617,7 @@
         <v>16</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>17</v>
+        <v>301</v>
       </c>
       <c r="K2" s="36">
         <v>3</v>
@@ -1624,7 +1626,7 @@
     </row>
     <row r="3" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A3" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>11</v>
@@ -1633,10 +1635,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>15</v>
@@ -1644,7 +1646,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="37">
@@ -1654,7 +1656,7 @@
     </row>
     <row r="4" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -1663,13 +1665,13 @@
         <v>12</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
@@ -1684,28 +1686,28 @@
     </row>
     <row r="5" spans="1:29" s="11" customFormat="1" ht="60">
       <c r="A5" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>15</v>
@@ -1718,7 +1720,7 @@
     </row>
     <row r="6" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A6" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -1727,13 +1729,13 @@
         <v>12</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="F6" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
@@ -1748,22 +1750,22 @@
     </row>
     <row r="7" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A7" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F7" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
@@ -1772,39 +1774,39 @@
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:29" s="11" customFormat="1" ht="156">
       <c r="A8" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="F8" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L8" s="32"/>
       <c r="M8" s="10"/>
@@ -1819,7 +1821,7 @@
     </row>
     <row r="9" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A9" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>11</v>
@@ -1828,13 +1830,13 @@
         <v>12</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="F9" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
@@ -1849,22 +1851,22 @@
     </row>
     <row r="10" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>49</v>
-      </c>
       <c r="F10" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
@@ -1879,19 +1881,19 @@
     </row>
     <row r="11" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A11" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>15</v>
@@ -1902,16 +1904,16 @@
         <v>16</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A12" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>11</v>
@@ -1920,10 +1922,10 @@
         <v>12</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>15</v>
@@ -1934,7 +1936,7 @@
         <v>16</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K12" s="37">
         <v>3</v>
@@ -1943,7 +1945,7 @@
     </row>
     <row r="13" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A13" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -1952,10 +1954,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>15</v>
@@ -1963,7 +1965,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="37">
@@ -1973,7 +1975,7 @@
     </row>
     <row r="14" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A14" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>11</v>
@@ -1982,10 +1984,10 @@
         <v>12</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>15</v>
@@ -1993,7 +1995,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="37">
@@ -2003,7 +2005,7 @@
     </row>
     <row r="15" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A15" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>11</v>
@@ -2012,10 +2014,10 @@
         <v>12</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>15</v>
@@ -2026,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K15" s="37">
         <v>3</v>
@@ -2035,53 +2037,53 @@
     </row>
     <row r="16" spans="1:29" s="11" customFormat="1" ht="312.75" thickBot="1">
       <c r="A16" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L16" s="32"/>
     </row>
     <row r="17" spans="1:30" s="11" customFormat="1" ht="84">
       <c r="A17" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>15</v>
@@ -2092,16 +2094,16 @@
         <v>16</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L17" s="32"/>
     </row>
     <row r="18" spans="1:30" s="11" customFormat="1" ht="96">
       <c r="A18" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>11</v>
@@ -2110,16 +2112,16 @@
         <v>12</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="10" t="s">
@@ -2133,7 +2135,7 @@
     </row>
     <row r="19" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A19" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>11</v>
@@ -2142,13 +2144,13 @@
         <v>12</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>81</v>
-      </c>
       <c r="F19" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -2163,7 +2165,7 @@
     </row>
     <row r="20" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A20" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>11</v>
@@ -2172,10 +2174,10 @@
         <v>12</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>15</v>
@@ -2183,7 +2185,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="37">
@@ -2193,7 +2195,7 @@
     </row>
     <row r="21" spans="1:30" s="24" customFormat="1" ht="204">
       <c r="A21" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>11</v>
@@ -2202,30 +2204,30 @@
         <v>12</v>
       </c>
       <c r="D21" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="29" t="s">
         <v>86</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>87</v>
       </c>
       <c r="F21" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I21" s="29" t="s">
         <v>15</v>
       </c>
       <c r="J21" s="29"/>
       <c r="K21" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L21" s="32"/>
     </row>
     <row r="22" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A22" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="29" t="s">
         <v>11</v>
@@ -2234,10 +2236,10 @@
         <v>12</v>
       </c>
       <c r="D22" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>89</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>90</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>15</v>
@@ -2255,19 +2257,19 @@
     </row>
     <row r="23" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A23" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="29" t="s">
         <v>92</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>93</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>15</v>
@@ -2275,17 +2277,17 @@
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
       <c r="I23" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" s="29"/>
       <c r="K23" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L23" s="32"/>
     </row>
     <row r="24" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A24" s="31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B24" s="31" t="s">
         <v>11</v>
@@ -2294,13 +2296,13 @@
         <v>12</v>
       </c>
       <c r="D24" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="E24" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="E24" s="31" t="s">
-        <v>281</v>
-      </c>
       <c r="F24" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
@@ -2333,7 +2335,7 @@
     </row>
     <row r="25" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A25" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B25" s="31" t="s">
         <v>11</v>
@@ -2342,13 +2344,13 @@
         <v>12</v>
       </c>
       <c r="D25" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="E25" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="E25" s="31" t="s">
-        <v>284</v>
-      </c>
       <c r="F25" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
@@ -2383,22 +2385,22 @@
     </row>
     <row r="26" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A26" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B26" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="D26" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="E26" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="E26" s="31" t="s">
-        <v>288</v>
-      </c>
       <c r="F26" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
@@ -2433,22 +2435,22 @@
     </row>
     <row r="27" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A27" s="31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B27" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D27" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="E27" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="E27" s="31" t="s">
-        <v>291</v>
-      </c>
       <c r="F27" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G27" s="31"/>
       <c r="H27" s="31"/>
@@ -2546,7 +2548,7 @@
     </row>
     <row r="32" spans="1:30" s="11" customFormat="1" ht="16.5">
       <c r="A32" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -2580,7 +2582,7 @@
     </row>
     <row r="33" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A33" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -2591,259 +2593,259 @@
         <v>2</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
     <row r="34" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A34" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A35" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
     <row r="36" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A36" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K36" s="32"/>
       <c r="L36" s="32"/>
     </row>
     <row r="37" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A37" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K37" s="32"/>
       <c r="L37" s="32"/>
     </row>
     <row r="38" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A38" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K38" s="32"/>
       <c r="L38" s="32"/>
     </row>
     <row r="39" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A39" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K39" s="32"/>
       <c r="L39" s="32"/>
     </row>
     <row r="40" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A40" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
     <row r="41" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A41" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
     <row r="42" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A42" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K42" s="32"/>
       <c r="L42" s="32"/>
     </row>
     <row r="43" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A43" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K43" s="32"/>
       <c r="L43" s="32"/>
     </row>
     <row r="44" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A44" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K44" s="32"/>
       <c r="L44" s="32"/>
     </row>
     <row r="45" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A45" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K45" s="32"/>
       <c r="L45" s="32"/>
     </row>
     <row r="46" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A46" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K46" s="32"/>
       <c r="L46" s="32"/>
     </row>
     <row r="47" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A47" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K47" s="32"/>
       <c r="L47" s="32"/>
@@ -2854,14 +2856,14 @@
     </row>
     <row r="49" spans="1:12" s="11" customFormat="1" ht="16.5">
       <c r="A49" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K49" s="32"/>
       <c r="L49" s="32"/>
     </row>
     <row r="50" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A50" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -2872,159 +2874,159 @@
         <v>2</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
     </row>
     <row r="51" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A51" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="F51" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>143</v>
       </c>
       <c r="K51" s="32"/>
       <c r="L51" s="32"/>
     </row>
     <row r="52" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A52" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F52" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>146</v>
       </c>
       <c r="K52" s="32"/>
       <c r="L52" s="32"/>
     </row>
     <row r="53" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A53" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F53" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>149</v>
       </c>
       <c r="K53" s="32"/>
       <c r="L53" s="32"/>
     </row>
     <row r="54" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A54" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F54" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>152</v>
       </c>
       <c r="K54" s="32"/>
       <c r="L54" s="32"/>
     </row>
     <row r="55" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A55" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="E55" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F55" s="21" t="s">
         <v>154</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>155</v>
       </c>
       <c r="K55" s="32"/>
       <c r="L55" s="32"/>
     </row>
     <row r="56" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A56" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="E56" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F56" s="21" t="s">
         <v>157</v>
-      </c>
-      <c r="E56" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="F56" s="21" t="s">
-        <v>158</v>
       </c>
       <c r="K56" s="32"/>
       <c r="L56" s="32"/>
     </row>
     <row r="57" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A57" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="E57" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F57" s="21" t="s">
         <v>160</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>161</v>
       </c>
       <c r="K57" s="32"/>
       <c r="L57" s="32"/>
     </row>
     <row r="58" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A58" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="E58" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F58" s="21" t="s">
         <v>163</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>164</v>
       </c>
       <c r="K58" s="32"/>
       <c r="L58" s="32"/>
     </row>
     <row r="59" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A59" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="E59" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F59" s="21" t="s">
         <v>166</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="F59" s="21" t="s">
-        <v>167</v>
       </c>
       <c r="K59" s="32"/>
       <c r="L59" s="32"/>
@@ -3036,14 +3038,14 @@
     </row>
     <row r="61" spans="1:12" s="11" customFormat="1" ht="16.5">
       <c r="A61" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K61" s="32"/>
       <c r="L61" s="32"/>
     </row>
     <row r="62" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A62" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
@@ -3054,495 +3056,495 @@
         <v>2</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K62" s="32"/>
       <c r="L62" s="32"/>
     </row>
     <row r="63" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A63" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K63" s="32"/>
       <c r="L63" s="32"/>
     </row>
     <row r="64" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A64" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K64" s="32"/>
       <c r="L64" s="32"/>
     </row>
     <row r="65" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A65" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K65" s="32"/>
       <c r="L65" s="32"/>
     </row>
     <row r="66" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A66" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K66" s="32"/>
       <c r="L66" s="32"/>
     </row>
     <row r="67" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A67" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K67" s="32"/>
       <c r="L67" s="32"/>
     </row>
     <row r="68" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A68" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K68" s="32"/>
       <c r="L68" s="32"/>
     </row>
     <row r="69" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A69" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K69" s="32"/>
       <c r="L69" s="32"/>
     </row>
     <row r="70" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A70" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K70" s="32"/>
       <c r="L70" s="32"/>
     </row>
     <row r="71" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A71" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K71" s="32"/>
       <c r="L71" s="32"/>
     </row>
     <row r="72" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A72" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K72" s="32"/>
       <c r="L72" s="32"/>
     </row>
     <row r="73" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A73" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K73" s="32"/>
       <c r="L73" s="32"/>
     </row>
     <row r="74" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A74" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K74" s="32"/>
       <c r="L74" s="32"/>
     </row>
     <row r="75" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A75" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K75" s="32"/>
       <c r="L75" s="32"/>
     </row>
     <row r="76" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A76" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K76" s="32"/>
       <c r="L76" s="32"/>
     </row>
     <row r="77" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A77" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K77" s="32"/>
       <c r="L77" s="32"/>
     </row>
     <row r="78" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A78" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K78" s="32"/>
       <c r="L78" s="32"/>
     </row>
     <row r="79" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A79" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K79" s="32"/>
       <c r="L79" s="32"/>
     </row>
     <row r="80" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A80" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K80" s="32"/>
       <c r="L80" s="32"/>
     </row>
     <row r="81" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A81" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K81" s="32"/>
       <c r="L81" s="32"/>
     </row>
     <row r="82" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A82" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K82" s="32"/>
       <c r="L82" s="32"/>
     </row>
     <row r="83" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A83" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K83" s="32"/>
       <c r="L83" s="32"/>
     </row>
     <row r="84" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A84" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K84" s="32"/>
       <c r="L84" s="32"/>
     </row>
     <row r="85" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A85" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K85" s="32"/>
       <c r="L85" s="32"/>
     </row>
     <row r="86" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A86" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D86" s="21" t="s">
         <v>238</v>
-      </c>
-      <c r="D86" s="21" t="s">
-        <v>239</v>
       </c>
       <c r="E86" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K86" s="32"/>
       <c r="L86" s="32"/>
     </row>
     <row r="87" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A87" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D87" s="21" t="s">
         <v>241</v>
-      </c>
-      <c r="D87" s="21" t="s">
-        <v>242</v>
       </c>
       <c r="E87" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K87" s="32"/>
       <c r="L87" s="32"/>
     </row>
     <row r="88" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A88" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D88" s="21" t="s">
         <v>244</v>
-      </c>
-      <c r="D88" s="21" t="s">
-        <v>245</v>
       </c>
       <c r="E88" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F88" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K88" s="32"/>
       <c r="L88" s="32"/>
     </row>
     <row r="89" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A89" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D89" s="21" t="s">
         <v>247</v>
-      </c>
-      <c r="D89" s="21" t="s">
-        <v>248</v>
       </c>
       <c r="E89" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K89" s="32"/>
       <c r="L89" s="32"/>
     </row>
     <row r="90" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A90" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="D90" s="21" t="s">
         <v>294</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>295</v>
       </c>
       <c r="E90" s="27" t="s">
         <v>12</v>
@@ -3553,12 +3555,12 @@
     </row>
     <row r="91" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A91" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B91" s="26"/>
       <c r="C91" s="26"/>
       <c r="D91" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E91" s="26" t="s">
         <v>12</v>
@@ -3596,14 +3598,14 @@
     </row>
     <row r="93" spans="1:30" s="11" customFormat="1" ht="16.5">
       <c r="A93" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K93" s="32"/>
       <c r="L93" s="32"/>
     </row>
     <row r="94" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A94" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
@@ -3614,7 +3616,7 @@
         <v>2</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
@@ -3643,18 +3645,18 @@
     </row>
     <row r="95" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A95" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
       <c r="D95" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F95" s="10" t="s">
         <v>252</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F95" s="10" t="s">
-        <v>253</v>
       </c>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
@@ -3683,18 +3685,18 @@
     </row>
     <row r="96" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A96" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
       <c r="D96" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F96" s="10" t="s">
         <v>255</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>256</v>
       </c>
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
@@ -3723,18 +3725,18 @@
     </row>
     <row r="97" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A97" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F97" s="10" t="s">
         <v>258</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F97" s="10" t="s">
-        <v>259</v>
       </c>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
@@ -3763,18 +3765,18 @@
     </row>
     <row r="98" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A98" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
       <c r="D98" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F98" s="10" t="s">
         <v>261</v>
-      </c>
-      <c r="E98" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F98" s="10" t="s">
-        <v>262</v>
       </c>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
@@ -3803,18 +3805,18 @@
     </row>
     <row r="99" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A99" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
       <c r="D99" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F99" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F99" s="10" t="s">
-        <v>265</v>
       </c>
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
@@ -3875,7 +3877,7 @@
     </row>
     <row r="101" spans="1:30" s="11" customFormat="1" ht="16.5">
       <c r="A101" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -3909,7 +3911,7 @@
     </row>
     <row r="102" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A102" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
@@ -3920,7 +3922,7 @@
         <v>2</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
@@ -3949,64 +3951,64 @@
     </row>
     <row r="103" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A103" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="D103" s="10" t="s">
         <v>267</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>268</v>
       </c>
       <c r="E103" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K103" s="32"/>
       <c r="L103" s="32"/>
     </row>
     <row r="104" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A104" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="D104" s="10" t="s">
         <v>270</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>271</v>
       </c>
       <c r="E104" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K104" s="32"/>
       <c r="L104" s="32"/>
     </row>
     <row r="105" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A105" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="D105" s="10" t="s">
         <v>273</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>274</v>
       </c>
       <c r="E105" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K105" s="32"/>
       <c r="L105" s="32"/>
     </row>
     <row r="106" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A106" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D106" s="21" t="s">
         <v>276</v>
-      </c>
-      <c r="D106" s="21" t="s">
-        <v>277</v>
       </c>
       <c r="E106" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K106" s="32"/>
       <c r="L106" s="32"/>

--- a/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
+++ b/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
@@ -1519,7 +1519,9 @@
   </sheetPr>
   <dimension ref="A1:AD991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:XFD100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>

--- a/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
+++ b/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
@@ -70,6 +70,9 @@
     <t>Limited</t>
   </si>
   <si>
+    <t>FairValueInputsLevel1AndLevel2Member, FairValueInputsLevel2AndLevel3Member, InvestmentsNetAssetValueMember</t>
+  </si>
+  <si>
     <t>DQC_0001.52</t>
   </si>
   <si>
@@ -921,9 +924,6 @@
   <si>
     <t xml:space="preserve">CorporateReconcilingItemsAndEliminationsMember, CorporateAndReconcilingItemsMember, CorporateAndEliminationsMember, EliminationsAndReconcilingItemsMember, OperatingSegmentsAndCorporateNonSegmentMember, OperatingSegmentsExcludingIntersegmentEliminationMember
 </t>
-  </si>
-  <si>
-    <t>FairValueInputsLevel1AndLevel2Member, FairValueInputsLevel2AndLevel3Member, FairValueInputsLevel12And3Member, FairValueInputsLevel1AndLevel3Member, FairValueMeasuredAtNetAssetValuePerShareMember</t>
   </si>
 </sst>
 </file>
@@ -1519,8 +1519,8 @@
   </sheetPr>
   <dimension ref="A1:AD991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1569,10 +1569,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -1617,7 +1617,7 @@
         <v>16</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>301</v>
+        <v>17</v>
       </c>
       <c r="K2" s="36">
         <v>3</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="3" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A3" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>11</v>
@@ -1635,10 +1635,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>15</v>
@@ -1646,7 +1646,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="37">
@@ -1656,7 +1656,7 @@
     </row>
     <row r="4" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A4" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -1665,13 +1665,13 @@
         <v>12</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
@@ -1686,28 +1686,28 @@
     </row>
     <row r="5" spans="1:29" s="11" customFormat="1" ht="60">
       <c r="A5" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>15</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="6" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A6" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -1729,13 +1729,13 @@
         <v>12</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
@@ -1750,22 +1750,22 @@
     </row>
     <row r="7" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A7" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
@@ -1774,39 +1774,39 @@
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="38" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:29" s="11" customFormat="1" ht="156">
       <c r="A8" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="38" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L8" s="32"/>
       <c r="M8" s="10"/>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="9" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A9" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>11</v>
@@ -1830,13 +1830,13 @@
         <v>12</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
@@ -1851,22 +1851,22 @@
     </row>
     <row r="10" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A10" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
@@ -1881,19 +1881,19 @@
     </row>
     <row r="11" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A11" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>15</v>
@@ -1904,16 +1904,16 @@
         <v>16</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A12" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>11</v>
@@ -1922,10 +1922,10 @@
         <v>12</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>15</v>
@@ -1936,7 +1936,7 @@
         <v>16</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K12" s="37">
         <v>3</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="13" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A13" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -1954,10 +1954,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>15</v>
@@ -1965,7 +1965,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="37">
@@ -1975,7 +1975,7 @@
     </row>
     <row r="14" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A14" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>11</v>
@@ -1984,10 +1984,10 @@
         <v>12</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>15</v>
@@ -1995,7 +1995,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="37">
@@ -2005,7 +2005,7 @@
     </row>
     <row r="15" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A15" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>11</v>
@@ -2014,10 +2014,10 @@
         <v>12</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>15</v>
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K15" s="37">
         <v>3</v>
@@ -2037,53 +2037,53 @@
     </row>
     <row r="16" spans="1:29" s="11" customFormat="1" ht="312.75" thickBot="1">
       <c r="A16" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="38" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L16" s="32"/>
     </row>
     <row r="17" spans="1:30" s="11" customFormat="1" ht="84">
       <c r="A17" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>15</v>
@@ -2094,16 +2094,16 @@
         <v>16</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L17" s="32"/>
     </row>
     <row r="18" spans="1:30" s="11" customFormat="1" ht="96">
       <c r="A18" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>11</v>
@@ -2112,16 +2112,16 @@
         <v>12</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="10" t="s">
@@ -2135,7 +2135,7 @@
     </row>
     <row r="19" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A19" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>11</v>
@@ -2144,13 +2144,13 @@
         <v>12</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="20" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A20" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>11</v>
@@ -2174,10 +2174,10 @@
         <v>12</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>15</v>
@@ -2185,7 +2185,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="37">
@@ -2195,7 +2195,7 @@
     </row>
     <row r="21" spans="1:30" s="24" customFormat="1" ht="204">
       <c r="A21" s="29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>11</v>
@@ -2204,30 +2204,30 @@
         <v>12</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F21" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="31" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I21" s="29" t="s">
         <v>15</v>
       </c>
       <c r="J21" s="29"/>
       <c r="K21" s="38" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L21" s="32"/>
     </row>
     <row r="22" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A22" s="29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B22" s="29" t="s">
         <v>11</v>
@@ -2236,10 +2236,10 @@
         <v>12</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>15</v>
@@ -2257,19 +2257,19 @@
     </row>
     <row r="23" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A23" s="29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B23" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>15</v>
@@ -2277,17 +2277,17 @@
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
       <c r="I23" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J23" s="29"/>
       <c r="K23" s="38" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L23" s="32"/>
     </row>
     <row r="24" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A24" s="31" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B24" s="31" t="s">
         <v>11</v>
@@ -2296,13 +2296,13 @@
         <v>12</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="25" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A25" s="31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B25" s="31" t="s">
         <v>11</v>
@@ -2344,13 +2344,13 @@
         <v>12</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
@@ -2385,22 +2385,22 @@
     </row>
     <row r="26" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A26" s="31" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B26" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
@@ -2435,22 +2435,22 @@
     </row>
     <row r="27" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A27" s="31" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B27" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G27" s="31"/>
       <c r="H27" s="31"/>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="32" spans="1:30" s="11" customFormat="1" ht="16.5">
       <c r="A32" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="33" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A33" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -2593,259 +2593,259 @@
         <v>2</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
     <row r="34" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A34" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A35" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
     <row r="36" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A36" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K36" s="32"/>
       <c r="L36" s="32"/>
     </row>
     <row r="37" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A37" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K37" s="32"/>
       <c r="L37" s="32"/>
     </row>
     <row r="38" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A38" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K38" s="32"/>
       <c r="L38" s="32"/>
     </row>
     <row r="39" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A39" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K39" s="32"/>
       <c r="L39" s="32"/>
     </row>
     <row r="40" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A40" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
     <row r="41" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A41" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
     <row r="42" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A42" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K42" s="32"/>
       <c r="L42" s="32"/>
     </row>
     <row r="43" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A43" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K43" s="32"/>
       <c r="L43" s="32"/>
     </row>
     <row r="44" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A44" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K44" s="32"/>
       <c r="L44" s="32"/>
     </row>
     <row r="45" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A45" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K45" s="32"/>
       <c r="L45" s="32"/>
     </row>
     <row r="46" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A46" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K46" s="32"/>
       <c r="L46" s="32"/>
     </row>
     <row r="47" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A47" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K47" s="32"/>
       <c r="L47" s="32"/>
@@ -2856,14 +2856,14 @@
     </row>
     <row r="49" spans="1:12" s="11" customFormat="1" ht="16.5">
       <c r="A49" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K49" s="32"/>
       <c r="L49" s="32"/>
     </row>
     <row r="50" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A50" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -2874,159 +2874,159 @@
         <v>2</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
     </row>
     <row r="51" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A51" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K51" s="32"/>
       <c r="L51" s="32"/>
     </row>
     <row r="52" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A52" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K52" s="32"/>
       <c r="L52" s="32"/>
     </row>
     <row r="53" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A53" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K53" s="32"/>
       <c r="L53" s="32"/>
     </row>
     <row r="54" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A54" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K54" s="32"/>
       <c r="L54" s="32"/>
     </row>
     <row r="55" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A55" s="21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K55" s="32"/>
       <c r="L55" s="32"/>
     </row>
     <row r="56" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A56" s="21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K56" s="32"/>
       <c r="L56" s="32"/>
     </row>
     <row r="57" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A57" s="21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K57" s="32"/>
       <c r="L57" s="32"/>
     </row>
     <row r="58" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A58" s="21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K58" s="32"/>
       <c r="L58" s="32"/>
     </row>
     <row r="59" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A59" s="21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K59" s="32"/>
       <c r="L59" s="32"/>
@@ -3038,14 +3038,14 @@
     </row>
     <row r="61" spans="1:12" s="11" customFormat="1" ht="16.5">
       <c r="A61" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K61" s="32"/>
       <c r="L61" s="32"/>
     </row>
     <row r="62" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A62" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
@@ -3056,495 +3056,495 @@
         <v>2</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K62" s="32"/>
       <c r="L62" s="32"/>
     </row>
     <row r="63" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A63" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K63" s="32"/>
       <c r="L63" s="32"/>
     </row>
     <row r="64" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A64" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K64" s="32"/>
       <c r="L64" s="32"/>
     </row>
     <row r="65" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A65" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K65" s="32"/>
       <c r="L65" s="32"/>
     </row>
     <row r="66" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A66" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K66" s="32"/>
       <c r="L66" s="32"/>
     </row>
     <row r="67" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A67" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K67" s="32"/>
       <c r="L67" s="32"/>
     </row>
     <row r="68" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A68" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K68" s="32"/>
       <c r="L68" s="32"/>
     </row>
     <row r="69" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A69" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K69" s="32"/>
       <c r="L69" s="32"/>
     </row>
     <row r="70" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A70" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K70" s="32"/>
       <c r="L70" s="32"/>
     </row>
     <row r="71" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A71" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K71" s="32"/>
       <c r="L71" s="32"/>
     </row>
     <row r="72" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A72" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K72" s="32"/>
       <c r="L72" s="32"/>
     </row>
     <row r="73" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A73" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K73" s="32"/>
       <c r="L73" s="32"/>
     </row>
     <row r="74" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A74" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K74" s="32"/>
       <c r="L74" s="32"/>
     </row>
     <row r="75" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A75" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K75" s="32"/>
       <c r="L75" s="32"/>
     </row>
     <row r="76" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A76" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K76" s="32"/>
       <c r="L76" s="32"/>
     </row>
     <row r="77" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A77" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K77" s="32"/>
       <c r="L77" s="32"/>
     </row>
     <row r="78" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A78" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K78" s="32"/>
       <c r="L78" s="32"/>
     </row>
     <row r="79" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A79" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K79" s="32"/>
       <c r="L79" s="32"/>
     </row>
     <row r="80" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A80" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K80" s="32"/>
       <c r="L80" s="32"/>
     </row>
     <row r="81" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A81" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K81" s="32"/>
       <c r="L81" s="32"/>
     </row>
     <row r="82" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A82" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K82" s="32"/>
       <c r="L82" s="32"/>
     </row>
     <row r="83" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A83" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K83" s="32"/>
       <c r="L83" s="32"/>
     </row>
     <row r="84" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A84" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K84" s="32"/>
       <c r="L84" s="32"/>
     </row>
     <row r="85" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A85" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K85" s="32"/>
       <c r="L85" s="32"/>
     </row>
     <row r="86" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A86" s="21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E86" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K86" s="32"/>
       <c r="L86" s="32"/>
     </row>
     <row r="87" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A87" s="21" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E87" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K87" s="32"/>
       <c r="L87" s="32"/>
     </row>
     <row r="88" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A88" s="21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E88" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F88" s="21" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K88" s="32"/>
       <c r="L88" s="32"/>
     </row>
     <row r="89" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A89" s="22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E89" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K89" s="32"/>
       <c r="L89" s="32"/>
     </row>
     <row r="90" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A90" s="22" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E90" s="27" t="s">
         <v>12</v>
@@ -3555,12 +3555,12 @@
     </row>
     <row r="91" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A91" s="26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B91" s="26"/>
       <c r="C91" s="26"/>
       <c r="D91" s="26" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E91" s="26" t="s">
         <v>12</v>
@@ -3598,14 +3598,14 @@
     </row>
     <row r="93" spans="1:30" s="11" customFormat="1" ht="16.5">
       <c r="A93" s="16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K93" s="32"/>
       <c r="L93" s="32"/>
     </row>
     <row r="94" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A94" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
@@ -3616,7 +3616,7 @@
         <v>2</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
@@ -3645,18 +3645,18 @@
     </row>
     <row r="95" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A95" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
       <c r="D95" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
@@ -3685,18 +3685,18 @@
     </row>
     <row r="96" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A96" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
       <c r="D96" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
@@ -3725,18 +3725,18 @@
     </row>
     <row r="97" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A97" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
@@ -3765,18 +3765,18 @@
     </row>
     <row r="98" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A98" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
       <c r="D98" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
@@ -3805,18 +3805,18 @@
     </row>
     <row r="99" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A99" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
       <c r="D99" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
@@ -3877,7 +3877,7 @@
     </row>
     <row r="101" spans="1:30" s="11" customFormat="1" ht="16.5">
       <c r="A101" s="16" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="102" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A102" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
@@ -3922,7 +3922,7 @@
         <v>2</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
@@ -3951,64 +3951,64 @@
     </row>
     <row r="103" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A103" s="21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E103" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="21" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K103" s="32"/>
       <c r="L103" s="32"/>
     </row>
     <row r="104" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A104" s="21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E104" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K104" s="32"/>
       <c r="L104" s="32"/>
     </row>
     <row r="105" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A105" s="21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E105" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K105" s="32"/>
       <c r="L105" s="32"/>
     </row>
     <row r="106" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A106" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D106" s="21" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E106" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K106" s="32"/>
       <c r="L106" s="32"/>

--- a/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
+++ b/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="305">
   <si>
     <t>Rule element ID</t>
   </si>
@@ -767,9 +767,6 @@
   </si>
   <si>
     <t>Vehicles that are used primarily for transporting people.</t>
-  </si>
-  <si>
-    <t>Note 4 - Allowable US-GAAP Members on the ConsolidationItemsAxis</t>
   </si>
   <si>
     <t>CorporateReconcilingItemsAndEliminationsMember</t>
@@ -924,6 +921,18 @@
   <si>
     <t xml:space="preserve">CorporateReconcilingItemsAndEliminationsMember, CorporateAndReconcilingItemsMember, CorporateAndEliminationsMember, EliminationsAndReconcilingItemsMember, OperatingSegmentsAndCorporateNonSegmentMember, OperatingSegmentsExcludingIntersegmentEliminationMember
 </t>
+  </si>
+  <si>
+    <t>OperatingSegmentsExcludingIntersegmentEliminationMember</t>
+  </si>
+  <si>
+    <t>Operating Segments Excluding Intersegment Elimination [Member]</t>
+  </si>
+  <si>
+    <t>Represents the aggregate total of “Operating Segments” before intersegment eliminations.</t>
+  </si>
+  <si>
+    <t>Note 4 - Allowable extensions on the ConsolidationItemsAxis</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1220,6 +1229,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1517,7 +1528,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD991"/>
+  <dimension ref="A1:AD992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1567,10 +1578,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -1772,7 +1783,7 @@
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L7" s="32"/>
     </row>
@@ -1804,7 +1815,7 @@
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L8" s="32"/>
       <c r="M8" s="10"/>
@@ -1905,7 +1916,7 @@
         <v>53</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L11" s="32"/>
     </row>
@@ -2056,14 +2067,14 @@
         <v>71</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L16" s="32"/>
     </row>
@@ -2092,10 +2103,10 @@
         <v>16</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L17" s="32"/>
     </row>
@@ -2212,14 +2223,14 @@
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I21" s="29" t="s">
         <v>15</v>
       </c>
       <c r="J21" s="29"/>
       <c r="K21" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L21" s="32"/>
     </row>
@@ -2279,13 +2290,13 @@
       </c>
       <c r="J23" s="29"/>
       <c r="K23" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L23" s="32"/>
     </row>
     <row r="24" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A24" s="31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B24" s="31" t="s">
         <v>11</v>
@@ -2294,10 +2305,10 @@
         <v>12</v>
       </c>
       <c r="D24" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="E24" s="31" t="s">
         <v>280</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>281</v>
       </c>
       <c r="F24" s="31" t="s">
         <v>25</v>
@@ -2333,7 +2344,7 @@
     </row>
     <row r="25" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A25" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B25" s="31" t="s">
         <v>11</v>
@@ -2342,10 +2353,10 @@
         <v>12</v>
       </c>
       <c r="D25" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="E25" s="31" t="s">
         <v>283</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>284</v>
       </c>
       <c r="F25" s="31" t="s">
         <v>25</v>
@@ -2383,19 +2394,19 @@
     </row>
     <row r="26" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A26" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B26" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="D26" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="E26" s="31" t="s">
         <v>287</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>288</v>
       </c>
       <c r="F26" s="31" t="s">
         <v>25</v>
@@ -2433,19 +2444,19 @@
     </row>
     <row r="27" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A27" s="31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B27" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D27" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="E27" s="31" t="s">
         <v>290</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>291</v>
       </c>
       <c r="F27" s="31" t="s">
         <v>25</v>
@@ -3539,10 +3550,10 @@
     </row>
     <row r="90" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A90" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="D90" s="21" t="s">
         <v>294</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>295</v>
       </c>
       <c r="E90" s="27" t="s">
         <v>12</v>
@@ -3553,12 +3564,12 @@
     </row>
     <row r="91" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A91" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B91" s="26"/>
       <c r="C91" s="26"/>
       <c r="D91" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E91" s="26" t="s">
         <v>12</v>
@@ -3596,7 +3607,7 @@
     </row>
     <row r="93" spans="1:30" s="11" customFormat="1" ht="16.5">
       <c r="A93" s="16" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="K93" s="32"/>
       <c r="L93" s="32"/>
@@ -3643,18 +3654,18 @@
     </row>
     <row r="95" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A95" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
       <c r="D95" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>142</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
@@ -3683,18 +3694,18 @@
     </row>
     <row r="96" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A96" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
       <c r="D96" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E96" s="10" t="s">
         <v>142</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
@@ -3723,18 +3734,18 @@
     </row>
     <row r="97" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A97" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E97" s="10" t="s">
         <v>142</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
@@ -3763,18 +3774,18 @@
     </row>
     <row r="98" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A98" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
       <c r="D98" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E98" s="10" t="s">
         <v>142</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
@@ -3803,18 +3814,18 @@
     </row>
     <row r="99" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A99" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
       <c r="D99" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E99" s="10" t="s">
         <v>142</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
@@ -3841,87 +3852,60 @@
       <c r="AC99" s="10"/>
       <c r="AD99" s="10"/>
     </row>
-    <row r="100" spans="1:30" s="11" customFormat="1" ht="12.75">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10"/>
-      <c r="K100" s="32"/>
-      <c r="L100" s="32"/>
-      <c r="M100" s="10"/>
-      <c r="N100" s="10"/>
-      <c r="O100" s="10"/>
-      <c r="P100" s="10"/>
-      <c r="Q100" s="10"/>
-      <c r="R100" s="10"/>
-      <c r="S100" s="10"/>
-      <c r="T100" s="10"/>
-      <c r="U100" s="10"/>
-      <c r="V100" s="10"/>
-      <c r="W100" s="10"/>
-      <c r="X100" s="10"/>
-      <c r="Y100" s="10"/>
-      <c r="Z100" s="10"/>
-      <c r="AA100" s="10"/>
-      <c r="AB100" s="10"/>
-      <c r="AC100" s="10"/>
-      <c r="AD100" s="10"/>
-    </row>
-    <row r="101" spans="1:30" s="11" customFormat="1" ht="16.5">
-      <c r="A101" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="10"/>
+    <row r="100" spans="1:30" s="11" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A100" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="B100" s="26"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="E100" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F100" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="G100" s="26"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="26"/>
+      <c r="J100" s="26"/>
+      <c r="K100" s="26"/>
+      <c r="L100" s="26"/>
+      <c r="M100" s="26"/>
+      <c r="N100" s="26"/>
+      <c r="O100" s="26"/>
+      <c r="P100" s="26"/>
+      <c r="Q100" s="26"/>
+      <c r="R100" s="26"/>
+      <c r="S100" s="26"/>
+      <c r="T100" s="26"/>
+      <c r="U100" s="26"/>
+      <c r="V100" s="26"/>
+      <c r="W100" s="26"/>
+      <c r="X100" s="26"/>
+      <c r="Y100" s="26"/>
+      <c r="Z100" s="26"/>
+      <c r="AA100" s="26"/>
+      <c r="AB100" s="26"/>
+      <c r="AC100" s="26"/>
+      <c r="AD100" s="26"/>
+    </row>
+    <row r="101" spans="1:30" s="24" customFormat="1" ht="16.5">
+      <c r="A101" s="25"/>
       <c r="K101" s="32"/>
       <c r="L101" s="32"/>
-      <c r="M101" s="10"/>
-      <c r="N101" s="10"/>
-      <c r="O101" s="10"/>
-      <c r="P101" s="10"/>
-      <c r="Q101" s="10"/>
-      <c r="R101" s="10"/>
-      <c r="S101" s="10"/>
-      <c r="T101" s="10"/>
-      <c r="U101" s="10"/>
-      <c r="V101" s="10"/>
-      <c r="W101" s="10"/>
-      <c r="X101" s="10"/>
-      <c r="Y101" s="10"/>
-      <c r="Z101" s="10"/>
-      <c r="AA101" s="10"/>
-      <c r="AB101" s="10"/>
-      <c r="AC101" s="10"/>
-      <c r="AD101" s="10"/>
-    </row>
-    <row r="102" spans="1:30" s="11" customFormat="1" ht="12.75">
-      <c r="A102" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F102" s="18" t="s">
-        <v>96</v>
-      </c>
+    </row>
+    <row r="102" spans="1:30" s="11" customFormat="1" ht="16.5">
+      <c r="A102" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
@@ -3948,94 +3932,130 @@
       <c r="AD102" s="10"/>
     </row>
     <row r="103" spans="1:30" s="11" customFormat="1" ht="12.75">
-      <c r="A103" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="E103" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="21" t="s">
-        <v>269</v>
-      </c>
+      <c r="A103" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F103" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
       <c r="K103" s="32"/>
       <c r="L103" s="32"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10"/>
+      <c r="O103" s="10"/>
+      <c r="P103" s="10"/>
+      <c r="Q103" s="10"/>
+      <c r="R103" s="10"/>
+      <c r="S103" s="10"/>
+      <c r="T103" s="10"/>
+      <c r="U103" s="10"/>
+      <c r="V103" s="10"/>
+      <c r="W103" s="10"/>
+      <c r="X103" s="10"/>
+      <c r="Y103" s="10"/>
+      <c r="Z103" s="10"/>
+      <c r="AA103" s="10"/>
+      <c r="AB103" s="10"/>
+      <c r="AC103" s="10"/>
+      <c r="AD103" s="10"/>
     </row>
     <row r="104" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A104" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E104" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="21" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K104" s="32"/>
       <c r="L104" s="32"/>
     </row>
     <row r="105" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A105" s="21" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E105" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K105" s="32"/>
       <c r="L105" s="32"/>
     </row>
     <row r="106" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A106" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="D106" s="21" t="s">
-        <v>277</v>
+        <v>272</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>273</v>
       </c>
       <c r="E106" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K106" s="32"/>
       <c r="L106" s="32"/>
     </row>
-    <row r="107" spans="1:30" s="11" customFormat="1" ht="15.75" customHeight="1">
+    <row r="107" spans="1:30" s="11" customFormat="1" ht="12.75">
+      <c r="A107" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="E107" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="21" t="s">
+        <v>277</v>
+      </c>
       <c r="K107" s="32"/>
       <c r="L107" s="32"/>
     </row>
-    <row r="108" spans="1:30" s="11" customFormat="1" ht="16.5">
-      <c r="A108" s="16"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
+    <row r="108" spans="1:30" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="K108" s="32"/>
       <c r="L108" s="32"/>
     </row>
-    <row r="109" spans="1:30" s="1" customFormat="1" ht="12.75">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
+    <row r="109" spans="1:30" s="11" customFormat="1" ht="16.5">
+      <c r="A109" s="16"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
       <c r="K109" s="32"/>
       <c r="L109" s="32"/>
     </row>
-    <row r="110" spans="1:30" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="110" spans="1:30" s="1" customFormat="1" ht="12.75">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
       <c r="K110" s="32"/>
       <c r="L110" s="32"/>
     </row>
@@ -4043,7 +4063,7 @@
       <c r="K111" s="32"/>
       <c r="L111" s="32"/>
     </row>
-    <row r="112" spans="1:30" ht="15.75" customHeight="1">
+    <row r="112" spans="1:30" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="K112" s="32"/>
       <c r="L112" s="32"/>
     </row>
@@ -7562,6 +7582,10 @@
     <row r="991" spans="11:12" ht="15.75" customHeight="1">
       <c r="K991" s="32"/>
       <c r="L991" s="32"/>
+    </row>
+    <row r="992" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K992" s="32"/>
+      <c r="L992" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>

--- a/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
+++ b/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="305">
   <si>
     <t>Rule element ID</t>
   </si>
@@ -767,9 +767,6 @@
   </si>
   <si>
     <t>Vehicles that are used primarily for transporting people.</t>
-  </si>
-  <si>
-    <t>Note 4 - Allowable US-GAAP Members on the ConsolidationItemsAxis</t>
   </si>
   <si>
     <t>CorporateReconcilingItemsAndEliminationsMember</t>
@@ -924,6 +921,18 @@
   <si>
     <t xml:space="preserve">CorporateReconcilingItemsAndEliminationsMember, CorporateAndReconcilingItemsMember, CorporateAndEliminationsMember, EliminationsAndReconcilingItemsMember, OperatingSegmentsAndCorporateNonSegmentMember, OperatingSegmentsExcludingIntersegmentEliminationMember
 </t>
+  </si>
+  <si>
+    <t>OperatingSegmentsExcludingIntersegmentEliminationMember</t>
+  </si>
+  <si>
+    <t>Operating Segments Excluding Intersegment Elimination [Member]</t>
+  </si>
+  <si>
+    <t>Represents the aggregate total of “Operating Segments” before intersegment eliminations.</t>
+  </si>
+  <si>
+    <t>Note 4 - Allowable extensions on the ConsolidationItemsAxis</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1220,6 +1229,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1517,11 +1528,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD991"/>
+  <dimension ref="A1:AD992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:XFD100"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1569,10 +1578,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -1774,7 +1783,7 @@
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L7" s="32"/>
     </row>
@@ -1806,7 +1815,7 @@
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L8" s="32"/>
       <c r="M8" s="10"/>
@@ -1907,7 +1916,7 @@
         <v>53</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L11" s="32"/>
     </row>
@@ -2058,14 +2067,14 @@
         <v>71</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L16" s="32"/>
     </row>
@@ -2094,10 +2103,10 @@
         <v>16</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L17" s="32"/>
     </row>
@@ -2214,14 +2223,14 @@
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I21" s="29" t="s">
         <v>15</v>
       </c>
       <c r="J21" s="29"/>
       <c r="K21" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L21" s="32"/>
     </row>
@@ -2281,13 +2290,13 @@
       </c>
       <c r="J23" s="29"/>
       <c r="K23" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L23" s="32"/>
     </row>
     <row r="24" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A24" s="31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B24" s="31" t="s">
         <v>11</v>
@@ -2296,10 +2305,10 @@
         <v>12</v>
       </c>
       <c r="D24" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="E24" s="31" t="s">
         <v>280</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>281</v>
       </c>
       <c r="F24" s="31" t="s">
         <v>25</v>
@@ -2335,7 +2344,7 @@
     </row>
     <row r="25" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A25" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B25" s="31" t="s">
         <v>11</v>
@@ -2344,10 +2353,10 @@
         <v>12</v>
       </c>
       <c r="D25" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="E25" s="31" t="s">
         <v>283</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>284</v>
       </c>
       <c r="F25" s="31" t="s">
         <v>25</v>
@@ -2385,19 +2394,19 @@
     </row>
     <row r="26" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A26" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B26" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="D26" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="E26" s="31" t="s">
         <v>287</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>288</v>
       </c>
       <c r="F26" s="31" t="s">
         <v>25</v>
@@ -2435,19 +2444,19 @@
     </row>
     <row r="27" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A27" s="31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B27" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D27" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="E27" s="31" t="s">
         <v>290</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>291</v>
       </c>
       <c r="F27" s="31" t="s">
         <v>25</v>
@@ -3541,10 +3550,10 @@
     </row>
     <row r="90" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A90" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="D90" s="21" t="s">
         <v>294</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>295</v>
       </c>
       <c r="E90" s="27" t="s">
         <v>12</v>
@@ -3555,12 +3564,12 @@
     </row>
     <row r="91" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A91" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B91" s="26"/>
       <c r="C91" s="26"/>
       <c r="D91" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E91" s="26" t="s">
         <v>12</v>
@@ -3598,7 +3607,7 @@
     </row>
     <row r="93" spans="1:30" s="11" customFormat="1" ht="16.5">
       <c r="A93" s="16" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="K93" s="32"/>
       <c r="L93" s="32"/>
@@ -3645,18 +3654,18 @@
     </row>
     <row r="95" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A95" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
       <c r="D95" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>142</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
@@ -3685,18 +3694,18 @@
     </row>
     <row r="96" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A96" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
       <c r="D96" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E96" s="10" t="s">
         <v>142</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
@@ -3725,18 +3734,18 @@
     </row>
     <row r="97" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A97" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E97" s="10" t="s">
         <v>142</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
@@ -3765,18 +3774,18 @@
     </row>
     <row r="98" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A98" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
       <c r="D98" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E98" s="10" t="s">
         <v>142</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
@@ -3805,18 +3814,18 @@
     </row>
     <row r="99" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A99" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
       <c r="D99" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E99" s="10" t="s">
         <v>142</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
@@ -3843,87 +3852,60 @@
       <c r="AC99" s="10"/>
       <c r="AD99" s="10"/>
     </row>
-    <row r="100" spans="1:30" s="11" customFormat="1" ht="12.75">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10"/>
-      <c r="K100" s="32"/>
-      <c r="L100" s="32"/>
-      <c r="M100" s="10"/>
-      <c r="N100" s="10"/>
-      <c r="O100" s="10"/>
-      <c r="P100" s="10"/>
-      <c r="Q100" s="10"/>
-      <c r="R100" s="10"/>
-      <c r="S100" s="10"/>
-      <c r="T100" s="10"/>
-      <c r="U100" s="10"/>
-      <c r="V100" s="10"/>
-      <c r="W100" s="10"/>
-      <c r="X100" s="10"/>
-      <c r="Y100" s="10"/>
-      <c r="Z100" s="10"/>
-      <c r="AA100" s="10"/>
-      <c r="AB100" s="10"/>
-      <c r="AC100" s="10"/>
-      <c r="AD100" s="10"/>
-    </row>
-    <row r="101" spans="1:30" s="11" customFormat="1" ht="16.5">
-      <c r="A101" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="10"/>
+    <row r="100" spans="1:30" s="11" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A100" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="B100" s="26"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="E100" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F100" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="G100" s="26"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="26"/>
+      <c r="J100" s="26"/>
+      <c r="K100" s="26"/>
+      <c r="L100" s="26"/>
+      <c r="M100" s="26"/>
+      <c r="N100" s="26"/>
+      <c r="O100" s="26"/>
+      <c r="P100" s="26"/>
+      <c r="Q100" s="26"/>
+      <c r="R100" s="26"/>
+      <c r="S100" s="26"/>
+      <c r="T100" s="26"/>
+      <c r="U100" s="26"/>
+      <c r="V100" s="26"/>
+      <c r="W100" s="26"/>
+      <c r="X100" s="26"/>
+      <c r="Y100" s="26"/>
+      <c r="Z100" s="26"/>
+      <c r="AA100" s="26"/>
+      <c r="AB100" s="26"/>
+      <c r="AC100" s="26"/>
+      <c r="AD100" s="26"/>
+    </row>
+    <row r="101" spans="1:30" s="24" customFormat="1" ht="16.5">
+      <c r="A101" s="25"/>
       <c r="K101" s="32"/>
       <c r="L101" s="32"/>
-      <c r="M101" s="10"/>
-      <c r="N101" s="10"/>
-      <c r="O101" s="10"/>
-      <c r="P101" s="10"/>
-      <c r="Q101" s="10"/>
-      <c r="R101" s="10"/>
-      <c r="S101" s="10"/>
-      <c r="T101" s="10"/>
-      <c r="U101" s="10"/>
-      <c r="V101" s="10"/>
-      <c r="W101" s="10"/>
-      <c r="X101" s="10"/>
-      <c r="Y101" s="10"/>
-      <c r="Z101" s="10"/>
-      <c r="AA101" s="10"/>
-      <c r="AB101" s="10"/>
-      <c r="AC101" s="10"/>
-      <c r="AD101" s="10"/>
-    </row>
-    <row r="102" spans="1:30" s="11" customFormat="1" ht="12.75">
-      <c r="A102" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F102" s="18" t="s">
-        <v>96</v>
-      </c>
+    </row>
+    <row r="102" spans="1:30" s="11" customFormat="1" ht="16.5">
+      <c r="A102" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
@@ -3950,94 +3932,130 @@
       <c r="AD102" s="10"/>
     </row>
     <row r="103" spans="1:30" s="11" customFormat="1" ht="12.75">
-      <c r="A103" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="E103" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="21" t="s">
-        <v>269</v>
-      </c>
+      <c r="A103" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F103" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
       <c r="K103" s="32"/>
       <c r="L103" s="32"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10"/>
+      <c r="O103" s="10"/>
+      <c r="P103" s="10"/>
+      <c r="Q103" s="10"/>
+      <c r="R103" s="10"/>
+      <c r="S103" s="10"/>
+      <c r="T103" s="10"/>
+      <c r="U103" s="10"/>
+      <c r="V103" s="10"/>
+      <c r="W103" s="10"/>
+      <c r="X103" s="10"/>
+      <c r="Y103" s="10"/>
+      <c r="Z103" s="10"/>
+      <c r="AA103" s="10"/>
+      <c r="AB103" s="10"/>
+      <c r="AC103" s="10"/>
+      <c r="AD103" s="10"/>
     </row>
     <row r="104" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A104" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E104" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="21" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K104" s="32"/>
       <c r="L104" s="32"/>
     </row>
     <row r="105" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A105" s="21" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E105" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K105" s="32"/>
       <c r="L105" s="32"/>
     </row>
     <row r="106" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A106" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="D106" s="21" t="s">
-        <v>277</v>
+        <v>272</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>273</v>
       </c>
       <c r="E106" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K106" s="32"/>
       <c r="L106" s="32"/>
     </row>
-    <row r="107" spans="1:30" s="11" customFormat="1" ht="15.75" customHeight="1">
+    <row r="107" spans="1:30" s="11" customFormat="1" ht="12.75">
+      <c r="A107" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="E107" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="21" t="s">
+        <v>277</v>
+      </c>
       <c r="K107" s="32"/>
       <c r="L107" s="32"/>
     </row>
-    <row r="108" spans="1:30" s="11" customFormat="1" ht="16.5">
-      <c r="A108" s="16"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
+    <row r="108" spans="1:30" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="K108" s="32"/>
       <c r="L108" s="32"/>
     </row>
-    <row r="109" spans="1:30" s="1" customFormat="1" ht="12.75">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
+    <row r="109" spans="1:30" s="11" customFormat="1" ht="16.5">
+      <c r="A109" s="16"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
       <c r="K109" s="32"/>
       <c r="L109" s="32"/>
     </row>
-    <row r="110" spans="1:30" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="110" spans="1:30" s="1" customFormat="1" ht="12.75">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
       <c r="K110" s="32"/>
       <c r="L110" s="32"/>
     </row>
@@ -4045,7 +4063,7 @@
       <c r="K111" s="32"/>
       <c r="L111" s="32"/>
     </row>
-    <row r="112" spans="1:30" ht="15.75" customHeight="1">
+    <row r="112" spans="1:30" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="K112" s="32"/>
       <c r="L112" s="32"/>
     </row>
@@ -7564,6 +7582,10 @@
     <row r="991" spans="11:12" ht="15.75" customHeight="1">
       <c r="K991" s="32"/>
       <c r="L991" s="32"/>
+    </row>
+    <row r="992" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K992" s="32"/>
+      <c r="L992" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>

--- a/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
+++ b/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
@@ -145,9 +145,6 @@
     <t>Counterparty Name [Axis]</t>
   </si>
   <si>
-    <t xml:space="preserve">AffiliatedEntityMember, InvestorMember, VariableInterestEntityNotPrimaryBeneficiaryMember, ChiefFinancialOfficerMember, IndividualMember, GovernmentMember, GuarantorSubsidiariesMember, SubsidiaryIssuerMember, DirectorMember, ChiefExecutiveOfficerMember,  ChiefOperatingOfficerMember, GeneralPartnerMember, CorporateJointVentureMember, SubsidiaryOfCommonParentMember, </t>
-  </si>
-  <si>
     <t>DQC_0001.59</t>
   </si>
   <si>
@@ -933,6 +930,9 @@
   </si>
   <si>
     <t>Note 4 - Allowable extensions on the ConsolidationItemsAxis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AffiliatedEntityMember, InvestorMember, VariableInterestEntityNotPrimaryBeneficiaryMember, ChiefFinancialOfficerMember, IndividualMember, GovernmentMember, GuarantorSubsidiariesMember, SubsidiaryIssuerMember, DirectorMember, ChiefExecutiveOfficerMember, ChiefOperatingOfficerMember, GeneralPartnerMember, CorporateJointVentureMember, SubsidiaryOfCommonParentMember, IndividuallyImmaterialCounterpartiesMember </t>
   </si>
 </sst>
 </file>
@@ -948,11 +948,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
@@ -963,27 +965,32 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1578,10 +1585,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -1783,11 +1790,11 @@
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:29" s="11" customFormat="1" ht="156">
+    <row r="8" spans="1:29" s="11" customFormat="1" ht="180">
       <c r="A8" s="12" t="s">
         <v>39</v>
       </c>
@@ -1804,18 +1811,18 @@
         <v>41</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="s">
-        <v>42</v>
+        <v>304</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L8" s="32"/>
       <c r="M8" s="10"/>
@@ -1830,7 +1837,7 @@
     </row>
     <row r="9" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A9" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>11</v>
@@ -1839,10 +1846,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>25</v>
@@ -1860,19 +1867,19 @@
     </row>
     <row r="10" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>25</v>
@@ -1890,7 +1897,7 @@
     </row>
     <row r="11" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A11" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>11</v>
@@ -1899,10 +1906,10 @@
         <v>36</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>15</v>
@@ -1913,16 +1920,16 @@
         <v>16</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A12" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>11</v>
@@ -1931,10 +1938,10 @@
         <v>12</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>15</v>
@@ -1945,7 +1952,7 @@
         <v>16</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K12" s="37">
         <v>3</v>
@@ -1954,7 +1961,7 @@
     </row>
     <row r="13" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A13" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -1963,10 +1970,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>15</v>
@@ -1984,7 +1991,7 @@
     </row>
     <row r="14" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A14" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>11</v>
@@ -1993,10 +2000,10 @@
         <v>12</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>15</v>
@@ -2014,7 +2021,7 @@
     </row>
     <row r="15" spans="1:29" s="11" customFormat="1" ht="12.75">
       <c r="A15" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>11</v>
@@ -2023,10 +2030,10 @@
         <v>12</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>15</v>
@@ -2037,7 +2044,7 @@
         <v>16</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K15" s="37">
         <v>3</v>
@@ -2046,7 +2053,7 @@
     </row>
     <row r="16" spans="1:29" s="11" customFormat="1" ht="312.75" thickBot="1">
       <c r="A16" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>11</v>
@@ -2055,32 +2062,32 @@
         <v>36</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L16" s="32"/>
     </row>
     <row r="17" spans="1:30" s="11" customFormat="1" ht="84">
       <c r="A17" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>11</v>
@@ -2089,10 +2096,10 @@
         <v>36</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>15</v>
@@ -2103,16 +2110,16 @@
         <v>16</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L17" s="32"/>
     </row>
     <row r="18" spans="1:30" s="11" customFormat="1" ht="96">
       <c r="A18" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>11</v>
@@ -2121,16 +2128,16 @@
         <v>12</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="10" t="s">
@@ -2144,7 +2151,7 @@
     </row>
     <row r="19" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A19" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>11</v>
@@ -2153,10 +2160,10 @@
         <v>12</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>25</v>
@@ -2174,7 +2181,7 @@
     </row>
     <row r="20" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A20" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>11</v>
@@ -2183,10 +2190,10 @@
         <v>12</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>15</v>
@@ -2204,7 +2211,7 @@
     </row>
     <row r="21" spans="1:30" s="24" customFormat="1" ht="204">
       <c r="A21" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>11</v>
@@ -2213,30 +2220,30 @@
         <v>12</v>
       </c>
       <c r="D21" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="29" t="s">
         <v>86</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>87</v>
       </c>
       <c r="F21" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I21" s="29" t="s">
         <v>15</v>
       </c>
       <c r="J21" s="29"/>
       <c r="K21" s="38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L21" s="32"/>
     </row>
     <row r="22" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A22" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="29" t="s">
         <v>11</v>
@@ -2245,10 +2252,10 @@
         <v>12</v>
       </c>
       <c r="D22" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>89</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>90</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>15</v>
@@ -2266,7 +2273,7 @@
     </row>
     <row r="23" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A23" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" s="29" t="s">
         <v>11</v>
@@ -2275,10 +2282,10 @@
         <v>36</v>
       </c>
       <c r="D23" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="29" t="s">
         <v>92</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>93</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>15</v>
@@ -2290,13 +2297,13 @@
       </c>
       <c r="J23" s="29"/>
       <c r="K23" s="38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L23" s="32"/>
     </row>
     <row r="24" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A24" s="31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B24" s="31" t="s">
         <v>11</v>
@@ -2305,10 +2312,10 @@
         <v>12</v>
       </c>
       <c r="D24" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="E24" s="31" t="s">
         <v>279</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>280</v>
       </c>
       <c r="F24" s="31" t="s">
         <v>25</v>
@@ -2344,7 +2351,7 @@
     </row>
     <row r="25" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A25" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B25" s="31" t="s">
         <v>11</v>
@@ -2353,10 +2360,10 @@
         <v>12</v>
       </c>
       <c r="D25" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="E25" s="31" t="s">
         <v>282</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>283</v>
       </c>
       <c r="F25" s="31" t="s">
         <v>25</v>
@@ -2394,19 +2401,19 @@
     </row>
     <row r="26" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A26" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B26" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="D26" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="E26" s="31" t="s">
         <v>286</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>287</v>
       </c>
       <c r="F26" s="31" t="s">
         <v>25</v>
@@ -2444,19 +2451,19 @@
     </row>
     <row r="27" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A27" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B27" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D27" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27" s="31" t="s">
         <v>289</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>290</v>
       </c>
       <c r="F27" s="31" t="s">
         <v>25</v>
@@ -2557,7 +2564,7 @@
     </row>
     <row r="32" spans="1:30" s="11" customFormat="1" ht="16.5">
       <c r="A32" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -2591,7 +2598,7 @@
     </row>
     <row r="33" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A33" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -2602,259 +2609,259 @@
         <v>2</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
     <row r="34" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A34" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A35" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
     <row r="36" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A36" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K36" s="32"/>
       <c r="L36" s="32"/>
     </row>
     <row r="37" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A37" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K37" s="32"/>
       <c r="L37" s="32"/>
     </row>
     <row r="38" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A38" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K38" s="32"/>
       <c r="L38" s="32"/>
     </row>
     <row r="39" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A39" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K39" s="32"/>
       <c r="L39" s="32"/>
     </row>
     <row r="40" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A40" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
     <row r="41" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A41" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
     <row r="42" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A42" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K42" s="32"/>
       <c r="L42" s="32"/>
     </row>
     <row r="43" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A43" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K43" s="32"/>
       <c r="L43" s="32"/>
     </row>
     <row r="44" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A44" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K44" s="32"/>
       <c r="L44" s="32"/>
     </row>
     <row r="45" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A45" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K45" s="32"/>
       <c r="L45" s="32"/>
     </row>
     <row r="46" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A46" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K46" s="32"/>
       <c r="L46" s="32"/>
     </row>
     <row r="47" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A47" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K47" s="32"/>
       <c r="L47" s="32"/>
@@ -2865,14 +2872,14 @@
     </row>
     <row r="49" spans="1:12" s="11" customFormat="1" ht="16.5">
       <c r="A49" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K49" s="32"/>
       <c r="L49" s="32"/>
     </row>
     <row r="50" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A50" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -2883,159 +2890,159 @@
         <v>2</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
     </row>
     <row r="51" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A51" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="F51" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>143</v>
       </c>
       <c r="K51" s="32"/>
       <c r="L51" s="32"/>
     </row>
     <row r="52" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A52" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F52" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>146</v>
       </c>
       <c r="K52" s="32"/>
       <c r="L52" s="32"/>
     </row>
     <row r="53" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A53" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F53" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>149</v>
       </c>
       <c r="K53" s="32"/>
       <c r="L53" s="32"/>
     </row>
     <row r="54" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A54" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F54" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>152</v>
       </c>
       <c r="K54" s="32"/>
       <c r="L54" s="32"/>
     </row>
     <row r="55" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A55" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="E55" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F55" s="21" t="s">
         <v>154</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>155</v>
       </c>
       <c r="K55" s="32"/>
       <c r="L55" s="32"/>
     </row>
     <row r="56" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A56" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="E56" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F56" s="21" t="s">
         <v>157</v>
-      </c>
-      <c r="E56" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="F56" s="21" t="s">
-        <v>158</v>
       </c>
       <c r="K56" s="32"/>
       <c r="L56" s="32"/>
     </row>
     <row r="57" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A57" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="E57" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F57" s="21" t="s">
         <v>160</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>161</v>
       </c>
       <c r="K57" s="32"/>
       <c r="L57" s="32"/>
     </row>
     <row r="58" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A58" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="E58" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F58" s="21" t="s">
         <v>163</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>164</v>
       </c>
       <c r="K58" s="32"/>
       <c r="L58" s="32"/>
     </row>
     <row r="59" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A59" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="E59" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F59" s="21" t="s">
         <v>166</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="F59" s="21" t="s">
-        <v>167</v>
       </c>
       <c r="K59" s="32"/>
       <c r="L59" s="32"/>
@@ -3047,14 +3054,14 @@
     </row>
     <row r="61" spans="1:12" s="11" customFormat="1" ht="16.5">
       <c r="A61" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K61" s="32"/>
       <c r="L61" s="32"/>
     </row>
     <row r="62" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A62" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
@@ -3065,495 +3072,495 @@
         <v>2</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K62" s="32"/>
       <c r="L62" s="32"/>
     </row>
     <row r="63" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A63" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K63" s="32"/>
       <c r="L63" s="32"/>
     </row>
     <row r="64" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A64" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K64" s="32"/>
       <c r="L64" s="32"/>
     </row>
     <row r="65" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A65" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K65" s="32"/>
       <c r="L65" s="32"/>
     </row>
     <row r="66" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A66" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K66" s="32"/>
       <c r="L66" s="32"/>
     </row>
     <row r="67" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A67" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K67" s="32"/>
       <c r="L67" s="32"/>
     </row>
     <row r="68" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A68" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K68" s="32"/>
       <c r="L68" s="32"/>
     </row>
     <row r="69" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A69" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K69" s="32"/>
       <c r="L69" s="32"/>
     </row>
     <row r="70" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A70" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K70" s="32"/>
       <c r="L70" s="32"/>
     </row>
     <row r="71" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A71" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K71" s="32"/>
       <c r="L71" s="32"/>
     </row>
     <row r="72" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A72" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K72" s="32"/>
       <c r="L72" s="32"/>
     </row>
     <row r="73" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A73" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K73" s="32"/>
       <c r="L73" s="32"/>
     </row>
     <row r="74" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A74" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K74" s="32"/>
       <c r="L74" s="32"/>
     </row>
     <row r="75" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A75" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K75" s="32"/>
       <c r="L75" s="32"/>
     </row>
     <row r="76" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A76" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K76" s="32"/>
       <c r="L76" s="32"/>
     </row>
     <row r="77" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A77" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K77" s="32"/>
       <c r="L77" s="32"/>
     </row>
     <row r="78" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A78" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K78" s="32"/>
       <c r="L78" s="32"/>
     </row>
     <row r="79" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A79" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K79" s="32"/>
       <c r="L79" s="32"/>
     </row>
     <row r="80" spans="1:12" s="11" customFormat="1" ht="12.75">
       <c r="A80" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K80" s="32"/>
       <c r="L80" s="32"/>
     </row>
     <row r="81" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A81" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K81" s="32"/>
       <c r="L81" s="32"/>
     </row>
     <row r="82" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A82" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K82" s="32"/>
       <c r="L82" s="32"/>
     </row>
     <row r="83" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A83" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K83" s="32"/>
       <c r="L83" s="32"/>
     </row>
     <row r="84" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A84" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K84" s="32"/>
       <c r="L84" s="32"/>
     </row>
     <row r="85" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A85" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K85" s="32"/>
       <c r="L85" s="32"/>
     </row>
     <row r="86" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A86" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D86" s="21" t="s">
         <v>238</v>
-      </c>
-      <c r="D86" s="21" t="s">
-        <v>239</v>
       </c>
       <c r="E86" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K86" s="32"/>
       <c r="L86" s="32"/>
     </row>
     <row r="87" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A87" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D87" s="21" t="s">
         <v>241</v>
-      </c>
-      <c r="D87" s="21" t="s">
-        <v>242</v>
       </c>
       <c r="E87" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K87" s="32"/>
       <c r="L87" s="32"/>
     </row>
     <row r="88" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A88" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D88" s="21" t="s">
         <v>244</v>
-      </c>
-      <c r="D88" s="21" t="s">
-        <v>245</v>
       </c>
       <c r="E88" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F88" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K88" s="32"/>
       <c r="L88" s="32"/>
     </row>
     <row r="89" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A89" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D89" s="21" t="s">
         <v>247</v>
-      </c>
-      <c r="D89" s="21" t="s">
-        <v>248</v>
       </c>
       <c r="E89" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K89" s="32"/>
       <c r="L89" s="32"/>
     </row>
     <row r="90" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A90" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="D90" s="21" t="s">
         <v>293</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>294</v>
       </c>
       <c r="E90" s="27" t="s">
         <v>12</v>
@@ -3564,12 +3571,12 @@
     </row>
     <row r="91" spans="1:30" s="24" customFormat="1" ht="12.75">
       <c r="A91" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B91" s="26"/>
       <c r="C91" s="26"/>
       <c r="D91" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E91" s="26" t="s">
         <v>12</v>
@@ -3607,14 +3614,14 @@
     </row>
     <row r="93" spans="1:30" s="11" customFormat="1" ht="16.5">
       <c r="A93" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K93" s="32"/>
       <c r="L93" s="32"/>
     </row>
     <row r="94" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A94" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
@@ -3625,7 +3632,7 @@
         <v>2</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
@@ -3654,18 +3661,18 @@
     </row>
     <row r="95" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A95" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
       <c r="D95" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F95" s="10" t="s">
         <v>251</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F95" s="10" t="s">
-        <v>252</v>
       </c>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
@@ -3694,18 +3701,18 @@
     </row>
     <row r="96" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A96" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
       <c r="D96" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F96" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>255</v>
       </c>
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
@@ -3734,18 +3741,18 @@
     </row>
     <row r="97" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A97" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F97" s="10" t="s">
         <v>257</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F97" s="10" t="s">
-        <v>258</v>
       </c>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
@@ -3774,18 +3781,18 @@
     </row>
     <row r="98" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A98" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
       <c r="D98" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F98" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="E98" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F98" s="10" t="s">
-        <v>261</v>
       </c>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
@@ -3814,18 +3821,18 @@
     </row>
     <row r="99" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A99" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
       <c r="D99" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F99" s="10" t="s">
         <v>263</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F99" s="10" t="s">
-        <v>264</v>
       </c>
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
@@ -3854,18 +3861,18 @@
     </row>
     <row r="100" spans="1:30" s="11" customFormat="1" ht="12.75" customHeight="1">
       <c r="A100" s="39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B100" s="26"/>
       <c r="C100" s="26"/>
       <c r="D100" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="E100" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F100" s="40" t="s">
         <v>302</v>
-      </c>
-      <c r="E100" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="F100" s="40" t="s">
-        <v>303</v>
       </c>
       <c r="G100" s="26"/>
       <c r="H100" s="26"/>
@@ -3899,7 +3906,7 @@
     </row>
     <row r="102" spans="1:30" s="11" customFormat="1" ht="16.5">
       <c r="A102" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -3933,7 +3940,7 @@
     </row>
     <row r="103" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A103" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B103" s="18"/>
       <c r="C103" s="18"/>
@@ -3944,7 +3951,7 @@
         <v>2</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
@@ -3973,64 +3980,64 @@
     </row>
     <row r="104" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A104" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="D104" s="10" t="s">
         <v>266</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>267</v>
       </c>
       <c r="E104" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K104" s="32"/>
       <c r="L104" s="32"/>
     </row>
     <row r="105" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A105" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D105" s="10" t="s">
         <v>269</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>270</v>
       </c>
       <c r="E105" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K105" s="32"/>
       <c r="L105" s="32"/>
     </row>
     <row r="106" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A106" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="D106" s="10" t="s">
         <v>272</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>273</v>
       </c>
       <c r="E106" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K106" s="32"/>
       <c r="L106" s="32"/>
     </row>
     <row r="107" spans="1:30" s="11" customFormat="1" ht="12.75">
       <c r="A107" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D107" s="21" t="s">
         <v>275</v>
-      </c>
-      <c r="D107" s="21" t="s">
-        <v>276</v>
       </c>
       <c r="E107" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F107" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K107" s="32"/>
       <c r="L107" s="32"/>

--- a/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
+++ b/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
@@ -296,9 +296,6 @@
     <t>Equity Components [Axis]</t>
   </si>
   <si>
-    <t>Before 2018: WarrantsNotSettleableInCashMember, ContingentConsiderationClassifiedAsEquityMember, EquityIssuedInBusinessCombinationMember, TrustForBenefitOfEmployeesMember; Added For 2018: AccumulatedNetGainLossFromCashFlowHedgesIncludingPortionAttributableToNoncontrollingInterestMember, AccumulatedNetGainLossFromDesignatedOrQualifyingCashFlowHedgesMember, AccumulatedNetGainLossFromCashFlowHedgesAttributableToNoncontrollingInterestMember</t>
-  </si>
-  <si>
     <t>DQC_0001.76</t>
   </si>
   <si>
@@ -939,6 +936,9 @@
   </si>
   <si>
     <t>Trust created by the entity that exists for the benefit of its employees, such as pension and profit-sharing trusts that are managed by or under the trusteeship of the entity's management.</t>
+  </si>
+  <si>
+    <t>Removed for 2020: all except TrustForBenefitOfEmployeesMember; Removed for 2019: WarrantsNotSettleableInCashMember, ContingentConsiderationClassifiedAsEquityMember, EquityIssuedInBusinessCombinationMember; Added for 2019: AociGainLossDebtSecuritiesAvailableForSaleWithAllowanceForCreditLossParentMember, AociGainLossDebtSecuritiesAvailableForSaleWithAllowanceForCreditLossIncludingNoncontrollingInterestMember, AociGainLossDebtSecuritiesAvailableForSaleWithAllowanceForCreditLossNoncontrollingInterestMember, AociGainLossDebtSecuritiesAvailableForSaleWithoutAllowanceForCreditLossParentMember, AociGainLossDebtSecuritiesAvailableForSaleWithoutAllowanceForCreditLossNoncontrollingInterestMember, AociGainLossDebtSecuritiesAvailableForSaleWithoutAllowanceForCreditLossIncludingNoncontrollingInterestMember; Added For 2018: AccumulatedNetGainLossFromCashFlowHedgesIncludingPortionAttributableToNoncontrollingInterestMember, AccumulatedNetGainLossFromDesignatedOrQualifyingCashFlowHedgesMember, AccumulatedNetGainLossFromCashFlowHedgesAttributableToNoncontrollingInterestMember; Before 2018: WarrantsNotSettleableInCashMember, ContingentConsiderationClassifiedAsEquityMember, EquityIssuedInBusinessCombinationMember, TrustForBenefitOfEmployeesMember</t>
   </si>
 </sst>
 </file>
@@ -1416,9 +1416,7 @@
   </sheetPr>
   <dimension ref="A1:AD111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -2050,7 +2048,7 @@
         <v>17</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>93</v>
+        <v>307</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>17</v>
@@ -2061,7 +2059,7 @@
     </row>
     <row r="22" spans="1:30" s="8" customFormat="1" ht="12">
       <c r="A22" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>13</v>
@@ -2070,10 +2068,10 @@
         <v>14</v>
       </c>
       <c r="D22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>17</v>
@@ -2087,7 +2085,7 @@
     </row>
     <row r="23" spans="1:30" s="8" customFormat="1" ht="12">
       <c r="A23" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>13</v>
@@ -2096,10 +2094,10 @@
         <v>38</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>17</v>
@@ -2113,7 +2111,7 @@
     </row>
     <row r="24" spans="1:30" s="8" customFormat="1" ht="12">
       <c r="A24" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>13</v>
@@ -2122,10 +2120,10 @@
         <v>14</v>
       </c>
       <c r="D24" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>27</v>
@@ -2139,7 +2137,7 @@
     </row>
     <row r="25" spans="1:30" s="8" customFormat="1" ht="12">
       <c r="A25" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>13</v>
@@ -2148,10 +2146,10 @@
         <v>14</v>
       </c>
       <c r="D25" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>27</v>
@@ -2168,19 +2166,19 @@
     </row>
     <row r="26" spans="1:30" s="8" customFormat="1" ht="12">
       <c r="A26" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="E26" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>27</v>
@@ -2197,19 +2195,19 @@
     </row>
     <row r="27" spans="1:30" s="8" customFormat="1" ht="12">
       <c r="A27" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D27" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>27</v>
@@ -2223,7 +2221,7 @@
     </row>
     <row r="28" spans="1:30" s="8" customFormat="1" ht="12">
       <c r="A28" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>13</v>
@@ -2232,10 +2230,10 @@
         <v>14</v>
       </c>
       <c r="D28" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>17</v>
@@ -2299,7 +2297,7 @@
     </row>
     <row r="33" spans="1:30" s="20" customFormat="1" ht="16.5">
       <c r="A33" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -2333,7 +2331,7 @@
     </row>
     <row r="34" spans="1:30" s="5" customFormat="1" ht="15">
       <c r="A34" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -2344,214 +2342,214 @@
         <v>2</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:30" s="8" customFormat="1" ht="12">
       <c r="A35" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="E35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:30" s="8" customFormat="1" ht="12">
       <c r="A36" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="E36" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:30" s="8" customFormat="1" ht="12">
       <c r="A37" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="E37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:30" s="8" customFormat="1" ht="12">
       <c r="A38" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="E38" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:30" s="8" customFormat="1" ht="12">
       <c r="A39" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="E39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:30" s="8" customFormat="1" ht="12">
       <c r="A40" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="E40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:30" s="8" customFormat="1" ht="12">
       <c r="A41" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="E41" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:30" s="8" customFormat="1" ht="12">
       <c r="A42" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="E42" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:30" s="8" customFormat="1" ht="12">
       <c r="A43" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="E43" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:30" s="8" customFormat="1" ht="12">
       <c r="A44" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="E44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:30" s="8" customFormat="1" ht="12">
       <c r="A45" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="E45" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:30" s="8" customFormat="1" ht="12">
       <c r="A46" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="E46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:30" s="8" customFormat="1" ht="12">
       <c r="A47" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="E47" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:30" s="8" customFormat="1" ht="12">
       <c r="A48" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="E48" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="8" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="50" spans="1:6" s="18" customFormat="1" ht="16.5">
       <c r="A50" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="A51" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -2562,150 +2560,150 @@
         <v>2</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A52" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
       <c r="D52" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="F52" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A53" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
       <c r="D53" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F53" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A54" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
       <c r="D54" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>170</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A55" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="E55" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A56" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D56" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="E56" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F56" s="22" t="s">
         <v>176</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="F56" s="22" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A57" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D57" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="E57" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F57" s="22" t="s">
         <v>179</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="F57" s="22" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A58" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="E58" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F58" s="22" t="s">
         <v>182</v>
-      </c>
-      <c r="E58" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="F58" s="22" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A59" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D59" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="E59" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F59" s="22" t="s">
         <v>185</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="F59" s="22" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A60" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D60" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="E60" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F60" s="22" t="s">
         <v>188</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="F60" s="22" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="8" customFormat="1" ht="12"/>
     <row r="62" spans="1:6" s="18" customFormat="1" ht="16.5">
       <c r="A62" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="A63" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
@@ -2716,393 +2714,393 @@
         <v>2</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A64" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="E64" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A65" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D65" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="E65" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="8" t="s">
         <v>195</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A66" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="E66" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A67" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="E67" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A68" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D68" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="E68" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A69" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="E69" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A70" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="E70" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A71" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D71" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="E71" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A72" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="E72" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A73" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="E73" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A74" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D74" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="E74" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A75" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="E75" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>225</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A76" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D76" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="E76" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A77" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D77" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="E77" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A78" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D78" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="E78" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A79" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D79" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="E79" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="8" t="s">
         <v>237</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A80" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D80" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="E80" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A81" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D81" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="E81" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A82" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D82" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="E82" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A83" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D83" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="E83" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>249</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A84" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D84" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="E84" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>252</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A85" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D85" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="E85" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="8" t="s">
         <v>255</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A86" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D86" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="E86" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A87" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="D87" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="D87" s="22" t="s">
+      <c r="E87" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="22" t="s">
         <v>261</v>
-      </c>
-      <c r="E87" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="22" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A88" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="D88" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="D88" s="22" t="s">
+      <c r="E88" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="22" t="s">
         <v>264</v>
-      </c>
-      <c r="E88" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" s="22" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A89" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="D89" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="D89" s="22" t="s">
+      <c r="E89" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="22" t="s">
         <v>267</v>
-      </c>
-      <c r="E89" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" s="22" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A90" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D90" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="D90" s="22" t="s">
+      <c r="E90" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="22" t="s">
         <v>270</v>
-      </c>
-      <c r="E90" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="22" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A91" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D91" s="22" t="s">
         <v>272</v>
-      </c>
-      <c r="D91" s="22" t="s">
-        <v>273</v>
       </c>
       <c r="E91" s="22" t="s">
         <v>14</v>
@@ -3110,10 +3108,10 @@
     </row>
     <row r="92" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A92" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D92" s="8" t="s">
         <v>274</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>275</v>
       </c>
       <c r="E92" s="22" t="s">
         <v>14</v>
@@ -3122,12 +3120,12 @@
     <row r="93" spans="1:6" s="8" customFormat="1" ht="12"/>
     <row r="94" spans="1:6" s="18" customFormat="1" ht="16.5">
       <c r="A94" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="A95" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
@@ -3138,102 +3136,102 @@
         <v>2</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A96" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D96" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="E96" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F96" s="8" t="s">
         <v>278</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A97" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D97" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="E97" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F97" s="8" t="s">
         <v>281</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A98" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D98" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="E98" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F98" s="8" t="s">
         <v>284</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A99" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D99" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="E99" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F99" s="8" t="s">
         <v>287</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A100" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D100" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="E100" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F100" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A101" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D101" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="E101" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F101" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="8" customFormat="1" ht="12"/>
     <row r="103" spans="1:6" s="18" customFormat="1" ht="16.5">
       <c r="A103" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="A104" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
@@ -3244,63 +3242,63 @@
         <v>2</v>
       </c>
       <c r="F104" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A105" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="D105" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="E105" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="22" t="s">
         <v>297</v>
-      </c>
-      <c r="E105" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="22" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A106" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="D106" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="E106" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="22" t="s">
         <v>300</v>
-      </c>
-      <c r="E106" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" s="22" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A107" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="D107" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="E107" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="22" t="s">
         <v>303</v>
-      </c>
-      <c r="E107" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F107" s="22" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="8" customFormat="1" ht="12">
       <c r="A108" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="D108" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="D108" s="22" t="s">
+      <c r="E108" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="22" t="s">
         <v>306</v>
-      </c>
-      <c r="E108" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="22" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="16.5">

--- a/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
+++ b/docs/DQC_US_0001/DQC_0001_ListOfAxes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DJT\Documents\GitHub\DQC\dqc_us_rules\docs\DQC_US_0001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\GitHub\DQC\dqc_us_rules\docs\DQC_US_0001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6E9634-6266-4967-8E6B-E8DB6753B58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C645038D-5149-49D4-8321-250AB65DA194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,9 +205,6 @@
     <t>VES, SVC, STN, MRU</t>
   </si>
   <si>
-    <t>SICAD1Member, SICAD2Member, OtherCurrencyMember, NonUSDollarMember, CENCOEXMember, SICADMember, SIMADIMember, DIPROMember, DICOMMember</t>
-  </si>
-  <si>
     <t>DQC_0001.63</t>
   </si>
   <si>
@@ -405,13 +402,16 @@
   </si>
   <si>
     <t>RetirementPlanSponsorLocationAxis</t>
+  </si>
+  <si>
+    <t>SICAD1Member, SICAD2Member, OtherCurrencyMember, CENCOEXMember, SICADMember, SIMADIMember, DIPROMember, DICOMMember</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -908,26 +908,26 @@
   </sheetPr>
   <dimension ref="A1:AD113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="54" customWidth="1"/>
     <col min="5" max="5" width="47" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="46.85546875" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" customWidth="1"/>
-    <col min="10" max="10" width="54.85546875" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="46.88671875" customWidth="1"/>
+    <col min="8" max="8" width="31.44140625" customWidth="1"/>
+    <col min="10" max="10" width="54.88671875" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="13.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -984,7 +984,7 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
     </row>
-    <row r="2" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="13.2">
       <c r="A2" s="20" t="s">
         <v>13</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="13.2">
       <c r="A3" s="21" t="s">
         <v>21</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="13.2">
       <c r="A4" s="21" t="s">
         <v>25</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="13.2">
       <c r="A5" s="21" t="s">
         <v>30</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="13.2">
       <c r="A6" s="21" t="s">
         <v>36</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="13.2">
       <c r="A7" s="21" t="s">
         <v>40</v>
       </c>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="13.2">
       <c r="A8" s="21" t="s">
         <v>46</v>
       </c>
@@ -1212,7 +1212,7 @@
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="13.2">
       <c r="A9" s="21" t="s">
         <v>50</v>
       </c>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="13.2">
       <c r="A10" s="21" t="s">
         <v>53</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="13.2">
       <c r="A11" s="21" t="s">
         <v>57</v>
       </c>
@@ -1302,16 +1302,16 @@
         <v>19</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>45</v>
       </c>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="13.2">
       <c r="A12" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>14</v>
@@ -1320,10 +1320,10 @@
         <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>18</v>
@@ -1334,16 +1334,16 @@
         <v>19</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K12" s="5">
         <v>3</v>
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="13.2">
       <c r="A13" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>14</v>
@@ -1352,10 +1352,10 @@
         <v>15</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>18</v>
@@ -1371,9 +1371,9 @@
       </c>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="13.2">
       <c r="A14" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>14</v>
@@ -1382,10 +1382,10 @@
         <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>18</v>
@@ -1396,16 +1396,16 @@
         <v>19</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K14" s="5">
         <v>3</v>
       </c>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="13.2">
       <c r="A15" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>14</v>
@@ -1414,10 +1414,10 @@
         <v>15</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>18</v>
@@ -1428,16 +1428,16 @@
         <v>19</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K15" s="5">
         <v>3</v>
       </c>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:29" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="46.2">
       <c r="A16" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>14</v>
@@ -1446,19 +1446,19 @@
         <v>41</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="22" t="s">
+      <c r="H16" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>18</v>
@@ -1469,9 +1469,9 @@
       </c>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:30" ht="84" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="80.400000000000006">
       <c r="A17" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>14</v>
@@ -1480,10 +1480,10 @@
         <v>41</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>18</v>
@@ -1494,16 +1494,16 @@
         <v>19</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>45</v>
       </c>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:30" ht="84" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" ht="80.400000000000006">
       <c r="A18" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>14</v>
@@ -1512,16 +1512,16 @@
         <v>15</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="22" t="s">
         <v>88</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>89</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5" t="s">
@@ -1533,9 +1533,9 @@
       </c>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" ht="13.2">
       <c r="A19" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>14</v>
@@ -1544,10 +1544,10 @@
         <v>15</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>18</v>
@@ -1563,9 +1563,9 @@
       </c>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="13.2">
       <c r="A20" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>14</v>
@@ -1574,10 +1574,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>18</v>
@@ -1593,9 +1593,9 @@
       </c>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="13.2">
       <c r="A21" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>14</v>
@@ -1604,17 +1604,17 @@
         <v>15</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>18</v>
@@ -1625,9 +1625,9 @@
       </c>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" ht="13.2">
       <c r="A22" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>14</v>
@@ -1636,10 +1636,10 @@
         <v>15</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>18</v>
@@ -1655,9 +1655,9 @@
       </c>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" ht="13.2">
       <c r="A23" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>14</v>
@@ -1666,10 +1666,10 @@
         <v>41</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>18</v>
@@ -1685,9 +1685,9 @@
       </c>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" ht="13.2">
       <c r="A24" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>14</v>
@@ -1696,10 +1696,10 @@
         <v>15</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>18</v>
@@ -1715,9 +1715,9 @@
       </c>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="13.2">
       <c r="A25" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>14</v>
@@ -1726,10 +1726,10 @@
         <v>15</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>18</v>
@@ -1747,21 +1747,21 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="13.2">
       <c r="A26" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="E26" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>18</v>
@@ -1779,21 +1779,21 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" ht="13.2">
       <c r="A27" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="24" t="s">
+      <c r="E27" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>18</v>
@@ -1809,9 +1809,9 @@
       </c>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" ht="13.2">
       <c r="A28" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>14</v>
@@ -1820,10 +1820,10 @@
         <v>15</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="25" t="s">
         <v>120</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>121</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>18</v>
@@ -1839,9 +1839,9 @@
       </c>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" ht="13.2">
       <c r="A29" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>14</v>
@@ -1850,10 +1850,10 @@
         <v>15</v>
       </c>
       <c r="D29" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>124</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>18</v>
@@ -1871,9 +1871,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" ht="13.2">
       <c r="A30" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>14</v>
@@ -1882,7 +1882,7 @@
         <v>15</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="15"/>
@@ -1911,9 +1911,9 @@
       <c r="AC30" s="18"/>
       <c r="AD30" s="18"/>
     </row>
-    <row r="31" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" ht="13.2">
       <c r="A31" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>14</v>
@@ -1922,10 +1922,10 @@
         <v>15</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" ht="4.5" customHeight="1">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1957,7 +1957,7 @@
       <c r="AC32" s="7"/>
       <c r="AD32" s="7"/>
     </row>
-    <row r="34" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" ht="13.2">
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -1972,7 +1972,7 @@
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
     </row>
-    <row r="35" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" ht="16.8">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -2004,7 +2004,7 @@
       <c r="AC35" s="9"/>
       <c r="AD35" s="9"/>
     </row>
-    <row r="36" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" ht="13.2">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -2012,7 +2012,7 @@
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" ht="13.2">
       <c r="A37" s="5"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2020,7 +2020,7 @@
       <c r="E37" s="11"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" ht="13.2">
       <c r="A38" s="5"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2028,7 +2028,7 @@
       <c r="E38" s="11"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" ht="13.2">
       <c r="A39" s="5"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2036,7 +2036,7 @@
       <c r="E39" s="11"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" ht="13.2">
       <c r="A40" s="5"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2044,7 +2044,7 @@
       <c r="E40" s="11"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" ht="13.2">
       <c r="A41" s="5"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2052,7 +2052,7 @@
       <c r="E41" s="11"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" ht="13.2">
       <c r="A42" s="5"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2060,7 +2060,7 @@
       <c r="E42" s="11"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" ht="13.2">
       <c r="A43" s="5"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2068,7 +2068,7 @@
       <c r="E43" s="11"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" ht="13.2">
       <c r="A44" s="5"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2076,7 +2076,7 @@
       <c r="E44" s="11"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" ht="13.2">
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2084,7 +2084,7 @@
       <c r="E45" s="11"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" ht="13.2">
       <c r="A46" s="5"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2092,7 +2092,7 @@
       <c r="E46" s="11"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" ht="13.2">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2100,7 +2100,7 @@
       <c r="E47" s="11"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" ht="13.2">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2108,7 +2108,7 @@
       <c r="E48" s="11"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="13.2">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2116,7 +2116,7 @@
       <c r="E49" s="11"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="13.2">
       <c r="A50" s="5"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2124,10 +2124,10 @@
       <c r="E50" s="11"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="16.8">
       <c r="A52" s="8"/>
     </row>
-    <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="13.2">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -2135,7 +2135,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="13.2">
       <c r="A54" s="5"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -2143,7 +2143,7 @@
       <c r="E54" s="5"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="13.2">
       <c r="A55" s="5"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -2151,7 +2151,7 @@
       <c r="E55" s="5"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="13.2">
       <c r="A56" s="4"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -2159,7 +2159,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="13.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2167,13 +2167,13 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="16.8">
       <c r="A63" s="8"/>
     </row>
-    <row r="64" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="16.8">
       <c r="A64" s="8"/>
     </row>
-    <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="13.2">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -2181,7 +2181,7 @@
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
     </row>
-    <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="13.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2189,7 +2189,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="13.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2197,7 +2197,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="13.2">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2205,7 +2205,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="13.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2213,7 +2213,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="13.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2221,7 +2221,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="13.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2229,7 +2229,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="13.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2237,7 +2237,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="13.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2245,7 +2245,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="13.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2253,7 +2253,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="13.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2261,7 +2261,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="13.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -2269,7 +2269,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="13.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2277,7 +2277,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="13.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2285,7 +2285,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="13.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2293,7 +2293,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="13.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -2301,7 +2301,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="13.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2309,7 +2309,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="13.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2317,7 +2317,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="13.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2325,7 +2325,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="13.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2333,7 +2333,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="13.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -2341,7 +2341,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="13.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -2349,7 +2349,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="13.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -2357,7 +2357,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="13.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -2365,23 +2365,23 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="92" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="13.2">
       <c r="A92" s="6"/>
     </row>
-    <row r="93" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="13.2">
       <c r="A93" s="13"/>
     </row>
-    <row r="94" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="13.2">
       <c r="A94" s="13"/>
       <c r="D94" s="13"/>
     </row>
-    <row r="95" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="16.8">
       <c r="A95" s="8"/>
     </row>
-    <row r="96" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="16.8">
       <c r="A96" s="8"/>
     </row>
-    <row r="97" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" ht="13.2">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -2413,7 +2413,7 @@
       <c r="AC97" s="4"/>
       <c r="AD97" s="4"/>
     </row>
-    <row r="98" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" ht="13.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -2445,7 +2445,7 @@
       <c r="AC98" s="4"/>
       <c r="AD98" s="4"/>
     </row>
-    <row r="99" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" ht="13.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -2477,7 +2477,7 @@
       <c r="AC99" s="4"/>
       <c r="AD99" s="4"/>
     </row>
-    <row r="100" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" ht="13.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -2509,7 +2509,7 @@
       <c r="AC100" s="4"/>
       <c r="AD100" s="4"/>
     </row>
-    <row r="101" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" ht="13.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -2541,7 +2541,7 @@
       <c r="AC101" s="4"/>
       <c r="AD101" s="4"/>
     </row>
-    <row r="102" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" ht="13.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -2573,7 +2573,7 @@
       <c r="AC102" s="4"/>
       <c r="AD102" s="4"/>
     </row>
-    <row r="103" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" ht="13.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -2605,7 +2605,7 @@
       <c r="AC103" s="4"/>
       <c r="AD103" s="4"/>
     </row>
-    <row r="104" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" ht="13.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -2637,7 +2637,7 @@
       <c r="AC104" s="4"/>
       <c r="AD104" s="4"/>
     </row>
-    <row r="105" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:30" ht="16.8">
       <c r="A105" s="8"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -2669,7 +2669,7 @@
       <c r="AC105" s="4"/>
       <c r="AD105" s="4"/>
     </row>
-    <row r="106" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" ht="13.2">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -2701,16 +2701,16 @@
       <c r="AC106" s="4"/>
       <c r="AD106" s="4"/>
     </row>
-    <row r="107" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" ht="13.2">
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" ht="13.2">
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" ht="13.2">
       <c r="D109" s="4"/>
     </row>
-    <row r="112" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:30" ht="16.8">
       <c r="A112" s="8"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -2718,7 +2718,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="13.2">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
